--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="327">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -694,6 +694,9 @@
     <t>['2', '43']</t>
   </si>
   <si>
+    <t>['47', '63']</t>
+  </si>
+  <si>
     <t>['44', '85']</t>
   </si>
   <si>
@@ -989,6 +992,9 @@
   </si>
   <si>
     <t>['-1', '-1']</t>
+  </si>
+  <si>
+    <t>['27', '67']</t>
   </si>
 </sst>
 </file>
@@ -1350,7 +1356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP246"/>
+  <dimension ref="A1:BP247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2845,7 +2851,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -3257,7 +3263,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3463,7 +3469,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3875,7 +3881,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -4287,7 +4293,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -4905,7 +4911,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -5111,7 +5117,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5317,7 +5323,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5523,7 +5529,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5729,7 +5735,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -6553,7 +6559,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -7789,7 +7795,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -8201,7 +8207,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8407,7 +8413,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8613,7 +8619,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -9643,7 +9649,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9849,7 +9855,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -10261,7 +10267,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10673,7 +10679,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10879,7 +10885,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -11703,7 +11709,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -12321,7 +12327,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -12527,7 +12533,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12733,7 +12739,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12939,7 +12945,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13145,7 +13151,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -13557,7 +13563,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -14793,7 +14799,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14999,7 +15005,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -15205,7 +15211,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -16235,7 +16241,7 @@
         <v>101</v>
       </c>
       <c r="P73" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16647,7 +16653,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16853,7 +16859,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17265,7 +17271,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q78">
         <v>5.5</v>
@@ -17471,7 +17477,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17677,7 +17683,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q80">
         <v>4.75</v>
@@ -18295,7 +18301,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q83">
         <v>3.5</v>
@@ -18501,7 +18507,7 @@
         <v>89</v>
       </c>
       <c r="P84" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18913,7 +18919,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -19943,7 +19949,7 @@
         <v>89</v>
       </c>
       <c r="P91" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -20355,7 +20361,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20767,7 +20773,7 @@
         <v>145</v>
       </c>
       <c r="P95" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -21179,7 +21185,7 @@
         <v>146</v>
       </c>
       <c r="P97" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21591,7 +21597,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -22415,7 +22421,7 @@
         <v>89</v>
       </c>
       <c r="P103" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22621,7 +22627,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q104">
         <v>3.4</v>
@@ -22827,7 +22833,7 @@
         <v>150</v>
       </c>
       <c r="P105" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -23239,7 +23245,7 @@
         <v>89</v>
       </c>
       <c r="P107" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q107">
         <v>6.5</v>
@@ -23445,7 +23451,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q108">
         <v>4.75</v>
@@ -24063,7 +24069,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -24269,7 +24275,7 @@
         <v>89</v>
       </c>
       <c r="P112" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24887,7 +24893,7 @@
         <v>148</v>
       </c>
       <c r="P115" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q115">
         <v>8</v>
@@ -25299,7 +25305,7 @@
         <v>89</v>
       </c>
       <c r="P117" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q117">
         <v>3.25</v>
@@ -25505,7 +25511,7 @@
         <v>89</v>
       </c>
       <c r="P118" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25711,7 +25717,7 @@
         <v>158</v>
       </c>
       <c r="P119" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q119">
         <v>2.38</v>
@@ -26123,7 +26129,7 @@
         <v>89</v>
       </c>
       <c r="P121" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q121">
         <v>3.4</v>
@@ -26329,7 +26335,7 @@
         <v>159</v>
       </c>
       <c r="P122" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26535,7 +26541,7 @@
         <v>160</v>
       </c>
       <c r="P123" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q123">
         <v>3.75</v>
@@ -26741,7 +26747,7 @@
         <v>89</v>
       </c>
       <c r="P124" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q124">
         <v>1.95</v>
@@ -27359,7 +27365,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q127">
         <v>3</v>
@@ -27565,7 +27571,7 @@
         <v>164</v>
       </c>
       <c r="P128" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q128">
         <v>2.6</v>
@@ -27771,7 +27777,7 @@
         <v>115</v>
       </c>
       <c r="P129" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -27977,7 +27983,7 @@
         <v>89</v>
       </c>
       <c r="P130" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q130">
         <v>5.5</v>
@@ -28389,7 +28395,7 @@
         <v>165</v>
       </c>
       <c r="P132" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28801,7 +28807,7 @@
         <v>166</v>
       </c>
       <c r="P134" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -29419,7 +29425,7 @@
         <v>89</v>
       </c>
       <c r="P137" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29625,7 +29631,7 @@
         <v>167</v>
       </c>
       <c r="P138" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -30037,7 +30043,7 @@
         <v>168</v>
       </c>
       <c r="P140" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q140">
         <v>2.6</v>
@@ -30449,7 +30455,7 @@
         <v>133</v>
       </c>
       <c r="P142" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q142">
         <v>2.25</v>
@@ -31067,7 +31073,7 @@
         <v>89</v>
       </c>
       <c r="P145" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q145">
         <v>4.33</v>
@@ -32303,7 +32309,7 @@
         <v>173</v>
       </c>
       <c r="P151" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q151">
         <v>2.1</v>
@@ -32715,7 +32721,7 @@
         <v>174</v>
       </c>
       <c r="P153" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q153">
         <v>3.75</v>
@@ -33127,7 +33133,7 @@
         <v>113</v>
       </c>
       <c r="P155" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q155">
         <v>2.6</v>
@@ -33333,7 +33339,7 @@
         <v>176</v>
       </c>
       <c r="P156" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q156">
         <v>6.5</v>
@@ -34775,7 +34781,7 @@
         <v>181</v>
       </c>
       <c r="P163" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q163">
         <v>3.5</v>
@@ -35393,7 +35399,7 @@
         <v>182</v>
       </c>
       <c r="P166" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q166">
         <v>3.25</v>
@@ -36011,7 +36017,7 @@
         <v>184</v>
       </c>
       <c r="P169" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q169">
         <v>3.4</v>
@@ -36217,7 +36223,7 @@
         <v>185</v>
       </c>
       <c r="P170" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q170">
         <v>2.75</v>
@@ -36629,7 +36635,7 @@
         <v>89</v>
       </c>
       <c r="P172" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q172">
         <v>6.5</v>
@@ -37247,7 +37253,7 @@
         <v>189</v>
       </c>
       <c r="P175" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q175">
         <v>3.4</v>
@@ -38071,7 +38077,7 @@
         <v>192</v>
       </c>
       <c r="P179" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q179">
         <v>3.1</v>
@@ -38483,7 +38489,7 @@
         <v>89</v>
       </c>
       <c r="P181" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q181">
         <v>2.1</v>
@@ -38895,7 +38901,7 @@
         <v>194</v>
       </c>
       <c r="P183" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q183">
         <v>2.6</v>
@@ -39925,7 +39931,7 @@
         <v>197</v>
       </c>
       <c r="P188" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q188">
         <v>2.25</v>
@@ -40131,7 +40137,7 @@
         <v>198</v>
       </c>
       <c r="P189" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q189">
         <v>3.25</v>
@@ -40543,7 +40549,7 @@
         <v>89</v>
       </c>
       <c r="P191" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q191">
         <v>3.4</v>
@@ -40749,7 +40755,7 @@
         <v>119</v>
       </c>
       <c r="P192" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q192">
         <v>4.5</v>
@@ -40955,7 +40961,7 @@
         <v>200</v>
       </c>
       <c r="P193" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q193">
         <v>3.75</v>
@@ -41161,7 +41167,7 @@
         <v>201</v>
       </c>
       <c r="P194" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q194">
         <v>2.63</v>
@@ -41367,7 +41373,7 @@
         <v>202</v>
       </c>
       <c r="P195" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q195">
         <v>3</v>
@@ -41985,7 +41991,7 @@
         <v>89</v>
       </c>
       <c r="P198" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q198">
         <v>2.63</v>
@@ -42191,7 +42197,7 @@
         <v>89</v>
       </c>
       <c r="P199" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q199">
         <v>3.25</v>
@@ -42397,7 +42403,7 @@
         <v>89</v>
       </c>
       <c r="P200" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q200">
         <v>6</v>
@@ -43015,7 +43021,7 @@
         <v>148</v>
       </c>
       <c r="P203" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q203">
         <v>2.75</v>
@@ -43221,7 +43227,7 @@
         <v>204</v>
       </c>
       <c r="P204" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q204">
         <v>2.63</v>
@@ -43427,7 +43433,7 @@
         <v>89</v>
       </c>
       <c r="P205" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q205">
         <v>4</v>
@@ -44045,7 +44051,7 @@
         <v>205</v>
       </c>
       <c r="P208" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q208">
         <v>3.6</v>
@@ -44251,7 +44257,7 @@
         <v>206</v>
       </c>
       <c r="P209" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q209">
         <v>3.4</v>
@@ -44457,7 +44463,7 @@
         <v>89</v>
       </c>
       <c r="P210" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q210">
         <v>2.1</v>
@@ -44663,7 +44669,7 @@
         <v>187</v>
       </c>
       <c r="P211" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q211">
         <v>3.2</v>
@@ -44869,7 +44875,7 @@
         <v>207</v>
       </c>
       <c r="P212" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q212">
         <v>5</v>
@@ -45281,7 +45287,7 @@
         <v>89</v>
       </c>
       <c r="P214" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q214">
         <v>2.75</v>
@@ -45899,7 +45905,7 @@
         <v>89</v>
       </c>
       <c r="P217" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q217">
         <v>3.2</v>
@@ -46105,7 +46111,7 @@
         <v>211</v>
       </c>
       <c r="P218" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q218">
         <v>3.4</v>
@@ -46517,7 +46523,7 @@
         <v>200</v>
       </c>
       <c r="P220" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q220">
         <v>4.5</v>
@@ -46723,7 +46729,7 @@
         <v>213</v>
       </c>
       <c r="P221" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q221">
         <v>1.95</v>
@@ -47959,7 +47965,7 @@
         <v>210</v>
       </c>
       <c r="P227" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q227">
         <v>3.5</v>
@@ -48165,7 +48171,7 @@
         <v>215</v>
       </c>
       <c r="P228" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q228">
         <v>3.6</v>
@@ -48577,7 +48583,7 @@
         <v>216</v>
       </c>
       <c r="P230" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q230">
         <v>3.1</v>
@@ -48783,7 +48789,7 @@
         <v>89</v>
       </c>
       <c r="P231" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q231">
         <v>3.75</v>
@@ -49401,7 +49407,7 @@
         <v>218</v>
       </c>
       <c r="P234" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q234">
         <v>2.5</v>
@@ -50431,7 +50437,7 @@
         <v>221</v>
       </c>
       <c r="P239" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q239">
         <v>4</v>
@@ -51049,7 +51055,7 @@
         <v>223</v>
       </c>
       <c r="P242" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q242">
         <v>1.95</v>
@@ -51255,7 +51261,7 @@
         <v>224</v>
       </c>
       <c r="P243" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q243">
         <v>2.75</v>
@@ -51461,7 +51467,7 @@
         <v>225</v>
       </c>
       <c r="P244" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q244">
         <v>4.33</v>
@@ -51873,7 +51879,7 @@
         <v>89</v>
       </c>
       <c r="P246" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q246">
         <v>3.4</v>
@@ -52030,6 +52036,212 @@
       </c>
       <c r="BP246">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="247" spans="1:68">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>7487361</v>
+      </c>
+      <c r="C247" t="s">
+        <v>68</v>
+      </c>
+      <c r="D247" t="s">
+        <v>69</v>
+      </c>
+      <c r="E247" s="2">
+        <v>45611.8125</v>
+      </c>
+      <c r="F247">
+        <v>20</v>
+      </c>
+      <c r="G247" t="s">
+        <v>78</v>
+      </c>
+      <c r="H247" t="s">
+        <v>81</v>
+      </c>
+      <c r="I247">
+        <v>0</v>
+      </c>
+      <c r="J247">
+        <v>1</v>
+      </c>
+      <c r="K247">
+        <v>1</v>
+      </c>
+      <c r="L247">
+        <v>2</v>
+      </c>
+      <c r="M247">
+        <v>2</v>
+      </c>
+      <c r="N247">
+        <v>4</v>
+      </c>
+      <c r="O247" t="s">
+        <v>226</v>
+      </c>
+      <c r="P247" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q247">
+        <v>3</v>
+      </c>
+      <c r="R247">
+        <v>2.05</v>
+      </c>
+      <c r="S247">
+        <v>4</v>
+      </c>
+      <c r="T247">
+        <v>1.42</v>
+      </c>
+      <c r="U247">
+        <v>2.78</v>
+      </c>
+      <c r="V247">
+        <v>3.12</v>
+      </c>
+      <c r="W247">
+        <v>1.34</v>
+      </c>
+      <c r="X247">
+        <v>7.6</v>
+      </c>
+      <c r="Y247">
+        <v>1.05</v>
+      </c>
+      <c r="Z247">
+        <v>2.25</v>
+      </c>
+      <c r="AA247">
+        <v>3.1</v>
+      </c>
+      <c r="AB247">
+        <v>3.4</v>
+      </c>
+      <c r="AC247">
+        <v>1.04</v>
+      </c>
+      <c r="AD247">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE247">
+        <v>1.33</v>
+      </c>
+      <c r="AF247">
+        <v>3.09</v>
+      </c>
+      <c r="AG247">
+        <v>2.2</v>
+      </c>
+      <c r="AH247">
+        <v>1.65</v>
+      </c>
+      <c r="AI247">
+        <v>1.83</v>
+      </c>
+      <c r="AJ247">
+        <v>1.83</v>
+      </c>
+      <c r="AK247">
+        <v>1.32</v>
+      </c>
+      <c r="AL247">
+        <v>1.32</v>
+      </c>
+      <c r="AM247">
+        <v>1.55</v>
+      </c>
+      <c r="AN247">
+        <v>1.05</v>
+      </c>
+      <c r="AO247">
+        <v>1</v>
+      </c>
+      <c r="AP247">
+        <v>1.05</v>
+      </c>
+      <c r="AQ247">
+        <v>1</v>
+      </c>
+      <c r="AR247">
+        <v>1.43</v>
+      </c>
+      <c r="AS247">
+        <v>1.31</v>
+      </c>
+      <c r="AT247">
+        <v>2.74</v>
+      </c>
+      <c r="AU247">
+        <v>4</v>
+      </c>
+      <c r="AV247">
+        <v>6</v>
+      </c>
+      <c r="AW247">
+        <v>8</v>
+      </c>
+      <c r="AX247">
+        <v>2</v>
+      </c>
+      <c r="AY247">
+        <v>12</v>
+      </c>
+      <c r="AZ247">
+        <v>8</v>
+      </c>
+      <c r="BA247">
+        <v>5</v>
+      </c>
+      <c r="BB247">
+        <v>5</v>
+      </c>
+      <c r="BC247">
+        <v>10</v>
+      </c>
+      <c r="BD247">
+        <v>1.9</v>
+      </c>
+      <c r="BE247">
+        <v>7.5</v>
+      </c>
+      <c r="BF247">
+        <v>2.28</v>
+      </c>
+      <c r="BG247">
+        <v>1.31</v>
+      </c>
+      <c r="BH247">
+        <v>3.15</v>
+      </c>
+      <c r="BI247">
+        <v>1.55</v>
+      </c>
+      <c r="BJ247">
+        <v>2.29</v>
+      </c>
+      <c r="BK247">
+        <v>1.95</v>
+      </c>
+      <c r="BL247">
+        <v>1.77</v>
+      </c>
+      <c r="BM247">
+        <v>2.47</v>
+      </c>
+      <c r="BN247">
+        <v>1.48</v>
+      </c>
+      <c r="BO247">
+        <v>3.3</v>
+      </c>
+      <c r="BP247">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="329">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -996,6 +996,12 @@
   <si>
     <t>['27', '67']</t>
   </si>
+  <si>
+    <t>['13', '45']</t>
+  </si>
+  <si>
+    <t>['15', '60']</t>
+  </si>
 </sst>
 </file>
 
@@ -1356,7 +1362,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP247"/>
+  <dimension ref="A1:BP249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1693,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AQ2">
         <v>1.29</v>
@@ -2105,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AQ4">
         <v>1.5</v>
@@ -2517,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -2723,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AQ7">
         <v>1.66</v>
@@ -3344,7 +3350,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ10">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AR10">
         <v>1.47</v>
@@ -3550,7 +3556,7 @@
         <v>1.66</v>
       </c>
       <c r="AQ11">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AR11">
         <v>1.49</v>
@@ -3959,10 +3965,10 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AQ13">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AR13">
         <v>1.34</v>
@@ -4165,7 +4171,7 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AQ14">
         <v>1.05</v>
@@ -4580,7 +4586,7 @@
         <v>0.98</v>
       </c>
       <c r="AQ16">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AR16">
         <v>1.54</v>
@@ -4783,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AQ17">
         <v>0.88</v>
@@ -5198,7 +5204,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ19">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AR19">
         <v>1.31</v>
@@ -5610,7 +5616,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ21">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AR21">
         <v>1.64</v>
@@ -5816,7 +5822,7 @@
         <v>0.98</v>
       </c>
       <c r="AQ22">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AR22">
         <v>1.54</v>
@@ -6225,7 +6231,7 @@
         <v>1.67</v>
       </c>
       <c r="AP24">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AQ24">
         <v>1.83</v>
@@ -6843,10 +6849,10 @@
         <v>1.75</v>
       </c>
       <c r="AP27">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AQ27">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AR27">
         <v>1.52</v>
@@ -7255,7 +7261,7 @@
         <v>2.5</v>
       </c>
       <c r="AP29">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AQ29">
         <v>1.66</v>
@@ -7461,7 +7467,7 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AQ30">
         <v>1.29</v>
@@ -7670,7 +7676,7 @@
         <v>0.98</v>
       </c>
       <c r="AQ31">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AR31">
         <v>1.28</v>
@@ -7873,10 +7879,10 @@
         <v>1.6</v>
       </c>
       <c r="AP32">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AQ32">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AR32">
         <v>1.21</v>
@@ -8082,7 +8088,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ33">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AR33">
         <v>1.41</v>
@@ -8903,7 +8909,7 @@
         <v>1.33</v>
       </c>
       <c r="AP37">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AQ37">
         <v>0.98</v>
@@ -9315,7 +9321,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AQ39">
         <v>1.05</v>
@@ -9524,7 +9530,7 @@
         <v>1</v>
       </c>
       <c r="AQ40">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AR40">
         <v>1.34</v>
@@ -9727,7 +9733,7 @@
         <v>1.17</v>
       </c>
       <c r="AP41">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AQ41">
         <v>1.83</v>
@@ -10139,10 +10145,10 @@
         <v>1.67</v>
       </c>
       <c r="AP43">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AQ43">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AR43">
         <v>1.44</v>
@@ -10345,7 +10351,7 @@
         <v>1.67</v>
       </c>
       <c r="AP44">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AQ44">
         <v>1.5</v>
@@ -10554,7 +10560,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ45">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AR45">
         <v>1.37</v>
@@ -11581,7 +11587,7 @@
         <v>0.75</v>
       </c>
       <c r="AP50">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AQ50">
         <v>0.88</v>
@@ -11993,10 +11999,10 @@
         <v>1.38</v>
       </c>
       <c r="AP52">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AQ52">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AR52">
         <v>1.52</v>
@@ -12202,7 +12208,7 @@
         <v>1.66</v>
       </c>
       <c r="AQ53">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AR53">
         <v>1.55</v>
@@ -12405,10 +12411,10 @@
         <v>1.38</v>
       </c>
       <c r="AP54">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AQ54">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AR54">
         <v>1.53</v>
@@ -13229,7 +13235,7 @@
         <v>0.44</v>
       </c>
       <c r="AP58">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AQ58">
         <v>1</v>
@@ -13435,7 +13441,7 @@
         <v>1.11</v>
       </c>
       <c r="AP59">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AQ59">
         <v>1.05</v>
@@ -13644,7 +13650,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ60">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AR60">
         <v>1.22</v>
@@ -13850,7 +13856,7 @@
         <v>1</v>
       </c>
       <c r="AQ61">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AR61">
         <v>1.27</v>
@@ -14053,7 +14059,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP62">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AQ62">
         <v>1.29</v>
@@ -14674,7 +14680,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ65">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AR65">
         <v>1.21</v>
@@ -15086,7 +15092,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ67">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AR67">
         <v>1.34</v>
@@ -15292,7 +15298,7 @@
         <v>1</v>
       </c>
       <c r="AQ68">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AR68">
         <v>1.27</v>
@@ -15498,7 +15504,7 @@
         <v>1.66</v>
       </c>
       <c r="AQ69">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AR69">
         <v>1.62</v>
@@ -15910,7 +15916,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ71">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AR71">
         <v>1.22</v>
@@ -16113,7 +16119,7 @@
         <v>1.17</v>
       </c>
       <c r="AP72">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AQ72">
         <v>1.05</v>
@@ -16937,7 +16943,7 @@
         <v>2.27</v>
       </c>
       <c r="AP76">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AQ76">
         <v>1.66</v>
@@ -17143,10 +17149,10 @@
         <v>1.33</v>
       </c>
       <c r="AP77">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AQ77">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AR77">
         <v>1.87</v>
@@ -17558,7 +17564,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ79">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AR79">
         <v>1.41</v>
@@ -17764,7 +17770,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ80">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AR80">
         <v>1.31</v>
@@ -17967,7 +17973,7 @@
         <v>1.08</v>
       </c>
       <c r="AP81">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AQ81">
         <v>0.98</v>
@@ -18382,7 +18388,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ83">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AR83">
         <v>1.24</v>
@@ -18997,7 +19003,7 @@
         <v>1.07</v>
       </c>
       <c r="AP86">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AQ86">
         <v>0.88</v>
@@ -19203,7 +19209,7 @@
         <v>0.71</v>
       </c>
       <c r="AP87">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AQ87">
         <v>1.29</v>
@@ -19615,7 +19621,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AQ89">
         <v>0.98</v>
@@ -19824,7 +19830,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ90">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AR90">
         <v>1.42</v>
@@ -20027,10 +20033,10 @@
         <v>1.4</v>
       </c>
       <c r="AP91">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AQ91">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AR91">
         <v>1.34</v>
@@ -20236,7 +20242,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ92">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AR92">
         <v>1.3</v>
@@ -20442,7 +20448,7 @@
         <v>1.66</v>
       </c>
       <c r="AQ93">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AR93">
         <v>1.6</v>
@@ -21881,10 +21887,10 @@
         <v>1.38</v>
       </c>
       <c r="AP100">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AQ100">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AR100">
         <v>1.48</v>
@@ -22087,7 +22093,7 @@
         <v>1.75</v>
       </c>
       <c r="AP101">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AQ101">
         <v>1.83</v>
@@ -22293,7 +22299,7 @@
         <v>0.88</v>
       </c>
       <c r="AP102">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AQ102">
         <v>0.98</v>
@@ -22499,7 +22505,7 @@
         <v>0.65</v>
       </c>
       <c r="AP103">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AQ103">
         <v>1</v>
@@ -22914,7 +22920,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ105">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AR105">
         <v>1.45</v>
@@ -23326,7 +23332,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ107">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AR107">
         <v>1.51</v>
@@ -23532,7 +23538,7 @@
         <v>0.98</v>
       </c>
       <c r="AQ108">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AR108">
         <v>1.32</v>
@@ -23738,7 +23744,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ109">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AR109">
         <v>1.21</v>
@@ -24353,7 +24359,7 @@
         <v>1.78</v>
       </c>
       <c r="AP112">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AQ112">
         <v>1.83</v>
@@ -24559,10 +24565,10 @@
         <v>1.39</v>
       </c>
       <c r="AP113">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AQ113">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AR113">
         <v>1.78</v>
@@ -24974,7 +24980,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ115">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AR115">
         <v>1.2</v>
@@ -25383,10 +25389,10 @@
         <v>1.53</v>
       </c>
       <c r="AP117">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AQ117">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AR117">
         <v>1.42</v>
@@ -25589,7 +25595,7 @@
         <v>2.05</v>
       </c>
       <c r="AP118">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AQ118">
         <v>1.66</v>
@@ -26210,7 +26216,7 @@
         <v>1</v>
       </c>
       <c r="AQ121">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AR121">
         <v>1.22</v>
@@ -26825,10 +26831,10 @@
         <v>1.6</v>
       </c>
       <c r="AP124">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AQ124">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AR124">
         <v>1.77</v>
@@ -27240,7 +27246,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ126">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AR126">
         <v>1.58</v>
@@ -27443,7 +27449,7 @@
         <v>1.4</v>
       </c>
       <c r="AP127">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AQ127">
         <v>1.5</v>
@@ -27649,7 +27655,7 @@
         <v>0.86</v>
       </c>
       <c r="AP128">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AQ128">
         <v>1</v>
@@ -28064,7 +28070,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ130">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AR130">
         <v>1.41</v>
@@ -28267,7 +28273,7 @@
         <v>0.95</v>
       </c>
       <c r="AP131">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AQ131">
         <v>0.88</v>
@@ -29094,7 +29100,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ135">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AR135">
         <v>1.47</v>
@@ -29300,7 +29306,7 @@
         <v>0.98</v>
       </c>
       <c r="AQ136">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AR136">
         <v>1.27</v>
@@ -29712,7 +29718,7 @@
         <v>1</v>
       </c>
       <c r="AQ138">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AR138">
         <v>1.21</v>
@@ -29915,7 +29921,7 @@
         <v>1</v>
       </c>
       <c r="AP139">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AQ139">
         <v>0.88</v>
@@ -30121,7 +30127,7 @@
         <v>1.13</v>
       </c>
       <c r="AP140">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AQ140">
         <v>1.05</v>
@@ -30742,7 +30748,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ143">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AR143">
         <v>1.19</v>
@@ -30945,10 +30951,10 @@
         <v>1.04</v>
       </c>
       <c r="AP144">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AQ144">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AR144">
         <v>1.69</v>
@@ -31563,7 +31569,7 @@
         <v>2.13</v>
       </c>
       <c r="AP147">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AQ147">
         <v>1.66</v>
@@ -31978,7 +31984,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ149">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AR149">
         <v>1.36</v>
@@ -32181,10 +32187,10 @@
         <v>1.63</v>
       </c>
       <c r="AP150">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AQ150">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AR150">
         <v>1.69</v>
@@ -32799,10 +32805,10 @@
         <v>1.44</v>
       </c>
       <c r="AP153">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AQ153">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AR153">
         <v>1.41</v>
@@ -33211,7 +33217,7 @@
         <v>0.96</v>
       </c>
       <c r="AP155">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AQ155">
         <v>0.88</v>
@@ -33420,7 +33426,7 @@
         <v>0.98</v>
       </c>
       <c r="AQ156">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AR156">
         <v>1.33</v>
@@ -33626,7 +33632,7 @@
         <v>1</v>
       </c>
       <c r="AQ157">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AR157">
         <v>1.22</v>
@@ -33829,7 +33835,7 @@
         <v>1.52</v>
       </c>
       <c r="AP158">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AQ158">
         <v>1.5</v>
@@ -34241,7 +34247,7 @@
         <v>1.12</v>
       </c>
       <c r="AP160">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AQ160">
         <v>1.05</v>
@@ -34656,7 +34662,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ162">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AR162">
         <v>1.34</v>
@@ -34859,10 +34865,10 @@
         <v>1.41</v>
       </c>
       <c r="AP163">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AQ163">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AR163">
         <v>1.34</v>
@@ -35683,7 +35689,7 @@
         <v>1.74</v>
       </c>
       <c r="AP167">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AQ167">
         <v>1.83</v>
@@ -35889,7 +35895,7 @@
         <v>1.96</v>
       </c>
       <c r="AP168">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AQ168">
         <v>1.66</v>
@@ -36098,7 +36104,7 @@
         <v>1</v>
       </c>
       <c r="AQ169">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AR169">
         <v>1.23</v>
@@ -36507,7 +36513,7 @@
         <v>0.89</v>
       </c>
       <c r="AP171">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AQ171">
         <v>0.98</v>
@@ -36716,7 +36722,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ172">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AR172">
         <v>1.2</v>
@@ -36922,7 +36928,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ173">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AR173">
         <v>1.49</v>
@@ -37537,7 +37543,7 @@
         <v>1.17</v>
       </c>
       <c r="AP176">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AQ176">
         <v>1.29</v>
@@ -37746,7 +37752,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ177">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AR177">
         <v>1.47</v>
@@ -37949,7 +37955,7 @@
         <v>1.97</v>
       </c>
       <c r="AP178">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AQ178">
         <v>1.66</v>
@@ -38158,7 +38164,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ179">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AR179">
         <v>1.18</v>
@@ -38773,10 +38779,10 @@
         <v>2.14</v>
       </c>
       <c r="AP182">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AQ182">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AR182">
         <v>1.35</v>
@@ -39391,10 +39397,10 @@
         <v>1.47</v>
       </c>
       <c r="AP185">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AQ185">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AR185">
         <v>1.38</v>
@@ -40009,7 +40015,7 @@
         <v>1.03</v>
       </c>
       <c r="AP188">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AQ188">
         <v>1</v>
@@ -40215,7 +40221,7 @@
         <v>1.43</v>
       </c>
       <c r="AP189">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AQ189">
         <v>1.5</v>
@@ -40630,7 +40636,7 @@
         <v>0.98</v>
       </c>
       <c r="AQ191">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AR191">
         <v>1.37</v>
@@ -40836,7 +40842,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ192">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AR192">
         <v>1.18</v>
@@ -41042,7 +41048,7 @@
         <v>1.66</v>
       </c>
       <c r="AQ193">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AR193">
         <v>1.54</v>
@@ -41248,7 +41254,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ194">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AR194">
         <v>1.54</v>
@@ -41657,7 +41663,7 @@
         <v>1.25</v>
       </c>
       <c r="AP196">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AQ196">
         <v>1.29</v>
@@ -41863,7 +41869,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP197">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AQ197">
         <v>1.05</v>
@@ -42481,10 +42487,10 @@
         <v>1.97</v>
       </c>
       <c r="AP200">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AQ200">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AR200">
         <v>1.42</v>
@@ -42893,7 +42899,7 @@
         <v>1.82</v>
       </c>
       <c r="AP202">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AQ202">
         <v>1.83</v>
@@ -43305,7 +43311,7 @@
         <v>1.06</v>
       </c>
       <c r="AP204">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AQ204">
         <v>0.98</v>
@@ -43514,7 +43520,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ205">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AR205">
         <v>1.22</v>
@@ -43717,7 +43723,7 @@
         <v>0.97</v>
       </c>
       <c r="AP206">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AQ206">
         <v>1</v>
@@ -44132,7 +44138,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ208">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AR208">
         <v>1.43</v>
@@ -44541,7 +44547,7 @@
         <v>1.39</v>
       </c>
       <c r="AP210">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AQ210">
         <v>1.5</v>
@@ -45159,10 +45165,10 @@
         <v>1.94</v>
       </c>
       <c r="AP213">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AQ213">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AR213">
         <v>1.36</v>
@@ -45368,7 +45374,7 @@
         <v>1.66</v>
       </c>
       <c r="AQ214">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AR214">
         <v>1.54</v>
@@ -45777,7 +45783,7 @@
         <v>1.34</v>
       </c>
       <c r="AP216">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AQ216">
         <v>1.29</v>
@@ -45986,7 +45992,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ217">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AR217">
         <v>1.23</v>
@@ -46189,10 +46195,10 @@
         <v>1.19</v>
       </c>
       <c r="AP218">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AQ218">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AR218">
         <v>1.3</v>
@@ -46807,7 +46813,7 @@
         <v>1.06</v>
       </c>
       <c r="AP221">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AQ221">
         <v>0.98</v>
@@ -47219,7 +47225,7 @@
         <v>1</v>
       </c>
       <c r="AP223">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AQ223">
         <v>1</v>
@@ -47634,7 +47640,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ225">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AR225">
         <v>1.41</v>
@@ -48046,7 +48052,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ227">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AR227">
         <v>1.22</v>
@@ -48249,7 +48255,7 @@
         <v>1.3</v>
       </c>
       <c r="AP228">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AQ228">
         <v>1.29</v>
@@ -48664,7 +48670,7 @@
         <v>1.66</v>
       </c>
       <c r="AQ230">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AR230">
         <v>1.54</v>
@@ -49282,7 +49288,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ233">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AR233">
         <v>1.52</v>
@@ -49485,10 +49491,10 @@
         <v>1.39</v>
       </c>
       <c r="AP234">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AQ234">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AR234">
         <v>1.31</v>
@@ -49694,7 +49700,7 @@
         <v>0.98</v>
       </c>
       <c r="AQ235">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AR235">
         <v>1.42</v>
@@ -49897,7 +49903,7 @@
         <v>0.97</v>
       </c>
       <c r="AP236">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AQ236">
         <v>1</v>
@@ -50309,7 +50315,7 @@
         <v>1.85</v>
       </c>
       <c r="AP238">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AQ238">
         <v>1.83</v>
@@ -50721,7 +50727,7 @@
         <v>0.9</v>
       </c>
       <c r="AP240">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AQ240">
         <v>0.88</v>
@@ -50930,7 +50936,7 @@
         <v>1.66</v>
       </c>
       <c r="AQ241">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AR241">
         <v>1.53</v>
@@ -51548,7 +51554,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ244">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AR244">
         <v>1.41</v>
@@ -51751,7 +51757,7 @@
         <v>1.05</v>
       </c>
       <c r="AP245">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AQ245">
         <v>1.05</v>
@@ -51957,7 +51963,7 @@
         <v>1.46</v>
       </c>
       <c r="AP246">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AQ246">
         <v>1.5</v>
@@ -52178,13 +52184,13 @@
         <v>2.74</v>
       </c>
       <c r="AU247">
+        <v>3</v>
+      </c>
+      <c r="AV247">
         <v>4</v>
       </c>
-      <c r="AV247">
-        <v>6</v>
-      </c>
       <c r="AW247">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX247">
         <v>2</v>
@@ -52193,7 +52199,7 @@
         <v>12</v>
       </c>
       <c r="AZ247">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA247">
         <v>5</v>
@@ -52242,6 +52248,418 @@
       </c>
       <c r="BP247">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="248" spans="1:68">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>7487359</v>
+      </c>
+      <c r="C248" t="s">
+        <v>68</v>
+      </c>
+      <c r="D248" t="s">
+        <v>69</v>
+      </c>
+      <c r="E248" s="2">
+        <v>45612.75</v>
+      </c>
+      <c r="F248">
+        <v>20</v>
+      </c>
+      <c r="G248" t="s">
+        <v>72</v>
+      </c>
+      <c r="H248" t="s">
+        <v>70</v>
+      </c>
+      <c r="I248">
+        <v>0</v>
+      </c>
+      <c r="J248">
+        <v>2</v>
+      </c>
+      <c r="K248">
+        <v>2</v>
+      </c>
+      <c r="L248">
+        <v>0</v>
+      </c>
+      <c r="M248">
+        <v>2</v>
+      </c>
+      <c r="N248">
+        <v>2</v>
+      </c>
+      <c r="O248" t="s">
+        <v>89</v>
+      </c>
+      <c r="P248" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q248">
+        <v>3.75</v>
+      </c>
+      <c r="R248">
+        <v>1.91</v>
+      </c>
+      <c r="S248">
+        <v>3.5</v>
+      </c>
+      <c r="T248">
+        <v>1.55</v>
+      </c>
+      <c r="U248">
+        <v>2.38</v>
+      </c>
+      <c r="V248">
+        <v>3.5</v>
+      </c>
+      <c r="W248">
+        <v>1.26</v>
+      </c>
+      <c r="X248">
+        <v>9.9</v>
+      </c>
+      <c r="Y248">
+        <v>1.02</v>
+      </c>
+      <c r="Z248">
+        <v>2.9</v>
+      </c>
+      <c r="AA248">
+        <v>3</v>
+      </c>
+      <c r="AB248">
+        <v>2.6</v>
+      </c>
+      <c r="AC248">
+        <v>1.11</v>
+      </c>
+      <c r="AD248">
+        <v>6</v>
+      </c>
+      <c r="AE248">
+        <v>1.5</v>
+      </c>
+      <c r="AF248">
+        <v>2.4</v>
+      </c>
+      <c r="AG248">
+        <v>2.6</v>
+      </c>
+      <c r="AH248">
+        <v>1.48</v>
+      </c>
+      <c r="AI248">
+        <v>2.2</v>
+      </c>
+      <c r="AJ248">
+        <v>1.62</v>
+      </c>
+      <c r="AK248">
+        <v>1.37</v>
+      </c>
+      <c r="AL248">
+        <v>1.36</v>
+      </c>
+      <c r="AM248">
+        <v>1.44</v>
+      </c>
+      <c r="AN248">
+        <v>1.41</v>
+      </c>
+      <c r="AO248">
+        <v>1.29</v>
+      </c>
+      <c r="AP248">
+        <v>1.38</v>
+      </c>
+      <c r="AQ248">
+        <v>1.33</v>
+      </c>
+      <c r="AR248">
+        <v>1.34</v>
+      </c>
+      <c r="AS248">
+        <v>1.42</v>
+      </c>
+      <c r="AT248">
+        <v>2.76</v>
+      </c>
+      <c r="AU248">
+        <v>4</v>
+      </c>
+      <c r="AV248">
+        <v>3</v>
+      </c>
+      <c r="AW248">
+        <v>3</v>
+      </c>
+      <c r="AX248">
+        <v>4</v>
+      </c>
+      <c r="AY248">
+        <v>7</v>
+      </c>
+      <c r="AZ248">
+        <v>7</v>
+      </c>
+      <c r="BA248">
+        <v>4</v>
+      </c>
+      <c r="BB248">
+        <v>2</v>
+      </c>
+      <c r="BC248">
+        <v>6</v>
+      </c>
+      <c r="BD248">
+        <v>2.14</v>
+      </c>
+      <c r="BE248">
+        <v>7.2</v>
+      </c>
+      <c r="BF248">
+        <v>2.03</v>
+      </c>
+      <c r="BG248">
+        <v>1.34</v>
+      </c>
+      <c r="BH248">
+        <v>2.98</v>
+      </c>
+      <c r="BI248">
+        <v>1.6</v>
+      </c>
+      <c r="BJ248">
+        <v>2.19</v>
+      </c>
+      <c r="BK248">
+        <v>1.95</v>
+      </c>
+      <c r="BL248">
+        <v>1.77</v>
+      </c>
+      <c r="BM248">
+        <v>2.6</v>
+      </c>
+      <c r="BN248">
+        <v>1.44</v>
+      </c>
+      <c r="BO248">
+        <v>3.5</v>
+      </c>
+      <c r="BP248">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="249" spans="1:68">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>7487362</v>
+      </c>
+      <c r="C249" t="s">
+        <v>68</v>
+      </c>
+      <c r="D249" t="s">
+        <v>69</v>
+      </c>
+      <c r="E249" s="2">
+        <v>45612.85416666666</v>
+      </c>
+      <c r="F249">
+        <v>20</v>
+      </c>
+      <c r="G249" t="s">
+        <v>74</v>
+      </c>
+      <c r="H249" t="s">
+        <v>75</v>
+      </c>
+      <c r="I249">
+        <v>1</v>
+      </c>
+      <c r="J249">
+        <v>1</v>
+      </c>
+      <c r="K249">
+        <v>2</v>
+      </c>
+      <c r="L249">
+        <v>1</v>
+      </c>
+      <c r="M249">
+        <v>2</v>
+      </c>
+      <c r="N249">
+        <v>3</v>
+      </c>
+      <c r="O249" t="s">
+        <v>129</v>
+      </c>
+      <c r="P249" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q249">
+        <v>2.1</v>
+      </c>
+      <c r="R249">
+        <v>2.1</v>
+      </c>
+      <c r="S249">
+        <v>7</v>
+      </c>
+      <c r="T249">
+        <v>1.44</v>
+      </c>
+      <c r="U249">
+        <v>2.7</v>
+      </c>
+      <c r="V249">
+        <v>3.24</v>
+      </c>
+      <c r="W249">
+        <v>1.32</v>
+      </c>
+      <c r="X249">
+        <v>8.1</v>
+      </c>
+      <c r="Y249">
+        <v>1.04</v>
+      </c>
+      <c r="Z249">
+        <v>1.53</v>
+      </c>
+      <c r="AA249">
+        <v>3.75</v>
+      </c>
+      <c r="AB249">
+        <v>7</v>
+      </c>
+      <c r="AC249">
+        <v>1.07</v>
+      </c>
+      <c r="AD249">
+        <v>7.5</v>
+      </c>
+      <c r="AE249">
+        <v>1.36</v>
+      </c>
+      <c r="AF249">
+        <v>2.95</v>
+      </c>
+      <c r="AG249">
+        <v>2.2</v>
+      </c>
+      <c r="AH249">
+        <v>1.65</v>
+      </c>
+      <c r="AI249">
+        <v>2.25</v>
+      </c>
+      <c r="AJ249">
+        <v>1.57</v>
+      </c>
+      <c r="AK249">
+        <v>1.14</v>
+      </c>
+      <c r="AL249">
+        <v>1.27</v>
+      </c>
+      <c r="AM249">
+        <v>2.02</v>
+      </c>
+      <c r="AN249">
+        <v>1.85</v>
+      </c>
+      <c r="AO249">
+        <v>1.44</v>
+      </c>
+      <c r="AP249">
+        <v>1.8</v>
+      </c>
+      <c r="AQ249">
+        <v>1.48</v>
+      </c>
+      <c r="AR249">
+        <v>1.56</v>
+      </c>
+      <c r="AS249">
+        <v>1.31</v>
+      </c>
+      <c r="AT249">
+        <v>2.87</v>
+      </c>
+      <c r="AU249">
+        <v>4</v>
+      </c>
+      <c r="AV249">
+        <v>4</v>
+      </c>
+      <c r="AW249">
+        <v>5</v>
+      </c>
+      <c r="AX249">
+        <v>0</v>
+      </c>
+      <c r="AY249">
+        <v>9</v>
+      </c>
+      <c r="AZ249">
+        <v>4</v>
+      </c>
+      <c r="BA249">
+        <v>11</v>
+      </c>
+      <c r="BB249">
+        <v>3</v>
+      </c>
+      <c r="BC249">
+        <v>14</v>
+      </c>
+      <c r="BD249">
+        <v>1.45</v>
+      </c>
+      <c r="BE249">
+        <v>9.4</v>
+      </c>
+      <c r="BF249">
+        <v>3.3</v>
+      </c>
+      <c r="BG249">
+        <v>1.17</v>
+      </c>
+      <c r="BH249">
+        <v>4.3</v>
+      </c>
+      <c r="BI249">
+        <v>1.33</v>
+      </c>
+      <c r="BJ249">
+        <v>2.73</v>
+      </c>
+      <c r="BK249">
+        <v>2.1</v>
+      </c>
+      <c r="BL249">
+        <v>2.05</v>
+      </c>
+      <c r="BM249">
+        <v>2.04</v>
+      </c>
+      <c r="BN249">
+        <v>1.66</v>
+      </c>
+      <c r="BO249">
+        <v>2.61</v>
+      </c>
+      <c r="BP249">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="331">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -697,6 +697,12 @@
     <t>['47', '63']</t>
   </si>
   <si>
+    <t>['61']</t>
+  </si>
+  <si>
+    <t>['33', '58', '90+6']</t>
+  </si>
+  <si>
     <t>['44', '85']</t>
   </si>
   <si>
@@ -1362,7 +1368,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP249"/>
+  <dimension ref="A1:BP252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1702,7 +1708,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ2">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1905,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="AQ3">
         <v>1.05</v>
@@ -2114,7 +2120,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ4">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2317,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="AQ5">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2732,7 +2738,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ7">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2857,7 +2863,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2935,10 +2941,10 @@
         <v>3</v>
       </c>
       <c r="AP8">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AQ8">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="AR8">
         <v>0.87</v>
@@ -3141,10 +3147,10 @@
         <v>1</v>
       </c>
       <c r="AP9">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="AQ9">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="AR9">
         <v>1.58</v>
@@ -3269,7 +3275,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3475,7 +3481,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3553,7 +3559,7 @@
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AQ11">
         <v>1.38</v>
@@ -3759,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ12">
         <v>1</v>
@@ -3887,7 +3893,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -4299,7 +4305,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -4377,10 +4383,10 @@
         <v>0.5</v>
       </c>
       <c r="AP15">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="AQ15">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AR15">
         <v>1.29</v>
@@ -4583,7 +4589,7 @@
         <v>1.5</v>
       </c>
       <c r="AP16">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="AQ16">
         <v>1.33</v>
@@ -4792,7 +4798,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ17">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="AR17">
         <v>1.4</v>
@@ -4917,7 +4923,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4998,7 +5004,7 @@
         <v>1</v>
       </c>
       <c r="AQ18">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AR18">
         <v>1.26</v>
@@ -5123,7 +5129,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5201,7 +5207,7 @@
         <v>1.67</v>
       </c>
       <c r="AP19">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AQ19">
         <v>1.48</v>
@@ -5329,7 +5335,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5535,7 +5541,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5613,7 +5619,7 @@
         <v>1.33</v>
       </c>
       <c r="AP21">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="AQ21">
         <v>1.38</v>
@@ -5741,7 +5747,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5819,7 +5825,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="AQ22">
         <v>1.8</v>
@@ -6025,10 +6031,10 @@
         <v>1.5</v>
       </c>
       <c r="AP23">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AQ23">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AR23">
         <v>1.65</v>
@@ -6234,7 +6240,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ24">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="AR24">
         <v>1.25</v>
@@ -6437,7 +6443,7 @@
         <v>0.75</v>
       </c>
       <c r="AP25">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ25">
         <v>1.05</v>
@@ -6565,7 +6571,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6646,7 +6652,7 @@
         <v>1</v>
       </c>
       <c r="AQ26">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="AR26">
         <v>1.33</v>
@@ -7055,10 +7061,10 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="AQ28">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="AR28">
         <v>1.41</v>
@@ -7264,7 +7270,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ29">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AR29">
         <v>2.13</v>
@@ -7470,7 +7476,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ30">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AR30">
         <v>1.49</v>
@@ -7673,7 +7679,7 @@
         <v>1.8</v>
       </c>
       <c r="AP31">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="AQ31">
         <v>1.48</v>
@@ -7801,7 +7807,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -8085,7 +8091,7 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="AQ33">
         <v>1.8</v>
@@ -8213,7 +8219,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8294,7 +8300,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ34">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AR34">
         <v>1.38</v>
@@ -8419,7 +8425,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8497,7 +8503,7 @@
         <v>0.6</v>
       </c>
       <c r="AP35">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AQ35">
         <v>1</v>
@@ -8625,7 +8631,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8703,10 +8709,10 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="AQ36">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AR36">
         <v>1.5</v>
@@ -8912,7 +8918,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ37">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="AR37">
         <v>1.56</v>
@@ -9115,10 +9121,10 @@
         <v>0.83</v>
       </c>
       <c r="AP38">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ38">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AR38">
         <v>1.06</v>
@@ -9655,7 +9661,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9736,7 +9742,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ41">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="AR41">
         <v>1.42</v>
@@ -9861,7 +9867,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -9939,10 +9945,10 @@
         <v>0.83</v>
       </c>
       <c r="AP42">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AQ42">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="AR42">
         <v>1.44</v>
@@ -10273,7 +10279,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10354,7 +10360,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ44">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AR44">
         <v>1.33</v>
@@ -10557,7 +10563,7 @@
         <v>1.71</v>
       </c>
       <c r="AP45">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="AQ45">
         <v>1.38</v>
@@ -10685,7 +10691,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10763,7 +10769,7 @@
         <v>0.43</v>
       </c>
       <c r="AP46">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="AQ46">
         <v>1</v>
@@ -10891,7 +10897,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10969,7 +10975,7 @@
         <v>0.57</v>
       </c>
       <c r="AP47">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="AQ47">
         <v>1.05</v>
@@ -11178,7 +11184,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ48">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AR48">
         <v>1.31</v>
@@ -11381,10 +11387,10 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ49">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="AR49">
         <v>1.1</v>
@@ -11590,7 +11596,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ50">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="AR50">
         <v>1.93</v>
@@ -11715,7 +11721,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11796,7 +11802,7 @@
         <v>1</v>
       </c>
       <c r="AQ51">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="AR51">
         <v>1.31</v>
@@ -12205,7 +12211,7 @@
         <v>1.38</v>
       </c>
       <c r="AP53">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AQ53">
         <v>1.33</v>
@@ -12333,7 +12339,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -12539,7 +12545,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12617,10 +12623,10 @@
         <v>1.75</v>
       </c>
       <c r="AP55">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="AQ55">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AR55">
         <v>1.34</v>
@@ -12745,7 +12751,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12823,10 +12829,10 @@
         <v>2.25</v>
       </c>
       <c r="AP56">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="AQ56">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AR56">
         <v>1.32</v>
@@ -12951,7 +12957,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13029,10 +13035,10 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AQ57">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="AR57">
         <v>1.33</v>
@@ -13157,7 +13163,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -13569,7 +13575,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13647,7 +13653,7 @@
         <v>1.4</v>
       </c>
       <c r="AP60">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="AQ60">
         <v>1.33</v>
@@ -14062,7 +14068,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ62">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AR62">
         <v>1.93</v>
@@ -14265,10 +14271,10 @@
         <v>1.7</v>
       </c>
       <c r="AP63">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AQ63">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="AR63">
         <v>1.55</v>
@@ -14474,7 +14480,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ64">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="AR64">
         <v>1.36</v>
@@ -14677,7 +14683,7 @@
         <v>1.1</v>
       </c>
       <c r="AP65">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ65">
         <v>1.48</v>
@@ -14805,7 +14811,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14883,10 +14889,10 @@
         <v>1.18</v>
       </c>
       <c r="AP66">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="AQ66">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="AR66">
         <v>1.23</v>
@@ -15011,7 +15017,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -15089,7 +15095,7 @@
         <v>1.36</v>
       </c>
       <c r="AP67">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AQ67">
         <v>1.33</v>
@@ -15217,7 +15223,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15501,7 +15507,7 @@
         <v>1.27</v>
       </c>
       <c r="AP69">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AQ69">
         <v>1.48</v>
@@ -15710,7 +15716,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ70">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="AR70">
         <v>1.35</v>
@@ -15913,7 +15919,7 @@
         <v>1.64</v>
       </c>
       <c r="AP71">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ71">
         <v>1.38</v>
@@ -16247,7 +16253,7 @@
         <v>101</v>
       </c>
       <c r="P73" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16328,7 +16334,7 @@
         <v>1</v>
       </c>
       <c r="AQ73">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AR73">
         <v>1.25</v>
@@ -16531,10 +16537,10 @@
         <v>1.17</v>
       </c>
       <c r="AP74">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="AQ74">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="AR74">
         <v>1.39</v>
@@ -16659,7 +16665,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16737,10 +16743,10 @@
         <v>0.55</v>
       </c>
       <c r="AP75">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="AQ75">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AR75">
         <v>1.36</v>
@@ -16865,7 +16871,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16946,7 +16952,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ76">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AR76">
         <v>1.41</v>
@@ -17277,7 +17283,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q78">
         <v>5.5</v>
@@ -17355,10 +17361,10 @@
         <v>2.33</v>
       </c>
       <c r="AP78">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AQ78">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AR78">
         <v>1.39</v>
@@ -17483,7 +17489,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17689,7 +17695,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q80">
         <v>4.75</v>
@@ -17767,7 +17773,7 @@
         <v>1.92</v>
       </c>
       <c r="AP80">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ80">
         <v>1.8</v>
@@ -17976,7 +17982,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ81">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="AR81">
         <v>1.27</v>
@@ -18179,7 +18185,7 @@
         <v>0.54</v>
       </c>
       <c r="AP82">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AQ82">
         <v>1</v>
@@ -18307,7 +18313,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q83">
         <v>3.5</v>
@@ -18385,7 +18391,7 @@
         <v>1.31</v>
       </c>
       <c r="AP83">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="AQ83">
         <v>1.48</v>
@@ -18513,7 +18519,7 @@
         <v>89</v>
       </c>
       <c r="P84" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18591,10 +18597,10 @@
         <v>1.69</v>
       </c>
       <c r="AP84">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AQ84">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="AR84">
         <v>1.38</v>
@@ -18925,7 +18931,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -19006,7 +19012,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ86">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="AR86">
         <v>1.45</v>
@@ -19212,7 +19218,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ87">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AR87">
         <v>1.51</v>
@@ -19415,10 +19421,10 @@
         <v>2.29</v>
       </c>
       <c r="AP88">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ88">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AR88">
         <v>1.24</v>
@@ -19624,7 +19630,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ89">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="AR89">
         <v>1.81</v>
@@ -19827,7 +19833,7 @@
         <v>1.36</v>
       </c>
       <c r="AP90">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="AQ90">
         <v>1.33</v>
@@ -19955,7 +19961,7 @@
         <v>89</v>
       </c>
       <c r="P91" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -20239,7 +20245,7 @@
         <v>1.47</v>
       </c>
       <c r="AP92">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AQ92">
         <v>1.38</v>
@@ -20367,7 +20373,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20445,7 +20451,7 @@
         <v>2.07</v>
       </c>
       <c r="AP93">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AQ93">
         <v>1.8</v>
@@ -20651,7 +20657,7 @@
         <v>0.67</v>
       </c>
       <c r="AP94">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="AQ94">
         <v>1</v>
@@ -20779,7 +20785,7 @@
         <v>145</v>
       </c>
       <c r="P95" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -20857,10 +20863,10 @@
         <v>1.67</v>
       </c>
       <c r="AP95">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="AQ95">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="AR95">
         <v>1.32</v>
@@ -21066,7 +21072,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ96">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AR96">
         <v>1.51</v>
@@ -21191,7 +21197,7 @@
         <v>146</v>
       </c>
       <c r="P97" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21269,10 +21275,10 @@
         <v>1.19</v>
       </c>
       <c r="AP97">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ97">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="AR97">
         <v>1.2</v>
@@ -21475,7 +21481,7 @@
         <v>1.06</v>
       </c>
       <c r="AP98">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AQ98">
         <v>1.05</v>
@@ -21603,7 +21609,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21684,7 +21690,7 @@
         <v>1</v>
       </c>
       <c r="AQ99">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AR99">
         <v>1.2</v>
@@ -22096,7 +22102,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ101">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="AR101">
         <v>1.8</v>
@@ -22302,7 +22308,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ102">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="AR102">
         <v>1.45</v>
@@ -22427,7 +22433,7 @@
         <v>89</v>
       </c>
       <c r="P103" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22633,7 +22639,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q104">
         <v>3.4</v>
@@ -22711,10 +22717,10 @@
         <v>1.5</v>
       </c>
       <c r="AP104">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AQ104">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AR104">
         <v>1.3</v>
@@ -22839,7 +22845,7 @@
         <v>150</v>
       </c>
       <c r="P105" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -22917,7 +22923,7 @@
         <v>1.47</v>
       </c>
       <c r="AP105">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="AQ105">
         <v>1.48</v>
@@ -23123,10 +23129,10 @@
         <v>2.06</v>
       </c>
       <c r="AP106">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="AQ106">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AR106">
         <v>1.21</v>
@@ -23251,7 +23257,7 @@
         <v>89</v>
       </c>
       <c r="P107" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q107">
         <v>6.5</v>
@@ -23457,7 +23463,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q108">
         <v>4.75</v>
@@ -23535,7 +23541,7 @@
         <v>1.53</v>
       </c>
       <c r="AP108">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="AQ108">
         <v>1.38</v>
@@ -23741,7 +23747,7 @@
         <v>1.28</v>
       </c>
       <c r="AP109">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ109">
         <v>1.33</v>
@@ -23947,10 +23953,10 @@
         <v>0.89</v>
       </c>
       <c r="AP110">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AQ110">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AR110">
         <v>1.6</v>
@@ -24075,7 +24081,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -24156,7 +24162,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ111">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="AR111">
         <v>1.48</v>
@@ -24281,7 +24287,7 @@
         <v>89</v>
       </c>
       <c r="P112" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24362,7 +24368,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ112">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="AR112">
         <v>1.5</v>
@@ -24774,7 +24780,7 @@
         <v>1</v>
       </c>
       <c r="AQ114">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="AR114">
         <v>1.26</v>
@@ -24899,7 +24905,7 @@
         <v>148</v>
       </c>
       <c r="P115" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q115">
         <v>8</v>
@@ -24977,7 +24983,7 @@
         <v>2.17</v>
       </c>
       <c r="AP115">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="AQ115">
         <v>1.8</v>
@@ -25183,7 +25189,7 @@
         <v>1.05</v>
       </c>
       <c r="AP116">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AQ116">
         <v>1.05</v>
@@ -25311,7 +25317,7 @@
         <v>89</v>
       </c>
       <c r="P117" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q117">
         <v>3.25</v>
@@ -25517,7 +25523,7 @@
         <v>89</v>
       </c>
       <c r="P118" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25598,7 +25604,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ118">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AR118">
         <v>1.31</v>
@@ -25723,7 +25729,7 @@
         <v>158</v>
       </c>
       <c r="P119" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q119">
         <v>2.38</v>
@@ -25801,7 +25807,7 @@
         <v>0.79</v>
       </c>
       <c r="AP119">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="AQ119">
         <v>1</v>
@@ -26007,10 +26013,10 @@
         <v>1.5</v>
       </c>
       <c r="AP120">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="AQ120">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AR120">
         <v>1.29</v>
@@ -26135,7 +26141,7 @@
         <v>89</v>
       </c>
       <c r="P121" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q121">
         <v>3.4</v>
@@ -26341,7 +26347,7 @@
         <v>159</v>
       </c>
       <c r="P122" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26419,10 +26425,10 @@
         <v>0.95</v>
       </c>
       <c r="AP122">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="AQ122">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AR122">
         <v>1.17</v>
@@ -26547,7 +26553,7 @@
         <v>160</v>
       </c>
       <c r="P123" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q123">
         <v>3.75</v>
@@ -26625,10 +26631,10 @@
         <v>1.75</v>
       </c>
       <c r="AP123">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ123">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="AR123">
         <v>1.18</v>
@@ -26753,7 +26759,7 @@
         <v>89</v>
       </c>
       <c r="P124" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q124">
         <v>1.95</v>
@@ -27037,10 +27043,10 @@
         <v>0.95</v>
       </c>
       <c r="AP125">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AQ125">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="AR125">
         <v>1.61</v>
@@ -27371,7 +27377,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q127">
         <v>3</v>
@@ -27452,7 +27458,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ127">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AR127">
         <v>1.39</v>
@@ -27577,7 +27583,7 @@
         <v>164</v>
       </c>
       <c r="P128" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q128">
         <v>2.6</v>
@@ -27783,7 +27789,7 @@
         <v>115</v>
       </c>
       <c r="P129" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -27861,10 +27867,10 @@
         <v>2.14</v>
       </c>
       <c r="AP129">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="AQ129">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AR129">
         <v>1.48</v>
@@ -27989,7 +27995,7 @@
         <v>89</v>
       </c>
       <c r="P130" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q130">
         <v>5.5</v>
@@ -28067,7 +28073,7 @@
         <v>2.1</v>
       </c>
       <c r="AP130">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AQ130">
         <v>1.8</v>
@@ -28276,7 +28282,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ131">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="AR131">
         <v>1.28</v>
@@ -28401,7 +28407,7 @@
         <v>165</v>
       </c>
       <c r="P132" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28479,7 +28485,7 @@
         <v>1.1</v>
       </c>
       <c r="AP132">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="AQ132">
         <v>1.05</v>
@@ -28685,7 +28691,7 @@
         <v>0.95</v>
       </c>
       <c r="AP133">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AQ133">
         <v>1</v>
@@ -28813,7 +28819,7 @@
         <v>166</v>
       </c>
       <c r="P134" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -28891,10 +28897,10 @@
         <v>2.18</v>
       </c>
       <c r="AP134">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="AQ134">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AR134">
         <v>1.2</v>
@@ -29097,7 +29103,7 @@
         <v>1.41</v>
       </c>
       <c r="AP135">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="AQ135">
         <v>1.48</v>
@@ -29303,7 +29309,7 @@
         <v>1.59</v>
       </c>
       <c r="AP136">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="AQ136">
         <v>1.38</v>
@@ -29431,7 +29437,7 @@
         <v>89</v>
       </c>
       <c r="P137" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29512,7 +29518,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ137">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AR137">
         <v>1.57</v>
@@ -29637,7 +29643,7 @@
         <v>167</v>
       </c>
       <c r="P138" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29924,7 +29930,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ139">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="AR139">
         <v>1.38</v>
@@ -30049,7 +30055,7 @@
         <v>168</v>
       </c>
       <c r="P140" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q140">
         <v>2.6</v>
@@ -30333,10 +30339,10 @@
         <v>1.61</v>
       </c>
       <c r="AP141">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="AQ141">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="AR141">
         <v>1.28</v>
@@ -30461,7 +30467,7 @@
         <v>133</v>
       </c>
       <c r="P142" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q142">
         <v>2.25</v>
@@ -30539,10 +30545,10 @@
         <v>1</v>
       </c>
       <c r="AP142">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AQ142">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AR142">
         <v>1.56</v>
@@ -30745,7 +30751,7 @@
         <v>2.14</v>
       </c>
       <c r="AP143">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ143">
         <v>1.8</v>
@@ -31079,7 +31085,7 @@
         <v>89</v>
       </c>
       <c r="P145" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q145">
         <v>4.33</v>
@@ -31157,10 +31163,10 @@
         <v>1.39</v>
       </c>
       <c r="AP145">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="AQ145">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AR145">
         <v>1.2</v>
@@ -31366,7 +31372,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ146">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="AR146">
         <v>1.51</v>
@@ -31572,7 +31578,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ147">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AR147">
         <v>1.35</v>
@@ -31775,7 +31781,7 @@
         <v>0.92</v>
       </c>
       <c r="AP148">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="AQ148">
         <v>1</v>
@@ -31981,7 +31987,7 @@
         <v>1</v>
       </c>
       <c r="AP149">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AQ149">
         <v>1.33</v>
@@ -32315,7 +32321,7 @@
         <v>173</v>
       </c>
       <c r="P151" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q151">
         <v>2.1</v>
@@ -32393,7 +32399,7 @@
         <v>0.88</v>
       </c>
       <c r="AP151">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AQ151">
         <v>1</v>
@@ -32602,7 +32608,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ152">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="AR152">
         <v>1.52</v>
@@ -32727,7 +32733,7 @@
         <v>174</v>
       </c>
       <c r="P153" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q153">
         <v>3.75</v>
@@ -33011,10 +33017,10 @@
         <v>1.08</v>
       </c>
       <c r="AP154">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ154">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AR154">
         <v>1.17</v>
@@ -33139,7 +33145,7 @@
         <v>113</v>
       </c>
       <c r="P155" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q155">
         <v>2.6</v>
@@ -33220,7 +33226,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ155">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="AR155">
         <v>1.36</v>
@@ -33345,7 +33351,7 @@
         <v>176</v>
       </c>
       <c r="P156" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q156">
         <v>6.5</v>
@@ -33423,7 +33429,7 @@
         <v>2.17</v>
       </c>
       <c r="AP156">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="AQ156">
         <v>1.8</v>
@@ -33838,7 +33844,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ158">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AR158">
         <v>1.33</v>
@@ -34041,10 +34047,10 @@
         <v>2.04</v>
       </c>
       <c r="AP159">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="AQ159">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AR159">
         <v>1.5</v>
@@ -34453,10 +34459,10 @@
         <v>0.92</v>
       </c>
       <c r="AP161">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="AQ161">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="AR161">
         <v>1.19</v>
@@ -34659,7 +34665,7 @@
         <v>1.54</v>
       </c>
       <c r="AP162">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AQ162">
         <v>1.38</v>
@@ -34787,7 +34793,7 @@
         <v>181</v>
       </c>
       <c r="P163" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q163">
         <v>3.5</v>
@@ -35071,7 +35077,7 @@
         <v>0.96</v>
       </c>
       <c r="AP164">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ164">
         <v>1</v>
@@ -35277,10 +35283,10 @@
         <v>1.11</v>
       </c>
       <c r="AP165">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="AQ165">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AR165">
         <v>1.34</v>
@@ -35405,7 +35411,7 @@
         <v>182</v>
       </c>
       <c r="P166" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q166">
         <v>3.25</v>
@@ -35486,7 +35492,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ166">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="AR166">
         <v>1.48</v>
@@ -35692,7 +35698,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ167">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="AR167">
         <v>1.7</v>
@@ -35898,7 +35904,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ168">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AR168">
         <v>1.43</v>
@@ -36023,7 +36029,7 @@
         <v>184</v>
       </c>
       <c r="P169" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q169">
         <v>3.4</v>
@@ -36229,7 +36235,7 @@
         <v>185</v>
       </c>
       <c r="P170" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q170">
         <v>2.75</v>
@@ -36307,7 +36313,7 @@
         <v>1.04</v>
       </c>
       <c r="AP170">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AQ170">
         <v>1.05</v>
@@ -36516,7 +36522,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ171">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="AR171">
         <v>1.31</v>
@@ -36641,7 +36647,7 @@
         <v>89</v>
       </c>
       <c r="P172" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q172">
         <v>6.5</v>
@@ -36719,7 +36725,7 @@
         <v>2.07</v>
       </c>
       <c r="AP172">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="AQ172">
         <v>1.8</v>
@@ -36925,7 +36931,7 @@
         <v>0.96</v>
       </c>
       <c r="AP173">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="AQ173">
         <v>1.33</v>
@@ -37131,10 +37137,10 @@
         <v>1.56</v>
       </c>
       <c r="AP174">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AQ174">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AR174">
         <v>1.5</v>
@@ -37259,7 +37265,7 @@
         <v>189</v>
       </c>
       <c r="P175" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q175">
         <v>3.4</v>
@@ -37337,7 +37343,7 @@
         <v>1</v>
       </c>
       <c r="AP175">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="AQ175">
         <v>1</v>
@@ -37546,7 +37552,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ176">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AR176">
         <v>1.69</v>
@@ -37958,7 +37964,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ178">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AR178">
         <v>1.36</v>
@@ -38083,7 +38089,7 @@
         <v>192</v>
       </c>
       <c r="P179" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q179">
         <v>3.1</v>
@@ -38161,7 +38167,7 @@
         <v>0.93</v>
       </c>
       <c r="AP179">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ179">
         <v>1.33</v>
@@ -38367,10 +38373,10 @@
         <v>1.76</v>
       </c>
       <c r="AP180">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="AQ180">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="AR180">
         <v>1.19</v>
@@ -38495,7 +38501,7 @@
         <v>89</v>
       </c>
       <c r="P181" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q181">
         <v>2.1</v>
@@ -38573,10 +38579,10 @@
         <v>0.97</v>
       </c>
       <c r="AP181">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AQ181">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="AR181">
         <v>1.51</v>
@@ -38907,7 +38913,7 @@
         <v>194</v>
       </c>
       <c r="P183" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q183">
         <v>2.6</v>
@@ -38985,10 +38991,10 @@
         <v>1.48</v>
       </c>
       <c r="AP183">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="AQ183">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AR183">
         <v>1.52</v>
@@ -39191,10 +39197,10 @@
         <v>1.03</v>
       </c>
       <c r="AP184">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AQ184">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="AR184">
         <v>1.39</v>
@@ -39812,7 +39818,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ187">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AR187">
         <v>1.45</v>
@@ -39937,7 +39943,7 @@
         <v>197</v>
       </c>
       <c r="P188" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q188">
         <v>2.25</v>
@@ -40143,7 +40149,7 @@
         <v>198</v>
       </c>
       <c r="P189" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q189">
         <v>3.25</v>
@@ -40224,7 +40230,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ189">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AR189">
         <v>1.35</v>
@@ -40427,10 +40433,10 @@
         <v>1.84</v>
       </c>
       <c r="AP190">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AQ190">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="AR190">
         <v>1.38</v>
@@ -40555,7 +40561,7 @@
         <v>89</v>
       </c>
       <c r="P191" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q191">
         <v>3.4</v>
@@ -40633,7 +40639,7 @@
         <v>1</v>
       </c>
       <c r="AP191">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="AQ191">
         <v>1.33</v>
@@ -40761,7 +40767,7 @@
         <v>119</v>
       </c>
       <c r="P192" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q192">
         <v>4.5</v>
@@ -40839,7 +40845,7 @@
         <v>1.39</v>
       </c>
       <c r="AP192">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="AQ192">
         <v>1.48</v>
@@ -40967,7 +40973,7 @@
         <v>200</v>
       </c>
       <c r="P193" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q193">
         <v>3.75</v>
@@ -41045,7 +41051,7 @@
         <v>2.03</v>
       </c>
       <c r="AP193">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AQ193">
         <v>1.8</v>
@@ -41173,7 +41179,7 @@
         <v>201</v>
       </c>
       <c r="P194" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q194">
         <v>2.63</v>
@@ -41251,7 +41257,7 @@
         <v>1.38</v>
       </c>
       <c r="AP194">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="AQ194">
         <v>1.38</v>
@@ -41379,7 +41385,7 @@
         <v>202</v>
       </c>
       <c r="P195" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q195">
         <v>3</v>
@@ -41460,7 +41466,7 @@
         <v>1</v>
       </c>
       <c r="AQ195">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="AR195">
         <v>1.24</v>
@@ -41666,7 +41672,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ196">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AR196">
         <v>1.33</v>
@@ -41997,7 +42003,7 @@
         <v>89</v>
       </c>
       <c r="P198" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q198">
         <v>2.63</v>
@@ -42075,10 +42081,10 @@
         <v>1</v>
       </c>
       <c r="AP198">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ198">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="AR198">
         <v>1.22</v>
@@ -42203,7 +42209,7 @@
         <v>89</v>
       </c>
       <c r="P199" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q199">
         <v>3.25</v>
@@ -42284,7 +42290,7 @@
         <v>1</v>
       </c>
       <c r="AQ199">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AR199">
         <v>1.26</v>
@@ -42409,7 +42415,7 @@
         <v>89</v>
       </c>
       <c r="P200" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q200">
         <v>6</v>
@@ -42693,10 +42699,10 @@
         <v>1.03</v>
       </c>
       <c r="AP201">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AQ201">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="AR201">
         <v>1.54</v>
@@ -42902,7 +42908,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ202">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="AR202">
         <v>1.32</v>
@@ -43027,7 +43033,7 @@
         <v>148</v>
       </c>
       <c r="P203" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q203">
         <v>2.75</v>
@@ -43105,7 +43111,7 @@
         <v>0.91</v>
       </c>
       <c r="AP203">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ203">
         <v>1.05</v>
@@ -43233,7 +43239,7 @@
         <v>204</v>
       </c>
       <c r="P204" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q204">
         <v>2.63</v>
@@ -43314,7 +43320,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ204">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="AR204">
         <v>1.37</v>
@@ -43439,7 +43445,7 @@
         <v>89</v>
       </c>
       <c r="P205" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q205">
         <v>4</v>
@@ -43517,7 +43523,7 @@
         <v>1.09</v>
       </c>
       <c r="AP205">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="AQ205">
         <v>1.33</v>
@@ -43929,10 +43935,10 @@
         <v>1.06</v>
       </c>
       <c r="AP207">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="AQ207">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="AR207">
         <v>1.52</v>
@@ -44057,7 +44063,7 @@
         <v>205</v>
       </c>
       <c r="P208" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q208">
         <v>3.6</v>
@@ -44263,7 +44269,7 @@
         <v>206</v>
       </c>
       <c r="P209" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q209">
         <v>3.4</v>
@@ -44341,10 +44347,10 @@
         <v>1.97</v>
       </c>
       <c r="AP209">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AQ209">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AR209">
         <v>1.4</v>
@@ -44469,7 +44475,7 @@
         <v>89</v>
       </c>
       <c r="P210" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q210">
         <v>2.1</v>
@@ -44550,7 +44556,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ210">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AR210">
         <v>1.61</v>
@@ -44675,7 +44681,7 @@
         <v>187</v>
       </c>
       <c r="P211" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q211">
         <v>3.2</v>
@@ -44753,7 +44759,7 @@
         <v>0.97</v>
       </c>
       <c r="AP211">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="AQ211">
         <v>1.05</v>
@@ -44881,7 +44887,7 @@
         <v>207</v>
       </c>
       <c r="P212" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q212">
         <v>5</v>
@@ -44962,7 +44968,7 @@
         <v>1</v>
       </c>
       <c r="AQ212">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="AR212">
         <v>1.29</v>
@@ -45293,7 +45299,7 @@
         <v>89</v>
       </c>
       <c r="P214" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q214">
         <v>2.75</v>
@@ -45371,7 +45377,7 @@
         <v>1.4</v>
       </c>
       <c r="AP214">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AQ214">
         <v>1.48</v>
@@ -45577,10 +45583,10 @@
         <v>0.97</v>
       </c>
       <c r="AP215">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ215">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="AR215">
         <v>1.2</v>
@@ -45786,7 +45792,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ216">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AR216">
         <v>1.43</v>
@@ -45911,7 +45917,7 @@
         <v>89</v>
       </c>
       <c r="P217" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q217">
         <v>3.2</v>
@@ -45989,7 +45995,7 @@
         <v>1.36</v>
       </c>
       <c r="AP217">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="AQ217">
         <v>1.38</v>
@@ -46117,7 +46123,7 @@
         <v>211</v>
       </c>
       <c r="P218" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q218">
         <v>3.4</v>
@@ -46401,7 +46407,7 @@
         <v>0.97</v>
       </c>
       <c r="AP219">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="AQ219">
         <v>1.05</v>
@@ -46529,7 +46535,7 @@
         <v>200</v>
       </c>
       <c r="P220" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q220">
         <v>4.5</v>
@@ -46610,7 +46616,7 @@
         <v>1</v>
       </c>
       <c r="AQ220">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AR220">
         <v>1.3</v>
@@ -46735,7 +46741,7 @@
         <v>213</v>
       </c>
       <c r="P221" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q221">
         <v>1.95</v>
@@ -46816,7 +46822,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ221">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="AR221">
         <v>1.61</v>
@@ -47019,10 +47025,10 @@
         <v>1.49</v>
       </c>
       <c r="AP222">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AQ222">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AR222">
         <v>1.4</v>
@@ -47431,10 +47437,10 @@
         <v>0.92</v>
       </c>
       <c r="AP224">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="AQ224">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="AR224">
         <v>1.41</v>
@@ -47843,10 +47849,10 @@
         <v>1.78</v>
       </c>
       <c r="AP226">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AQ226">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="AR226">
         <v>1.55</v>
@@ -47971,7 +47977,7 @@
         <v>210</v>
       </c>
       <c r="P227" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q227">
         <v>3.5</v>
@@ -48049,7 +48055,7 @@
         <v>1.43</v>
       </c>
       <c r="AP227">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ227">
         <v>1.48</v>
@@ -48177,7 +48183,7 @@
         <v>215</v>
       </c>
       <c r="P228" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q228">
         <v>3.6</v>
@@ -48258,7 +48264,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ228">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AR228">
         <v>1.36</v>
@@ -48461,10 +48467,10 @@
         <v>1.03</v>
       </c>
       <c r="AP229">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AQ229">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="AR229">
         <v>1.4</v>
@@ -48589,7 +48595,7 @@
         <v>216</v>
       </c>
       <c r="P230" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q230">
         <v>3.1</v>
@@ -48667,7 +48673,7 @@
         <v>1.24</v>
       </c>
       <c r="AP230">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AQ230">
         <v>1.33</v>
@@ -48795,7 +48801,7 @@
         <v>89</v>
       </c>
       <c r="P231" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q231">
         <v>3.75</v>
@@ -48873,7 +48879,7 @@
         <v>0.95</v>
       </c>
       <c r="AP231">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="AQ231">
         <v>1.05</v>
@@ -49082,7 +49088,7 @@
         <v>1</v>
       </c>
       <c r="AQ232">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AR232">
         <v>1.29</v>
@@ -49285,7 +49291,7 @@
         <v>1.95</v>
       </c>
       <c r="AP233">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="AQ233">
         <v>1.8</v>
@@ -49413,7 +49419,7 @@
         <v>218</v>
       </c>
       <c r="P234" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q234">
         <v>2.5</v>
@@ -49697,7 +49703,7 @@
         <v>1.46</v>
       </c>
       <c r="AP235">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="AQ235">
         <v>1.48</v>
@@ -50109,10 +50115,10 @@
         <v>1.72</v>
       </c>
       <c r="AP237">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AQ237">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AR237">
         <v>1.23</v>
@@ -50318,7 +50324,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ238">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="AR238">
         <v>1.43</v>
@@ -50443,7 +50449,7 @@
         <v>221</v>
       </c>
       <c r="P239" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q239">
         <v>4</v>
@@ -50524,7 +50530,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ239">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AR239">
         <v>1.43</v>
@@ -50730,7 +50736,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ240">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="AR240">
         <v>1.58</v>
@@ -50933,7 +50939,7 @@
         <v>1.43</v>
       </c>
       <c r="AP241">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AQ241">
         <v>1.38</v>
@@ -51061,7 +51067,7 @@
         <v>223</v>
       </c>
       <c r="P242" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q242">
         <v>1.95</v>
@@ -51139,10 +51145,10 @@
         <v>0.9</v>
       </c>
       <c r="AP242">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="AQ242">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="AR242">
         <v>1.49</v>
@@ -51267,7 +51273,7 @@
         <v>224</v>
       </c>
       <c r="P243" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q243">
         <v>2.75</v>
@@ -51348,7 +51354,7 @@
         <v>1</v>
       </c>
       <c r="AQ243">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="AR243">
         <v>1.28</v>
@@ -51473,7 +51479,7 @@
         <v>225</v>
       </c>
       <c r="P244" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q244">
         <v>4.33</v>
@@ -51551,7 +51557,7 @@
         <v>1.87</v>
       </c>
       <c r="AP244">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AQ244">
         <v>1.8</v>
@@ -51885,7 +51891,7 @@
         <v>89</v>
       </c>
       <c r="P246" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q246">
         <v>3.4</v>
@@ -51966,7 +51972,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ246">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AR246">
         <v>1.42</v>
@@ -52091,7 +52097,7 @@
         <v>226</v>
       </c>
       <c r="P247" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q247">
         <v>3</v>
@@ -52297,7 +52303,7 @@
         <v>89</v>
       </c>
       <c r="P248" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q248">
         <v>3.75</v>
@@ -52390,22 +52396,22 @@
         <v>2.76</v>
       </c>
       <c r="AU248">
+        <v>5</v>
+      </c>
+      <c r="AV248">
         <v>4</v>
       </c>
-      <c r="AV248">
-        <v>3</v>
-      </c>
       <c r="AW248">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AX248">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY248">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AZ248">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA248">
         <v>4</v>
@@ -52503,7 +52509,7 @@
         <v>129</v>
       </c>
       <c r="P249" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q249">
         <v>2.1</v>
@@ -52596,10 +52602,10 @@
         <v>2.87</v>
       </c>
       <c r="AU249">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV249">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW249">
         <v>5</v>
@@ -52608,10 +52614,10 @@
         <v>0</v>
       </c>
       <c r="AY249">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ249">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA249">
         <v>11</v>
@@ -52660,6 +52666,624 @@
       </c>
       <c r="BP249">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="250" spans="1:68">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>7487363</v>
+      </c>
+      <c r="C250" t="s">
+        <v>68</v>
+      </c>
+      <c r="D250" t="s">
+        <v>69</v>
+      </c>
+      <c r="E250" s="2">
+        <v>45613.70833333334</v>
+      </c>
+      <c r="F250">
+        <v>20</v>
+      </c>
+      <c r="G250" t="s">
+        <v>77</v>
+      </c>
+      <c r="H250" t="s">
+        <v>76</v>
+      </c>
+      <c r="I250">
+        <v>0</v>
+      </c>
+      <c r="J250">
+        <v>0</v>
+      </c>
+      <c r="K250">
+        <v>0</v>
+      </c>
+      <c r="L250">
+        <v>1</v>
+      </c>
+      <c r="M250">
+        <v>0</v>
+      </c>
+      <c r="N250">
+        <v>1</v>
+      </c>
+      <c r="O250" t="s">
+        <v>227</v>
+      </c>
+      <c r="P250" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q250">
+        <v>4.75</v>
+      </c>
+      <c r="R250">
+        <v>2.05</v>
+      </c>
+      <c r="S250">
+        <v>2.6</v>
+      </c>
+      <c r="T250">
+        <v>1.41</v>
+      </c>
+      <c r="U250">
+        <v>2.79</v>
+      </c>
+      <c r="V250">
+        <v>3.11</v>
+      </c>
+      <c r="W250">
+        <v>1.34</v>
+      </c>
+      <c r="X250">
+        <v>10</v>
+      </c>
+      <c r="Y250">
+        <v>1.06</v>
+      </c>
+      <c r="Z250">
+        <v>4.1</v>
+      </c>
+      <c r="AA250">
+        <v>3.4</v>
+      </c>
+      <c r="AB250">
+        <v>1.9</v>
+      </c>
+      <c r="AC250">
+        <v>1.06</v>
+      </c>
+      <c r="AD250">
+        <v>8</v>
+      </c>
+      <c r="AE250">
+        <v>1.36</v>
+      </c>
+      <c r="AF250">
+        <v>3</v>
+      </c>
+      <c r="AG250">
+        <v>2.1</v>
+      </c>
+      <c r="AH250">
+        <v>1.7</v>
+      </c>
+      <c r="AI250">
+        <v>1.91</v>
+      </c>
+      <c r="AJ250">
+        <v>1.8</v>
+      </c>
+      <c r="AK250">
+        <v>1.77</v>
+      </c>
+      <c r="AL250">
+        <v>1.27</v>
+      </c>
+      <c r="AM250">
+        <v>1.24</v>
+      </c>
+      <c r="AN250">
+        <v>0.88</v>
+      </c>
+      <c r="AO250">
+        <v>1.29</v>
+      </c>
+      <c r="AP250">
+        <v>0.93</v>
+      </c>
+      <c r="AQ250">
+        <v>1.26</v>
+      </c>
+      <c r="AR250">
+        <v>1.17</v>
+      </c>
+      <c r="AS250">
+        <v>1.42</v>
+      </c>
+      <c r="AT250">
+        <v>2.59</v>
+      </c>
+      <c r="AU250">
+        <v>6</v>
+      </c>
+      <c r="AV250">
+        <v>5</v>
+      </c>
+      <c r="AW250">
+        <v>8</v>
+      </c>
+      <c r="AX250">
+        <v>8</v>
+      </c>
+      <c r="AY250">
+        <v>14</v>
+      </c>
+      <c r="AZ250">
+        <v>13</v>
+      </c>
+      <c r="BA250">
+        <v>1</v>
+      </c>
+      <c r="BB250">
+        <v>5</v>
+      </c>
+      <c r="BC250">
+        <v>6</v>
+      </c>
+      <c r="BD250">
+        <v>2.8</v>
+      </c>
+      <c r="BE250">
+        <v>8</v>
+      </c>
+      <c r="BF250">
+        <v>1.62</v>
+      </c>
+      <c r="BG250">
+        <v>1.34</v>
+      </c>
+      <c r="BH250">
+        <v>2.98</v>
+      </c>
+      <c r="BI250">
+        <v>1.6</v>
+      </c>
+      <c r="BJ250">
+        <v>2.19</v>
+      </c>
+      <c r="BK250">
+        <v>1.95</v>
+      </c>
+      <c r="BL250">
+        <v>1.77</v>
+      </c>
+      <c r="BM250">
+        <v>2.6</v>
+      </c>
+      <c r="BN250">
+        <v>1.44</v>
+      </c>
+      <c r="BO250">
+        <v>3.5</v>
+      </c>
+      <c r="BP250">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="251" spans="1:68">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>7487358</v>
+      </c>
+      <c r="C251" t="s">
+        <v>68</v>
+      </c>
+      <c r="D251" t="s">
+        <v>69</v>
+      </c>
+      <c r="E251" s="2">
+        <v>45613.70833333334</v>
+      </c>
+      <c r="F251">
+        <v>20</v>
+      </c>
+      <c r="G251" t="s">
+        <v>80</v>
+      </c>
+      <c r="H251" t="s">
+        <v>71</v>
+      </c>
+      <c r="I251">
+        <v>0</v>
+      </c>
+      <c r="J251">
+        <v>0</v>
+      </c>
+      <c r="K251">
+        <v>0</v>
+      </c>
+      <c r="L251">
+        <v>0</v>
+      </c>
+      <c r="M251">
+        <v>0</v>
+      </c>
+      <c r="N251">
+        <v>0</v>
+      </c>
+      <c r="O251" t="s">
+        <v>89</v>
+      </c>
+      <c r="P251" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q251">
+        <v>4</v>
+      </c>
+      <c r="R251">
+        <v>1.91</v>
+      </c>
+      <c r="S251">
+        <v>3.2</v>
+      </c>
+      <c r="T251">
+        <v>1.53</v>
+      </c>
+      <c r="U251">
+        <v>2.44</v>
+      </c>
+      <c r="V251">
+        <v>3.4</v>
+      </c>
+      <c r="W251">
+        <v>1.27</v>
+      </c>
+      <c r="X251">
+        <v>9.6</v>
+      </c>
+      <c r="Y251">
+        <v>1.02</v>
+      </c>
+      <c r="Z251">
+        <v>3.3</v>
+      </c>
+      <c r="AA251">
+        <v>3</v>
+      </c>
+      <c r="AB251">
+        <v>2.38</v>
+      </c>
+      <c r="AC251">
+        <v>1.1</v>
+      </c>
+      <c r="AD251">
+        <v>6.25</v>
+      </c>
+      <c r="AE251">
+        <v>1.48</v>
+      </c>
+      <c r="AF251">
+        <v>2.37</v>
+      </c>
+      <c r="AG251">
+        <v>2.5</v>
+      </c>
+      <c r="AH251">
+        <v>1.5</v>
+      </c>
+      <c r="AI251">
+        <v>2.1</v>
+      </c>
+      <c r="AJ251">
+        <v>1.67</v>
+      </c>
+      <c r="AK251">
+        <v>1.51</v>
+      </c>
+      <c r="AL251">
+        <v>1.34</v>
+      </c>
+      <c r="AM251">
+        <v>1.34</v>
+      </c>
+      <c r="AN251">
+        <v>1.5</v>
+      </c>
+      <c r="AO251">
+        <v>1.83</v>
+      </c>
+      <c r="AP251">
+        <v>1.49</v>
+      </c>
+      <c r="AQ251">
+        <v>1.81</v>
+      </c>
+      <c r="AR251">
+        <v>1.23</v>
+      </c>
+      <c r="AS251">
+        <v>1.49</v>
+      </c>
+      <c r="AT251">
+        <v>2.72</v>
+      </c>
+      <c r="AU251">
+        <v>2</v>
+      </c>
+      <c r="AV251">
+        <v>0</v>
+      </c>
+      <c r="AW251">
+        <v>11</v>
+      </c>
+      <c r="AX251">
+        <v>8</v>
+      </c>
+      <c r="AY251">
+        <v>13</v>
+      </c>
+      <c r="AZ251">
+        <v>8</v>
+      </c>
+      <c r="BA251">
+        <v>4</v>
+      </c>
+      <c r="BB251">
+        <v>2</v>
+      </c>
+      <c r="BC251">
+        <v>6</v>
+      </c>
+      <c r="BD251">
+        <v>2.05</v>
+      </c>
+      <c r="BE251">
+        <v>7.2</v>
+      </c>
+      <c r="BF251">
+        <v>2.12</v>
+      </c>
+      <c r="BG251">
+        <v>1.31</v>
+      </c>
+      <c r="BH251">
+        <v>3.15</v>
+      </c>
+      <c r="BI251">
+        <v>1.55</v>
+      </c>
+      <c r="BJ251">
+        <v>2.29</v>
+      </c>
+      <c r="BK251">
+        <v>1.91</v>
+      </c>
+      <c r="BL251">
+        <v>1.8</v>
+      </c>
+      <c r="BM251">
+        <v>2.47</v>
+      </c>
+      <c r="BN251">
+        <v>1.48</v>
+      </c>
+      <c r="BO251">
+        <v>3.3</v>
+      </c>
+      <c r="BP251">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="252" spans="1:68">
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>7487360</v>
+      </c>
+      <c r="C252" t="s">
+        <v>68</v>
+      </c>
+      <c r="D252" t="s">
+        <v>69</v>
+      </c>
+      <c r="E252" s="2">
+        <v>45613.70833333334</v>
+      </c>
+      <c r="F252">
+        <v>20</v>
+      </c>
+      <c r="G252" t="s">
+        <v>73</v>
+      </c>
+      <c r="H252" t="s">
+        <v>79</v>
+      </c>
+      <c r="I252">
+        <v>1</v>
+      </c>
+      <c r="J252">
+        <v>1</v>
+      </c>
+      <c r="K252">
+        <v>2</v>
+      </c>
+      <c r="L252">
+        <v>3</v>
+      </c>
+      <c r="M252">
+        <v>1</v>
+      </c>
+      <c r="N252">
+        <v>4</v>
+      </c>
+      <c r="O252" t="s">
+        <v>228</v>
+      </c>
+      <c r="P252" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q252">
+        <v>4.33</v>
+      </c>
+      <c r="R252">
+        <v>2</v>
+      </c>
+      <c r="S252">
+        <v>2.88</v>
+      </c>
+      <c r="T252">
+        <v>1.45</v>
+      </c>
+      <c r="U252">
+        <v>2.64</v>
+      </c>
+      <c r="V252">
+        <v>3.32</v>
+      </c>
+      <c r="W252">
+        <v>1.31</v>
+      </c>
+      <c r="X252">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y252">
+        <v>1.04</v>
+      </c>
+      <c r="Z252">
+        <v>3.4</v>
+      </c>
+      <c r="AA252">
+        <v>3.5</v>
+      </c>
+      <c r="AB252">
+        <v>2.05</v>
+      </c>
+      <c r="AC252">
+        <v>1.08</v>
+      </c>
+      <c r="AD252">
+        <v>7</v>
+      </c>
+      <c r="AE252">
+        <v>1.42</v>
+      </c>
+      <c r="AF252">
+        <v>2.75</v>
+      </c>
+      <c r="AG252">
+        <v>2.25</v>
+      </c>
+      <c r="AH252">
+        <v>1.62</v>
+      </c>
+      <c r="AI252">
+        <v>2</v>
+      </c>
+      <c r="AJ252">
+        <v>1.73</v>
+      </c>
+      <c r="AK252">
+        <v>1.92</v>
+      </c>
+      <c r="AL252">
+        <v>1.29</v>
+      </c>
+      <c r="AM252">
+        <v>1.16</v>
+      </c>
+      <c r="AN252">
+        <v>0.98</v>
+      </c>
+      <c r="AO252">
+        <v>1.66</v>
+      </c>
+      <c r="AP252">
+        <v>1.02</v>
+      </c>
+      <c r="AQ252">
+        <v>1.62</v>
+      </c>
+      <c r="AR252">
+        <v>1.43</v>
+      </c>
+      <c r="AS252">
+        <v>1.53</v>
+      </c>
+      <c r="AT252">
+        <v>2.96</v>
+      </c>
+      <c r="AU252">
+        <v>6</v>
+      </c>
+      <c r="AV252">
+        <v>5</v>
+      </c>
+      <c r="AW252">
+        <v>9</v>
+      </c>
+      <c r="AX252">
+        <v>3</v>
+      </c>
+      <c r="AY252">
+        <v>15</v>
+      </c>
+      <c r="AZ252">
+        <v>8</v>
+      </c>
+      <c r="BA252">
+        <v>8</v>
+      </c>
+      <c r="BB252">
+        <v>2</v>
+      </c>
+      <c r="BC252">
+        <v>10</v>
+      </c>
+      <c r="BD252">
+        <v>2.4</v>
+      </c>
+      <c r="BE252">
+        <v>7.4</v>
+      </c>
+      <c r="BF252">
+        <v>1.83</v>
+      </c>
+      <c r="BG252">
+        <v>1.43</v>
+      </c>
+      <c r="BH252">
+        <v>2.6</v>
+      </c>
+      <c r="BI252">
+        <v>1.7</v>
+      </c>
+      <c r="BJ252">
+        <v>2.05</v>
+      </c>
+      <c r="BK252">
+        <v>2.24</v>
+      </c>
+      <c r="BL252">
+        <v>1.57</v>
+      </c>
+      <c r="BM252">
+        <v>2.98</v>
+      </c>
+      <c r="BN252">
+        <v>1.34</v>
+      </c>
+      <c r="BO252">
+        <v>3.35</v>
+      </c>
+      <c r="BP252">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="333">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -703,6 +703,9 @@
     <t>['33', '58', '90+6']</t>
   </si>
   <si>
+    <t>['46', '69', '76']</t>
+  </si>
+  <si>
     <t>['44', '85']</t>
   </si>
   <si>
@@ -1007,6 +1010,9 @@
   </si>
   <si>
     <t>['15', '60']</t>
+  </si>
+  <si>
+    <t>['35', '44']</t>
   </si>
 </sst>
 </file>
@@ -1368,7 +1374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP252"/>
+  <dimension ref="A1:BP253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2529,10 +2535,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2863,7 +2869,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -3275,7 +3281,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3481,7 +3487,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3768,7 +3774,7 @@
         <v>1.49</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AR12">
         <v>1.3</v>
@@ -3893,7 +3899,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3974,7 +3980,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ13">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AR13">
         <v>1.34</v>
@@ -4305,7 +4311,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -4923,7 +4929,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -5001,7 +5007,7 @@
         <v>2</v>
       </c>
       <c r="AP18">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AQ18">
         <v>1.62</v>
@@ -5129,7 +5135,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5335,7 +5341,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5416,7 +5422,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AR20">
         <v>1.69</v>
@@ -5541,7 +5547,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5747,7 +5753,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5828,7 +5834,7 @@
         <v>1.02</v>
       </c>
       <c r="AQ22">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AR22">
         <v>1.54</v>
@@ -6571,7 +6577,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6649,7 +6655,7 @@
         <v>0.25</v>
       </c>
       <c r="AP26">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AQ26">
         <v>0.93</v>
@@ -7267,7 +7273,7 @@
         <v>2.5</v>
       </c>
       <c r="AP29">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AQ29">
         <v>1.62</v>
@@ -7807,7 +7813,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -8094,7 +8100,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ33">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AR33">
         <v>1.41</v>
@@ -8219,7 +8225,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8425,7 +8431,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8506,7 +8512,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AR35">
         <v>1.5</v>
@@ -8631,7 +8637,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -9327,7 +9333,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AQ39">
         <v>1.05</v>
@@ -9533,7 +9539,7 @@
         <v>1.33</v>
       </c>
       <c r="AP40">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AQ40">
         <v>1.33</v>
@@ -9661,7 +9667,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9867,7 +9873,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -10154,7 +10160,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ43">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AR43">
         <v>1.44</v>
@@ -10279,7 +10285,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10691,7 +10697,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10772,7 +10778,7 @@
         <v>1.02</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AR46">
         <v>1.37</v>
@@ -10897,7 +10903,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -11593,7 +11599,7 @@
         <v>0.75</v>
       </c>
       <c r="AP50">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AQ50">
         <v>0.93</v>
@@ -11721,7 +11727,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11799,7 +11805,7 @@
         <v>1.63</v>
       </c>
       <c r="AP51">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AQ51">
         <v>1.81</v>
@@ -12339,7 +12345,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -12420,7 +12426,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ54">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AR54">
         <v>1.53</v>
@@ -12545,7 +12551,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12751,7 +12757,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12957,7 +12963,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13163,7 +13169,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -13244,7 +13250,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ58">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AR58">
         <v>1.5</v>
@@ -13575,7 +13581,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13859,7 +13865,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AQ61">
         <v>1.38</v>
@@ -14065,7 +14071,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP62">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AQ62">
         <v>1.26</v>
@@ -14811,7 +14817,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -15017,7 +15023,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -15223,7 +15229,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15301,10 +15307,10 @@
         <v>1.7</v>
       </c>
       <c r="AP68">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AQ68">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AR68">
         <v>1.27</v>
@@ -16253,7 +16259,7 @@
         <v>101</v>
       </c>
       <c r="P73" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16331,7 +16337,7 @@
         <v>1.36</v>
       </c>
       <c r="AP73">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AQ73">
         <v>1.49</v>
@@ -16665,7 +16671,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16871,7 +16877,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17155,7 +17161,7 @@
         <v>1.33</v>
       </c>
       <c r="AP77">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AQ77">
         <v>1.33</v>
@@ -17283,7 +17289,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q78">
         <v>5.5</v>
@@ -17489,7 +17495,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17695,7 +17701,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q80">
         <v>4.75</v>
@@ -17776,7 +17782,7 @@
         <v>1.49</v>
       </c>
       <c r="AQ80">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AR80">
         <v>1.31</v>
@@ -18188,7 +18194,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ82">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AR82">
         <v>1.64</v>
@@ -18313,7 +18319,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q83">
         <v>3.5</v>
@@ -18519,7 +18525,7 @@
         <v>89</v>
       </c>
       <c r="P84" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18803,7 +18809,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AQ85">
         <v>1.05</v>
@@ -18931,7 +18937,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -19627,7 +19633,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AQ89">
         <v>1.02</v>
@@ -19961,7 +19967,7 @@
         <v>89</v>
       </c>
       <c r="P91" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -20373,7 +20379,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20454,7 +20460,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ93">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AR93">
         <v>1.6</v>
@@ -20660,7 +20666,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ94">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AR94">
         <v>1.23</v>
@@ -20785,7 +20791,7 @@
         <v>145</v>
       </c>
       <c r="P95" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -21197,7 +21203,7 @@
         <v>146</v>
       </c>
       <c r="P97" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21609,7 +21615,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21687,7 +21693,7 @@
         <v>0.63</v>
       </c>
       <c r="AP99">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AQ99">
         <v>1.26</v>
@@ -22099,7 +22105,7 @@
         <v>1.75</v>
       </c>
       <c r="AP101">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AQ101">
         <v>1.81</v>
@@ -22433,7 +22439,7 @@
         <v>89</v>
       </c>
       <c r="P103" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22514,7 +22520,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ103">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AR103">
         <v>1.29</v>
@@ -22639,7 +22645,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q104">
         <v>3.4</v>
@@ -22845,7 +22851,7 @@
         <v>150</v>
       </c>
       <c r="P105" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -23257,7 +23263,7 @@
         <v>89</v>
       </c>
       <c r="P107" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q107">
         <v>6.5</v>
@@ -23338,7 +23344,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ107">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AR107">
         <v>1.51</v>
@@ -23463,7 +23469,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q108">
         <v>4.75</v>
@@ -24081,7 +24087,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -24287,7 +24293,7 @@
         <v>89</v>
       </c>
       <c r="P112" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24571,7 +24577,7 @@
         <v>1.39</v>
       </c>
       <c r="AP113">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AQ113">
         <v>1.48</v>
@@ -24777,7 +24783,7 @@
         <v>0.83</v>
       </c>
       <c r="AP114">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AQ114">
         <v>1.02</v>
@@ -24905,7 +24911,7 @@
         <v>148</v>
       </c>
       <c r="P115" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q115">
         <v>8</v>
@@ -24986,7 +24992,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ115">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AR115">
         <v>1.2</v>
@@ -25317,7 +25323,7 @@
         <v>89</v>
       </c>
       <c r="P117" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q117">
         <v>3.25</v>
@@ -25523,7 +25529,7 @@
         <v>89</v>
       </c>
       <c r="P118" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25729,7 +25735,7 @@
         <v>158</v>
       </c>
       <c r="P119" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q119">
         <v>2.38</v>
@@ -25810,7 +25816,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ119">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AR119">
         <v>1.48</v>
@@ -26141,7 +26147,7 @@
         <v>89</v>
       </c>
       <c r="P121" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q121">
         <v>3.4</v>
@@ -26219,7 +26225,7 @@
         <v>1.25</v>
       </c>
       <c r="AP121">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AQ121">
         <v>1.48</v>
@@ -26347,7 +26353,7 @@
         <v>159</v>
       </c>
       <c r="P122" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26553,7 +26559,7 @@
         <v>160</v>
       </c>
       <c r="P123" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q123">
         <v>3.75</v>
@@ -26759,7 +26765,7 @@
         <v>89</v>
       </c>
       <c r="P124" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q124">
         <v>1.95</v>
@@ -26837,7 +26843,7 @@
         <v>1.6</v>
       </c>
       <c r="AP124">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AQ124">
         <v>1.38</v>
@@ -27377,7 +27383,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q127">
         <v>3</v>
@@ -27583,7 +27589,7 @@
         <v>164</v>
       </c>
       <c r="P128" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q128">
         <v>2.6</v>
@@ -27664,7 +27670,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ128">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AR128">
         <v>1.44</v>
@@ -27789,7 +27795,7 @@
         <v>115</v>
       </c>
       <c r="P129" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -27995,7 +28001,7 @@
         <v>89</v>
       </c>
       <c r="P130" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q130">
         <v>5.5</v>
@@ -28076,7 +28082,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ130">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AR130">
         <v>1.41</v>
@@ -28407,7 +28413,7 @@
         <v>165</v>
       </c>
       <c r="P132" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28694,7 +28700,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ133">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AR133">
         <v>1.36</v>
@@ -28819,7 +28825,7 @@
         <v>166</v>
       </c>
       <c r="P134" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -29437,7 +29443,7 @@
         <v>89</v>
       </c>
       <c r="P137" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29643,7 +29649,7 @@
         <v>167</v>
       </c>
       <c r="P138" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29721,7 +29727,7 @@
         <v>1.39</v>
       </c>
       <c r="AP138">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AQ138">
         <v>1.48</v>
@@ -30055,7 +30061,7 @@
         <v>168</v>
       </c>
       <c r="P140" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q140">
         <v>2.6</v>
@@ -30467,7 +30473,7 @@
         <v>133</v>
       </c>
       <c r="P142" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q142">
         <v>2.25</v>
@@ -30754,7 +30760,7 @@
         <v>1.49</v>
       </c>
       <c r="AQ143">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AR143">
         <v>1.19</v>
@@ -30957,7 +30963,7 @@
         <v>1.04</v>
       </c>
       <c r="AP144">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AQ144">
         <v>1.33</v>
@@ -31085,7 +31091,7 @@
         <v>89</v>
       </c>
       <c r="P145" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q145">
         <v>4.33</v>
@@ -31784,7 +31790,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ148">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AR148">
         <v>1.5</v>
@@ -32193,7 +32199,7 @@
         <v>1.63</v>
       </c>
       <c r="AP150">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AQ150">
         <v>1.38</v>
@@ -32321,7 +32327,7 @@
         <v>173</v>
       </c>
       <c r="P151" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q151">
         <v>2.1</v>
@@ -32402,7 +32408,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ151">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AR151">
         <v>1.54</v>
@@ -32733,7 +32739,7 @@
         <v>174</v>
       </c>
       <c r="P153" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q153">
         <v>3.75</v>
@@ -33145,7 +33151,7 @@
         <v>113</v>
       </c>
       <c r="P155" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q155">
         <v>2.6</v>
@@ -33351,7 +33357,7 @@
         <v>176</v>
       </c>
       <c r="P156" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q156">
         <v>6.5</v>
@@ -33432,7 +33438,7 @@
         <v>1.02</v>
       </c>
       <c r="AQ156">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AR156">
         <v>1.33</v>
@@ -33635,7 +33641,7 @@
         <v>1</v>
       </c>
       <c r="AP157">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AQ157">
         <v>1.33</v>
@@ -34253,7 +34259,7 @@
         <v>1.12</v>
       </c>
       <c r="AP160">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AQ160">
         <v>1.05</v>
@@ -34793,7 +34799,7 @@
         <v>181</v>
       </c>
       <c r="P163" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q163">
         <v>3.5</v>
@@ -35080,7 +35086,7 @@
         <v>1.49</v>
       </c>
       <c r="AQ164">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AR164">
         <v>1.17</v>
@@ -35411,7 +35417,7 @@
         <v>182</v>
       </c>
       <c r="P166" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q166">
         <v>3.25</v>
@@ -35695,7 +35701,7 @@
         <v>1.74</v>
       </c>
       <c r="AP167">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AQ167">
         <v>1.81</v>
@@ -36029,7 +36035,7 @@
         <v>184</v>
       </c>
       <c r="P169" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q169">
         <v>3.4</v>
@@ -36107,7 +36113,7 @@
         <v>1.54</v>
       </c>
       <c r="AP169">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AQ169">
         <v>1.38</v>
@@ -36235,7 +36241,7 @@
         <v>185</v>
       </c>
       <c r="P170" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q170">
         <v>2.75</v>
@@ -36647,7 +36653,7 @@
         <v>89</v>
       </c>
       <c r="P172" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q172">
         <v>6.5</v>
@@ -36728,7 +36734,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ172">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AR172">
         <v>1.2</v>
@@ -37265,7 +37271,7 @@
         <v>189</v>
       </c>
       <c r="P175" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q175">
         <v>3.4</v>
@@ -37346,7 +37352,7 @@
         <v>1.02</v>
       </c>
       <c r="AQ175">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AR175">
         <v>1.36</v>
@@ -37549,7 +37555,7 @@
         <v>1.17</v>
       </c>
       <c r="AP176">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AQ176">
         <v>1.26</v>
@@ -38089,7 +38095,7 @@
         <v>192</v>
       </c>
       <c r="P179" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q179">
         <v>3.1</v>
@@ -38501,7 +38507,7 @@
         <v>89</v>
       </c>
       <c r="P181" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q181">
         <v>2.1</v>
@@ -38788,7 +38794,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ182">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AR182">
         <v>1.35</v>
@@ -38913,7 +38919,7 @@
         <v>194</v>
       </c>
       <c r="P183" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q183">
         <v>2.6</v>
@@ -39609,7 +39615,7 @@
         <v>1</v>
       </c>
       <c r="AP186">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AQ186">
         <v>1.05</v>
@@ -39943,7 +39949,7 @@
         <v>197</v>
       </c>
       <c r="P188" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q188">
         <v>2.25</v>
@@ -40021,10 +40027,10 @@
         <v>1.03</v>
       </c>
       <c r="AP188">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AQ188">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AR188">
         <v>1.64</v>
@@ -40149,7 +40155,7 @@
         <v>198</v>
       </c>
       <c r="P189" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q189">
         <v>3.25</v>
@@ -40561,7 +40567,7 @@
         <v>89</v>
       </c>
       <c r="P191" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q191">
         <v>3.4</v>
@@ -40767,7 +40773,7 @@
         <v>119</v>
       </c>
       <c r="P192" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q192">
         <v>4.5</v>
@@ -40973,7 +40979,7 @@
         <v>200</v>
       </c>
       <c r="P193" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q193">
         <v>3.75</v>
@@ -41054,7 +41060,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ193">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AR193">
         <v>1.54</v>
@@ -41179,7 +41185,7 @@
         <v>201</v>
       </c>
       <c r="P194" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q194">
         <v>2.63</v>
@@ -41385,7 +41391,7 @@
         <v>202</v>
       </c>
       <c r="P195" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q195">
         <v>3</v>
@@ -41463,7 +41469,7 @@
         <v>0.97</v>
       </c>
       <c r="AP195">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AQ195">
         <v>0.93</v>
@@ -42003,7 +42009,7 @@
         <v>89</v>
       </c>
       <c r="P198" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q198">
         <v>2.63</v>
@@ -42209,7 +42215,7 @@
         <v>89</v>
       </c>
       <c r="P199" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q199">
         <v>3.25</v>
@@ -42287,7 +42293,7 @@
         <v>1.24</v>
       </c>
       <c r="AP199">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AQ199">
         <v>1.26</v>
@@ -42415,7 +42421,7 @@
         <v>89</v>
       </c>
       <c r="P200" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q200">
         <v>6</v>
@@ -42496,7 +42502,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ200">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AR200">
         <v>1.42</v>
@@ -43033,7 +43039,7 @@
         <v>148</v>
       </c>
       <c r="P203" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q203">
         <v>2.75</v>
@@ -43239,7 +43245,7 @@
         <v>204</v>
       </c>
       <c r="P204" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q204">
         <v>2.63</v>
@@ -43445,7 +43451,7 @@
         <v>89</v>
       </c>
       <c r="P205" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q205">
         <v>4</v>
@@ -43732,7 +43738,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ206">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AR206">
         <v>1.3</v>
@@ -44063,7 +44069,7 @@
         <v>205</v>
       </c>
       <c r="P208" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q208">
         <v>3.6</v>
@@ -44269,7 +44275,7 @@
         <v>206</v>
       </c>
       <c r="P209" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q209">
         <v>3.4</v>
@@ -44475,7 +44481,7 @@
         <v>89</v>
       </c>
       <c r="P210" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q210">
         <v>2.1</v>
@@ -44553,7 +44559,7 @@
         <v>1.39</v>
       </c>
       <c r="AP210">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AQ210">
         <v>1.49</v>
@@ -44681,7 +44687,7 @@
         <v>187</v>
       </c>
       <c r="P211" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q211">
         <v>3.2</v>
@@ -44887,7 +44893,7 @@
         <v>207</v>
       </c>
       <c r="P212" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q212">
         <v>5</v>
@@ -44965,7 +44971,7 @@
         <v>1.77</v>
       </c>
       <c r="AP212">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AQ212">
         <v>1.81</v>
@@ -45174,7 +45180,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ213">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AR213">
         <v>1.36</v>
@@ -45299,7 +45305,7 @@
         <v>89</v>
       </c>
       <c r="P214" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q214">
         <v>2.75</v>
@@ -45917,7 +45923,7 @@
         <v>89</v>
       </c>
       <c r="P217" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q217">
         <v>3.2</v>
@@ -46123,7 +46129,7 @@
         <v>211</v>
       </c>
       <c r="P218" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q218">
         <v>3.4</v>
@@ -46535,7 +46541,7 @@
         <v>200</v>
       </c>
       <c r="P220" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q220">
         <v>4.5</v>
@@ -46613,7 +46619,7 @@
         <v>1.86</v>
       </c>
       <c r="AP220">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AQ220">
         <v>1.62</v>
@@ -46741,7 +46747,7 @@
         <v>213</v>
       </c>
       <c r="P221" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q221">
         <v>1.95</v>
@@ -46819,7 +46825,7 @@
         <v>1.06</v>
       </c>
       <c r="AP221">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AQ221">
         <v>1.02</v>
@@ -47234,7 +47240,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ223">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AR223">
         <v>1.44</v>
@@ -47646,7 +47652,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ225">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AR225">
         <v>1.41</v>
@@ -47977,7 +47983,7 @@
         <v>210</v>
       </c>
       <c r="P227" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q227">
         <v>3.5</v>
@@ -48183,7 +48189,7 @@
         <v>215</v>
       </c>
       <c r="P228" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q228">
         <v>3.6</v>
@@ -48595,7 +48601,7 @@
         <v>216</v>
       </c>
       <c r="P230" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q230">
         <v>3.1</v>
@@ -48801,7 +48807,7 @@
         <v>89</v>
       </c>
       <c r="P231" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q231">
         <v>3.75</v>
@@ -49085,7 +49091,7 @@
         <v>1.43</v>
       </c>
       <c r="AP232">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AQ232">
         <v>1.49</v>
@@ -49294,7 +49300,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ233">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AR233">
         <v>1.52</v>
@@ -49419,7 +49425,7 @@
         <v>218</v>
       </c>
       <c r="P234" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q234">
         <v>2.5</v>
@@ -49912,7 +49918,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ236">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AR236">
         <v>1.35</v>
@@ -50449,7 +50455,7 @@
         <v>221</v>
       </c>
       <c r="P239" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q239">
         <v>4</v>
@@ -50733,7 +50739,7 @@
         <v>0.9</v>
       </c>
       <c r="AP240">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AQ240">
         <v>0.93</v>
@@ -51067,7 +51073,7 @@
         <v>223</v>
       </c>
       <c r="P242" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q242">
         <v>1.95</v>
@@ -51273,7 +51279,7 @@
         <v>224</v>
       </c>
       <c r="P243" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q243">
         <v>2.75</v>
@@ -51351,7 +51357,7 @@
         <v>1</v>
       </c>
       <c r="AP243">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AQ243">
         <v>1.02</v>
@@ -51479,7 +51485,7 @@
         <v>225</v>
       </c>
       <c r="P244" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q244">
         <v>4.33</v>
@@ -51560,7 +51566,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ244">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AR244">
         <v>1.41</v>
@@ -51891,7 +51897,7 @@
         <v>89</v>
       </c>
       <c r="P246" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q246">
         <v>3.4</v>
@@ -52097,7 +52103,7 @@
         <v>226</v>
       </c>
       <c r="P247" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q247">
         <v>3</v>
@@ -52178,7 +52184,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ247">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AR247">
         <v>1.43</v>
@@ -52303,7 +52309,7 @@
         <v>89</v>
       </c>
       <c r="P248" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q248">
         <v>3.75</v>
@@ -52509,7 +52515,7 @@
         <v>129</v>
       </c>
       <c r="P249" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q249">
         <v>2.1</v>
@@ -52587,7 +52593,7 @@
         <v>1.44</v>
       </c>
       <c r="AP249">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AQ249">
         <v>1.48</v>
@@ -53284,6 +53290,212 @@
       </c>
       <c r="BP252">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="253" spans="1:68">
+      <c r="A253" s="1">
+        <v>252</v>
+      </c>
+      <c r="B253">
+        <v>7487366</v>
+      </c>
+      <c r="C253" t="s">
+        <v>68</v>
+      </c>
+      <c r="D253" t="s">
+        <v>69</v>
+      </c>
+      <c r="E253" s="2">
+        <v>45617.79166666666</v>
+      </c>
+      <c r="F253">
+        <v>21</v>
+      </c>
+      <c r="G253" t="s">
+        <v>81</v>
+      </c>
+      <c r="H253" t="s">
+        <v>74</v>
+      </c>
+      <c r="I253">
+        <v>0</v>
+      </c>
+      <c r="J253">
+        <v>2</v>
+      </c>
+      <c r="K253">
+        <v>2</v>
+      </c>
+      <c r="L253">
+        <v>3</v>
+      </c>
+      <c r="M253">
+        <v>2</v>
+      </c>
+      <c r="N253">
+        <v>5</v>
+      </c>
+      <c r="O253" t="s">
+        <v>229</v>
+      </c>
+      <c r="P253" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q253">
+        <v>4.5</v>
+      </c>
+      <c r="R253">
+        <v>2.05</v>
+      </c>
+      <c r="S253">
+        <v>2.63</v>
+      </c>
+      <c r="T253">
+        <v>1.44</v>
+      </c>
+      <c r="U253">
+        <v>2.63</v>
+      </c>
+      <c r="V253">
+        <v>3.4</v>
+      </c>
+      <c r="W253">
+        <v>1.3</v>
+      </c>
+      <c r="X253">
+        <v>10</v>
+      </c>
+      <c r="Y253">
+        <v>1.06</v>
+      </c>
+      <c r="Z253">
+        <v>3.7</v>
+      </c>
+      <c r="AA253">
+        <v>3.25</v>
+      </c>
+      <c r="AB253">
+        <v>1.9</v>
+      </c>
+      <c r="AC253">
+        <v>1.06</v>
+      </c>
+      <c r="AD253">
+        <v>8</v>
+      </c>
+      <c r="AE253">
+        <v>1.35</v>
+      </c>
+      <c r="AF253">
+        <v>3</v>
+      </c>
+      <c r="AG253">
+        <v>2.1</v>
+      </c>
+      <c r="AH253">
+        <v>1.7</v>
+      </c>
+      <c r="AI253">
+        <v>1.91</v>
+      </c>
+      <c r="AJ253">
+        <v>1.8</v>
+      </c>
+      <c r="AK253">
+        <v>1.51</v>
+      </c>
+      <c r="AL253">
+        <v>1.27</v>
+      </c>
+      <c r="AM253">
+        <v>1.3</v>
+      </c>
+      <c r="AN253">
+        <v>1</v>
+      </c>
+      <c r="AO253">
+        <v>1.8</v>
+      </c>
+      <c r="AP253">
+        <v>1.05</v>
+      </c>
+      <c r="AQ253">
+        <v>1.76</v>
+      </c>
+      <c r="AR253">
+        <v>1.31</v>
+      </c>
+      <c r="AS253">
+        <v>1.56</v>
+      </c>
+      <c r="AT253">
+        <v>2.87</v>
+      </c>
+      <c r="AU253">
+        <v>7</v>
+      </c>
+      <c r="AV253">
+        <v>7</v>
+      </c>
+      <c r="AW253">
+        <v>2</v>
+      </c>
+      <c r="AX253">
+        <v>4</v>
+      </c>
+      <c r="AY253">
+        <v>9</v>
+      </c>
+      <c r="AZ253">
+        <v>11</v>
+      </c>
+      <c r="BA253">
+        <v>6</v>
+      </c>
+      <c r="BB253">
+        <v>5</v>
+      </c>
+      <c r="BC253">
+        <v>11</v>
+      </c>
+      <c r="BD253">
+        <v>2.46</v>
+      </c>
+      <c r="BE253">
+        <v>6.3</v>
+      </c>
+      <c r="BF253">
+        <v>1.81</v>
+      </c>
+      <c r="BG253">
+        <v>1.23</v>
+      </c>
+      <c r="BH253">
+        <v>3.28</v>
+      </c>
+      <c r="BI253">
+        <v>1.45</v>
+      </c>
+      <c r="BJ253">
+        <v>2.34</v>
+      </c>
+      <c r="BK253">
+        <v>1.83</v>
+      </c>
+      <c r="BL253">
+        <v>1.83</v>
+      </c>
+      <c r="BM253">
+        <v>2.31</v>
+      </c>
+      <c r="BN253">
+        <v>1.46</v>
+      </c>
+      <c r="BO253">
+        <v>3.14</v>
+      </c>
+      <c r="BP253">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="334">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -706,6 +706,9 @@
     <t>['46', '69', '76']</t>
   </si>
   <si>
+    <t>['44', '72']</t>
+  </si>
+  <si>
     <t>['44', '85']</t>
   </si>
   <si>
@@ -1374,7 +1377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP253"/>
+  <dimension ref="A1:BP255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1917,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="AQ3">
         <v>1.05</v>
@@ -2332,7 +2335,7 @@
         <v>1.02</v>
       </c>
       <c r="AQ5">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2741,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="AQ7">
         <v>1.62</v>
@@ -2869,7 +2872,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -3153,10 +3156,10 @@
         <v>1</v>
       </c>
       <c r="AP9">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="AQ9">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="AR9">
         <v>1.58</v>
@@ -3281,7 +3284,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3362,7 +3365,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ10">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="AR10">
         <v>1.47</v>
@@ -3487,7 +3490,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3899,7 +3902,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -4311,7 +4314,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -4389,7 +4392,7 @@
         <v>0.5</v>
       </c>
       <c r="AP15">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="AQ15">
         <v>1.26</v>
@@ -4801,10 +4804,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="AQ17">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="AR17">
         <v>1.4</v>
@@ -4929,7 +4932,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -5135,7 +5138,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5216,7 +5219,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ19">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="AR19">
         <v>1.31</v>
@@ -5341,7 +5344,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5547,7 +5550,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5625,7 +5628,7 @@
         <v>1.33</v>
       </c>
       <c r="AP21">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="AQ21">
         <v>1.38</v>
@@ -5753,7 +5756,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -6246,7 +6249,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ24">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="AR24">
         <v>1.25</v>
@@ -6577,7 +6580,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6658,7 +6661,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ26">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="AR26">
         <v>1.33</v>
@@ -6861,7 +6864,7 @@
         <v>1.75</v>
       </c>
       <c r="AP27">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="AQ27">
         <v>1.33</v>
@@ -7067,7 +7070,7 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="AQ28">
         <v>1.02</v>
@@ -7688,7 +7691,7 @@
         <v>1.02</v>
       </c>
       <c r="AQ31">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="AR31">
         <v>1.28</v>
@@ -7813,7 +7816,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -8097,7 +8100,7 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="AQ33">
         <v>1.76</v>
@@ -8225,7 +8228,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8431,7 +8434,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8637,7 +8640,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8715,7 +8718,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="AQ36">
         <v>1.49</v>
@@ -9667,7 +9670,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9745,10 +9748,10 @@
         <v>1.17</v>
       </c>
       <c r="AP41">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="AQ41">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="AR41">
         <v>1.42</v>
@@ -9873,7 +9876,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -9954,7 +9957,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ42">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="AR42">
         <v>1.44</v>
@@ -10157,7 +10160,7 @@
         <v>1.67</v>
       </c>
       <c r="AP43">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="AQ43">
         <v>1.76</v>
@@ -10285,7 +10288,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10569,7 +10572,7 @@
         <v>1.71</v>
       </c>
       <c r="AP45">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="AQ45">
         <v>1.38</v>
@@ -10697,7 +10700,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10903,7 +10906,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -10981,7 +10984,7 @@
         <v>0.57</v>
       </c>
       <c r="AP47">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="AQ47">
         <v>1.05</v>
@@ -11602,7 +11605,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ50">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="AR50">
         <v>1.93</v>
@@ -11727,7 +11730,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11808,7 +11811,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ51">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="AR51">
         <v>1.31</v>
@@ -12014,7 +12017,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ52">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="AR52">
         <v>1.52</v>
@@ -12345,7 +12348,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -12551,7 +12554,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12629,7 +12632,7 @@
         <v>1.75</v>
       </c>
       <c r="AP55">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="AQ55">
         <v>1.49</v>
@@ -12757,7 +12760,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12963,7 +12966,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13044,7 +13047,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ57">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="AR57">
         <v>1.33</v>
@@ -13169,7 +13172,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -13247,7 +13250,7 @@
         <v>0.44</v>
       </c>
       <c r="AP58">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="AQ58">
         <v>1.05</v>
@@ -13581,7 +13584,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13659,7 +13662,7 @@
         <v>1.4</v>
       </c>
       <c r="AP60">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="AQ60">
         <v>1.33</v>
@@ -14280,7 +14283,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ63">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="AR63">
         <v>1.55</v>
@@ -14692,7 +14695,7 @@
         <v>1.49</v>
       </c>
       <c r="AQ65">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="AR65">
         <v>1.21</v>
@@ -14817,7 +14820,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -14895,7 +14898,7 @@
         <v>1.18</v>
       </c>
       <c r="AP66">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="AQ66">
         <v>1.02</v>
@@ -15023,7 +15026,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -15229,7 +15232,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15516,7 +15519,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ69">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="AR69">
         <v>1.62</v>
@@ -15722,7 +15725,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ70">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="AR70">
         <v>1.35</v>
@@ -16131,7 +16134,7 @@
         <v>1.17</v>
       </c>
       <c r="AP72">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="AQ72">
         <v>1.05</v>
@@ -16259,7 +16262,7 @@
         <v>101</v>
       </c>
       <c r="P73" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16543,10 +16546,10 @@
         <v>1.17</v>
       </c>
       <c r="AP74">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="AQ74">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="AR74">
         <v>1.39</v>
@@ -16671,7 +16674,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16877,7 +16880,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17289,7 +17292,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q78">
         <v>5.5</v>
@@ -17495,7 +17498,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17701,7 +17704,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q80">
         <v>4.75</v>
@@ -18319,7 +18322,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q83">
         <v>3.5</v>
@@ -18397,10 +18400,10 @@
         <v>1.31</v>
       </c>
       <c r="AP83">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="AQ83">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="AR83">
         <v>1.24</v>
@@ -18525,7 +18528,7 @@
         <v>89</v>
       </c>
       <c r="P84" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18606,7 +18609,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ84">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="AR84">
         <v>1.38</v>
@@ -18937,7 +18940,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -19018,7 +19021,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ86">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="AR86">
         <v>1.45</v>
@@ -19221,7 +19224,7 @@
         <v>0.71</v>
       </c>
       <c r="AP87">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="AQ87">
         <v>1.26</v>
@@ -19839,7 +19842,7 @@
         <v>1.36</v>
       </c>
       <c r="AP90">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="AQ90">
         <v>1.33</v>
@@ -19967,7 +19970,7 @@
         <v>89</v>
       </c>
       <c r="P91" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -20048,7 +20051,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ91">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="AR91">
         <v>1.34</v>
@@ -20379,7 +20382,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20663,7 +20666,7 @@
         <v>0.67</v>
       </c>
       <c r="AP94">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="AQ94">
         <v>1.05</v>
@@ -20791,7 +20794,7 @@
         <v>145</v>
       </c>
       <c r="P95" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -20872,7 +20875,7 @@
         <v>1.02</v>
       </c>
       <c r="AQ95">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="AR95">
         <v>1.32</v>
@@ -21203,7 +21206,7 @@
         <v>146</v>
       </c>
       <c r="P97" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21284,7 +21287,7 @@
         <v>1.49</v>
       </c>
       <c r="AQ97">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="AR97">
         <v>1.2</v>
@@ -21615,7 +21618,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -22108,7 +22111,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ101">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="AR101">
         <v>1.8</v>
@@ -22311,7 +22314,7 @@
         <v>0.88</v>
       </c>
       <c r="AP102">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="AQ102">
         <v>1.02</v>
@@ -22439,7 +22442,7 @@
         <v>89</v>
       </c>
       <c r="P103" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22645,7 +22648,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q104">
         <v>3.4</v>
@@ -22851,7 +22854,7 @@
         <v>150</v>
       </c>
       <c r="P105" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -22929,10 +22932,10 @@
         <v>1.47</v>
       </c>
       <c r="AP105">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="AQ105">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="AR105">
         <v>1.45</v>
@@ -23135,7 +23138,7 @@
         <v>2.06</v>
       </c>
       <c r="AP106">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="AQ106">
         <v>1.62</v>
@@ -23263,7 +23266,7 @@
         <v>89</v>
       </c>
       <c r="P107" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q107">
         <v>6.5</v>
@@ -23469,7 +23472,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q108">
         <v>4.75</v>
@@ -24087,7 +24090,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -24168,7 +24171,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ111">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="AR111">
         <v>1.48</v>
@@ -24293,7 +24296,7 @@
         <v>89</v>
       </c>
       <c r="P112" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24374,7 +24377,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ112">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="AR112">
         <v>1.5</v>
@@ -24580,7 +24583,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ113">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="AR113">
         <v>1.78</v>
@@ -24911,7 +24914,7 @@
         <v>148</v>
       </c>
       <c r="P115" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q115">
         <v>8</v>
@@ -24989,7 +24992,7 @@
         <v>2.17</v>
       </c>
       <c r="AP115">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="AQ115">
         <v>1.76</v>
@@ -25323,7 +25326,7 @@
         <v>89</v>
       </c>
       <c r="P117" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q117">
         <v>3.25</v>
@@ -25401,7 +25404,7 @@
         <v>1.53</v>
       </c>
       <c r="AP117">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="AQ117">
         <v>1.38</v>
@@ -25529,7 +25532,7 @@
         <v>89</v>
       </c>
       <c r="P118" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25735,7 +25738,7 @@
         <v>158</v>
       </c>
       <c r="P119" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q119">
         <v>2.38</v>
@@ -25813,7 +25816,7 @@
         <v>0.79</v>
       </c>
       <c r="AP119">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="AQ119">
         <v>1.05</v>
@@ -26147,7 +26150,7 @@
         <v>89</v>
       </c>
       <c r="P121" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q121">
         <v>3.4</v>
@@ -26228,7 +26231,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ121">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="AR121">
         <v>1.22</v>
@@ -26353,7 +26356,7 @@
         <v>159</v>
       </c>
       <c r="P122" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26431,7 +26434,7 @@
         <v>0.95</v>
       </c>
       <c r="AP122">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="AQ122">
         <v>1.26</v>
@@ -26559,7 +26562,7 @@
         <v>160</v>
       </c>
       <c r="P123" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q123">
         <v>3.75</v>
@@ -26640,7 +26643,7 @@
         <v>1.49</v>
       </c>
       <c r="AQ123">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="AR123">
         <v>1.18</v>
@@ -26765,7 +26768,7 @@
         <v>89</v>
       </c>
       <c r="P124" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q124">
         <v>1.95</v>
@@ -27383,7 +27386,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q127">
         <v>3</v>
@@ -27461,7 +27464,7 @@
         <v>1.4</v>
       </c>
       <c r="AP127">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="AQ127">
         <v>1.49</v>
@@ -27589,7 +27592,7 @@
         <v>164</v>
       </c>
       <c r="P128" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q128">
         <v>2.6</v>
@@ -27795,7 +27798,7 @@
         <v>115</v>
       </c>
       <c r="P129" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -27873,7 +27876,7 @@
         <v>2.14</v>
       </c>
       <c r="AP129">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="AQ129">
         <v>1.62</v>
@@ -28001,7 +28004,7 @@
         <v>89</v>
       </c>
       <c r="P130" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q130">
         <v>5.5</v>
@@ -28288,7 +28291,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ131">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="AR131">
         <v>1.28</v>
@@ -28413,7 +28416,7 @@
         <v>165</v>
       </c>
       <c r="P132" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28825,7 +28828,7 @@
         <v>166</v>
       </c>
       <c r="P134" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -28903,7 +28906,7 @@
         <v>2.18</v>
       </c>
       <c r="AP134">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="AQ134">
         <v>1.62</v>
@@ -29109,10 +29112,10 @@
         <v>1.41</v>
       </c>
       <c r="AP135">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="AQ135">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="AR135">
         <v>1.47</v>
@@ -29443,7 +29446,7 @@
         <v>89</v>
       </c>
       <c r="P137" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29649,7 +29652,7 @@
         <v>167</v>
       </c>
       <c r="P138" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29730,7 +29733,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ138">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="AR138">
         <v>1.21</v>
@@ -29936,7 +29939,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ139">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="AR139">
         <v>1.38</v>
@@ -30061,7 +30064,7 @@
         <v>168</v>
       </c>
       <c r="P140" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q140">
         <v>2.6</v>
@@ -30348,7 +30351,7 @@
         <v>1.02</v>
       </c>
       <c r="AQ141">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="AR141">
         <v>1.28</v>
@@ -30473,7 +30476,7 @@
         <v>133</v>
       </c>
       <c r="P142" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q142">
         <v>2.25</v>
@@ -31091,7 +31094,7 @@
         <v>89</v>
       </c>
       <c r="P145" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q145">
         <v>4.33</v>
@@ -31169,7 +31172,7 @@
         <v>1.39</v>
       </c>
       <c r="AP145">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="AQ145">
         <v>1.49</v>
@@ -31581,7 +31584,7 @@
         <v>2.13</v>
       </c>
       <c r="AP147">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="AQ147">
         <v>1.62</v>
@@ -31787,7 +31790,7 @@
         <v>0.92</v>
       </c>
       <c r="AP148">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="AQ148">
         <v>1.05</v>
@@ -32327,7 +32330,7 @@
         <v>173</v>
       </c>
       <c r="P151" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q151">
         <v>2.1</v>
@@ -32614,7 +32617,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ152">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="AR152">
         <v>1.52</v>
@@ -32739,7 +32742,7 @@
         <v>174</v>
       </c>
       <c r="P153" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q153">
         <v>3.75</v>
@@ -32820,7 +32823,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ153">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="AR153">
         <v>1.41</v>
@@ -33151,7 +33154,7 @@
         <v>113</v>
       </c>
       <c r="P155" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q155">
         <v>2.6</v>
@@ -33232,7 +33235,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ155">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="AR155">
         <v>1.36</v>
@@ -33357,7 +33360,7 @@
         <v>176</v>
       </c>
       <c r="P156" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q156">
         <v>6.5</v>
@@ -33847,7 +33850,7 @@
         <v>1.52</v>
       </c>
       <c r="AP158">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="AQ158">
         <v>1.49</v>
@@ -34053,7 +34056,7 @@
         <v>2.04</v>
       </c>
       <c r="AP159">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="AQ159">
         <v>1.62</v>
@@ -34465,7 +34468,7 @@
         <v>0.92</v>
       </c>
       <c r="AP161">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="AQ161">
         <v>1.02</v>
@@ -34799,7 +34802,7 @@
         <v>181</v>
       </c>
       <c r="P163" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q163">
         <v>3.5</v>
@@ -34880,7 +34883,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ163">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="AR163">
         <v>1.34</v>
@@ -35417,7 +35420,7 @@
         <v>182</v>
       </c>
       <c r="P166" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q166">
         <v>3.25</v>
@@ -35498,7 +35501,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ166">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="AR166">
         <v>1.48</v>
@@ -35704,7 +35707,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ167">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="AR167">
         <v>1.7</v>
@@ -36035,7 +36038,7 @@
         <v>184</v>
       </c>
       <c r="P169" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q169">
         <v>3.4</v>
@@ -36241,7 +36244,7 @@
         <v>185</v>
       </c>
       <c r="P170" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q170">
         <v>2.75</v>
@@ -36525,7 +36528,7 @@
         <v>0.89</v>
       </c>
       <c r="AP171">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="AQ171">
         <v>1.02</v>
@@ -36653,7 +36656,7 @@
         <v>89</v>
       </c>
       <c r="P172" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q172">
         <v>6.5</v>
@@ -36731,7 +36734,7 @@
         <v>2.07</v>
       </c>
       <c r="AP172">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="AQ172">
         <v>1.76</v>
@@ -36937,7 +36940,7 @@
         <v>0.96</v>
       </c>
       <c r="AP173">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="AQ173">
         <v>1.33</v>
@@ -37271,7 +37274,7 @@
         <v>189</v>
       </c>
       <c r="P175" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q175">
         <v>3.4</v>
@@ -37764,7 +37767,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ177">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="AR177">
         <v>1.47</v>
@@ -38095,7 +38098,7 @@
         <v>192</v>
       </c>
       <c r="P179" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q179">
         <v>3.1</v>
@@ -38379,10 +38382,10 @@
         <v>1.76</v>
       </c>
       <c r="AP180">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="AQ180">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="AR180">
         <v>1.19</v>
@@ -38507,7 +38510,7 @@
         <v>89</v>
       </c>
       <c r="P181" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q181">
         <v>2.1</v>
@@ -38791,7 +38794,7 @@
         <v>2.14</v>
       </c>
       <c r="AP182">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="AQ182">
         <v>1.76</v>
@@ -38919,7 +38922,7 @@
         <v>194</v>
       </c>
       <c r="P183" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q183">
         <v>2.6</v>
@@ -38997,7 +39000,7 @@
         <v>1.48</v>
       </c>
       <c r="AP183">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="AQ183">
         <v>1.49</v>
@@ -39206,7 +39209,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ184">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="AR184">
         <v>1.39</v>
@@ -39949,7 +39952,7 @@
         <v>197</v>
       </c>
       <c r="P188" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q188">
         <v>2.25</v>
@@ -40155,7 +40158,7 @@
         <v>198</v>
       </c>
       <c r="P189" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q189">
         <v>3.25</v>
@@ -40442,7 +40445,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ190">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="AR190">
         <v>1.38</v>
@@ -40567,7 +40570,7 @@
         <v>89</v>
       </c>
       <c r="P191" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q191">
         <v>3.4</v>
@@ -40773,7 +40776,7 @@
         <v>119</v>
       </c>
       <c r="P192" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q192">
         <v>4.5</v>
@@ -40851,10 +40854,10 @@
         <v>1.39</v>
       </c>
       <c r="AP192">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="AQ192">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="AR192">
         <v>1.18</v>
@@ -40979,7 +40982,7 @@
         <v>200</v>
       </c>
       <c r="P193" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q193">
         <v>3.75</v>
@@ -41185,7 +41188,7 @@
         <v>201</v>
       </c>
       <c r="P194" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q194">
         <v>2.63</v>
@@ -41263,7 +41266,7 @@
         <v>1.38</v>
       </c>
       <c r="AP194">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="AQ194">
         <v>1.38</v>
@@ -41391,7 +41394,7 @@
         <v>202</v>
       </c>
       <c r="P195" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q195">
         <v>3</v>
@@ -41472,7 +41475,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ195">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="AR195">
         <v>1.24</v>
@@ -41675,7 +41678,7 @@
         <v>1.25</v>
       </c>
       <c r="AP196">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="AQ196">
         <v>1.26</v>
@@ -42009,7 +42012,7 @@
         <v>89</v>
       </c>
       <c r="P198" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q198">
         <v>2.63</v>
@@ -42215,7 +42218,7 @@
         <v>89</v>
       </c>
       <c r="P199" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q199">
         <v>3.25</v>
@@ -42421,7 +42424,7 @@
         <v>89</v>
       </c>
       <c r="P200" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q200">
         <v>6</v>
@@ -42708,7 +42711,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ201">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="AR201">
         <v>1.54</v>
@@ -42911,10 +42914,10 @@
         <v>1.82</v>
       </c>
       <c r="AP202">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="AQ202">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="AR202">
         <v>1.32</v>
@@ -43039,7 +43042,7 @@
         <v>148</v>
       </c>
       <c r="P203" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q203">
         <v>2.75</v>
@@ -43245,7 +43248,7 @@
         <v>204</v>
       </c>
       <c r="P204" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q204">
         <v>2.63</v>
@@ -43451,7 +43454,7 @@
         <v>89</v>
       </c>
       <c r="P205" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q205">
         <v>4</v>
@@ -43529,7 +43532,7 @@
         <v>1.09</v>
       </c>
       <c r="AP205">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="AQ205">
         <v>1.33</v>
@@ -43735,7 +43738,7 @@
         <v>0.97</v>
       </c>
       <c r="AP206">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="AQ206">
         <v>1.05</v>
@@ -43941,7 +43944,7 @@
         <v>1.06</v>
       </c>
       <c r="AP207">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="AQ207">
         <v>1.02</v>
@@ -44069,7 +44072,7 @@
         <v>205</v>
       </c>
       <c r="P208" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q208">
         <v>3.6</v>
@@ -44275,7 +44278,7 @@
         <v>206</v>
       </c>
       <c r="P209" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q209">
         <v>3.4</v>
@@ -44481,7 +44484,7 @@
         <v>89</v>
       </c>
       <c r="P210" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q210">
         <v>2.1</v>
@@ -44687,7 +44690,7 @@
         <v>187</v>
       </c>
       <c r="P211" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q211">
         <v>3.2</v>
@@ -44893,7 +44896,7 @@
         <v>207</v>
       </c>
       <c r="P212" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q212">
         <v>5</v>
@@ -44974,7 +44977,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ212">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="AR212">
         <v>1.29</v>
@@ -45305,7 +45308,7 @@
         <v>89</v>
       </c>
       <c r="P214" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q214">
         <v>2.75</v>
@@ -45386,7 +45389,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ214">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="AR214">
         <v>1.54</v>
@@ -45592,7 +45595,7 @@
         <v>1.49</v>
       </c>
       <c r="AQ215">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="AR215">
         <v>1.2</v>
@@ -45923,7 +45926,7 @@
         <v>89</v>
       </c>
       <c r="P217" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q217">
         <v>3.2</v>
@@ -46001,7 +46004,7 @@
         <v>1.36</v>
       </c>
       <c r="AP217">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="AQ217">
         <v>1.38</v>
@@ -46129,7 +46132,7 @@
         <v>211</v>
       </c>
       <c r="P218" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q218">
         <v>3.4</v>
@@ -46207,7 +46210,7 @@
         <v>1.19</v>
       </c>
       <c r="AP218">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="AQ218">
         <v>1.33</v>
@@ -46413,7 +46416,7 @@
         <v>0.97</v>
       </c>
       <c r="AP219">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="AQ219">
         <v>1.05</v>
@@ -46541,7 +46544,7 @@
         <v>200</v>
       </c>
       <c r="P220" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q220">
         <v>4.5</v>
@@ -46747,7 +46750,7 @@
         <v>213</v>
       </c>
       <c r="P221" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q221">
         <v>1.95</v>
@@ -47446,7 +47449,7 @@
         <v>1.02</v>
       </c>
       <c r="AQ224">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="AR224">
         <v>1.41</v>
@@ -47858,7 +47861,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ226">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="AR226">
         <v>1.55</v>
@@ -47983,7 +47986,7 @@
         <v>210</v>
       </c>
       <c r="P227" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q227">
         <v>3.5</v>
@@ -48064,7 +48067,7 @@
         <v>1.49</v>
       </c>
       <c r="AQ227">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="AR227">
         <v>1.22</v>
@@ -48189,7 +48192,7 @@
         <v>215</v>
       </c>
       <c r="P228" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q228">
         <v>3.6</v>
@@ -48601,7 +48604,7 @@
         <v>216</v>
       </c>
       <c r="P230" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q230">
         <v>3.1</v>
@@ -48807,7 +48810,7 @@
         <v>89</v>
       </c>
       <c r="P231" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q231">
         <v>3.75</v>
@@ -48885,7 +48888,7 @@
         <v>0.95</v>
       </c>
       <c r="AP231">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="AQ231">
         <v>1.05</v>
@@ -49297,7 +49300,7 @@
         <v>1.95</v>
       </c>
       <c r="AP233">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="AQ233">
         <v>1.76</v>
@@ -49425,7 +49428,7 @@
         <v>218</v>
       </c>
       <c r="P234" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q234">
         <v>2.5</v>
@@ -49503,7 +49506,7 @@
         <v>1.39</v>
       </c>
       <c r="AP234">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="AQ234">
         <v>1.38</v>
@@ -49712,7 +49715,7 @@
         <v>1.02</v>
       </c>
       <c r="AQ235">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="AR235">
         <v>1.42</v>
@@ -50330,7 +50333,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ238">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="AR238">
         <v>1.43</v>
@@ -50455,7 +50458,7 @@
         <v>221</v>
       </c>
       <c r="P239" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q239">
         <v>4</v>
@@ -50742,7 +50745,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ240">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="AR240">
         <v>1.58</v>
@@ -51073,7 +51076,7 @@
         <v>223</v>
       </c>
       <c r="P242" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q242">
         <v>1.95</v>
@@ -51151,10 +51154,10 @@
         <v>0.9</v>
       </c>
       <c r="AP242">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="AQ242">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="AR242">
         <v>1.49</v>
@@ -51279,7 +51282,7 @@
         <v>224</v>
       </c>
       <c r="P243" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q243">
         <v>2.75</v>
@@ -51485,7 +51488,7 @@
         <v>225</v>
       </c>
       <c r="P244" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q244">
         <v>4.33</v>
@@ -51769,7 +51772,7 @@
         <v>1.05</v>
       </c>
       <c r="AP245">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="AQ245">
         <v>1.05</v>
@@ -51897,7 +51900,7 @@
         <v>89</v>
       </c>
       <c r="P246" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q246">
         <v>3.4</v>
@@ -52103,7 +52106,7 @@
         <v>226</v>
       </c>
       <c r="P247" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q247">
         <v>3</v>
@@ -52309,7 +52312,7 @@
         <v>89</v>
       </c>
       <c r="P248" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q248">
         <v>3.75</v>
@@ -52515,7 +52518,7 @@
         <v>129</v>
       </c>
       <c r="P249" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q249">
         <v>2.1</v>
@@ -52596,7 +52599,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ249">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="AR249">
         <v>1.56</v>
@@ -52799,7 +52802,7 @@
         <v>1.29</v>
       </c>
       <c r="AP250">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="AQ250">
         <v>1.26</v>
@@ -53008,7 +53011,7 @@
         <v>1.49</v>
       </c>
       <c r="AQ251">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="AR251">
         <v>1.23</v>
@@ -53339,7 +53342,7 @@
         <v>229</v>
       </c>
       <c r="P253" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q253">
         <v>4.5</v>
@@ -53496,6 +53499,418 @@
       </c>
       <c r="BP253">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="254" spans="1:68">
+      <c r="A254" s="1">
+        <v>253</v>
+      </c>
+      <c r="B254">
+        <v>7487364</v>
+      </c>
+      <c r="C254" t="s">
+        <v>68</v>
+      </c>
+      <c r="D254" t="s">
+        <v>69</v>
+      </c>
+      <c r="E254" s="2">
+        <v>45620.75</v>
+      </c>
+      <c r="F254">
+        <v>21</v>
+      </c>
+      <c r="G254" t="s">
+        <v>71</v>
+      </c>
+      <c r="H254" t="s">
+        <v>76</v>
+      </c>
+      <c r="I254">
+        <v>0</v>
+      </c>
+      <c r="J254">
+        <v>1</v>
+      </c>
+      <c r="K254">
+        <v>1</v>
+      </c>
+      <c r="L254">
+        <v>1</v>
+      </c>
+      <c r="M254">
+        <v>1</v>
+      </c>
+      <c r="N254">
+        <v>2</v>
+      </c>
+      <c r="O254" t="s">
+        <v>160</v>
+      </c>
+      <c r="P254" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q254">
+        <v>2.4</v>
+      </c>
+      <c r="R254">
+        <v>2.05</v>
+      </c>
+      <c r="S254">
+        <v>6</v>
+      </c>
+      <c r="T254">
+        <v>1.55</v>
+      </c>
+      <c r="U254">
+        <v>2.32</v>
+      </c>
+      <c r="V254">
+        <v>3.55</v>
+      </c>
+      <c r="W254">
+        <v>1.25</v>
+      </c>
+      <c r="X254">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y254">
+        <v>1.05</v>
+      </c>
+      <c r="Z254">
+        <v>1.67</v>
+      </c>
+      <c r="AA254">
+        <v>3.5</v>
+      </c>
+      <c r="AB254">
+        <v>4.75</v>
+      </c>
+      <c r="AC254">
+        <v>1.08</v>
+      </c>
+      <c r="AD254">
+        <v>7</v>
+      </c>
+      <c r="AE254">
+        <v>1.47</v>
+      </c>
+      <c r="AF254">
+        <v>2.55</v>
+      </c>
+      <c r="AG254">
+        <v>2.35</v>
+      </c>
+      <c r="AH254">
+        <v>1.57</v>
+      </c>
+      <c r="AI254">
+        <v>2.25</v>
+      </c>
+      <c r="AJ254">
+        <v>1.57</v>
+      </c>
+      <c r="AK254">
+        <v>1.2</v>
+      </c>
+      <c r="AL254">
+        <v>1.27</v>
+      </c>
+      <c r="AM254">
+        <v>1.67</v>
+      </c>
+      <c r="AN254">
+        <v>1.81</v>
+      </c>
+      <c r="AO254">
+        <v>1.26</v>
+      </c>
+      <c r="AP254">
+        <v>1.79</v>
+      </c>
+      <c r="AQ254">
+        <v>1.26</v>
+      </c>
+      <c r="AR254">
+        <v>1.47</v>
+      </c>
+      <c r="AS254">
+        <v>1.42</v>
+      </c>
+      <c r="AT254">
+        <v>2.89</v>
+      </c>
+      <c r="AU254">
+        <v>5</v>
+      </c>
+      <c r="AV254">
+        <v>3</v>
+      </c>
+      <c r="AW254">
+        <v>11</v>
+      </c>
+      <c r="AX254">
+        <v>10</v>
+      </c>
+      <c r="AY254">
+        <v>16</v>
+      </c>
+      <c r="AZ254">
+        <v>13</v>
+      </c>
+      <c r="BA254">
+        <v>9</v>
+      </c>
+      <c r="BB254">
+        <v>5</v>
+      </c>
+      <c r="BC254">
+        <v>14</v>
+      </c>
+      <c r="BD254">
+        <v>1.59</v>
+      </c>
+      <c r="BE254">
+        <v>6.5</v>
+      </c>
+      <c r="BF254">
+        <v>2.98</v>
+      </c>
+      <c r="BG254">
+        <v>1.28</v>
+      </c>
+      <c r="BH254">
+        <v>2.94</v>
+      </c>
+      <c r="BI254">
+        <v>1.61</v>
+      </c>
+      <c r="BJ254">
+        <v>2.27</v>
+      </c>
+      <c r="BK254">
+        <v>2</v>
+      </c>
+      <c r="BL254">
+        <v>1.79</v>
+      </c>
+      <c r="BM254">
+        <v>2.56</v>
+      </c>
+      <c r="BN254">
+        <v>1.48</v>
+      </c>
+      <c r="BO254">
+        <v>3.54</v>
+      </c>
+      <c r="BP254">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:68">
+      <c r="A255" s="1">
+        <v>254</v>
+      </c>
+      <c r="B255">
+        <v>7487365</v>
+      </c>
+      <c r="C255" t="s">
+        <v>68</v>
+      </c>
+      <c r="D255" t="s">
+        <v>69</v>
+      </c>
+      <c r="E255" s="2">
+        <v>45620.85416666666</v>
+      </c>
+      <c r="F255">
+        <v>21</v>
+      </c>
+      <c r="G255" t="s">
+        <v>75</v>
+      </c>
+      <c r="H255" t="s">
+        <v>77</v>
+      </c>
+      <c r="I255">
+        <v>1</v>
+      </c>
+      <c r="J255">
+        <v>1</v>
+      </c>
+      <c r="K255">
+        <v>2</v>
+      </c>
+      <c r="L255">
+        <v>2</v>
+      </c>
+      <c r="M255">
+        <v>1</v>
+      </c>
+      <c r="N255">
+        <v>3</v>
+      </c>
+      <c r="O255" t="s">
+        <v>230</v>
+      </c>
+      <c r="P255" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q255">
+        <v>2</v>
+      </c>
+      <c r="R255">
+        <v>2.25</v>
+      </c>
+      <c r="S255">
+        <v>7</v>
+      </c>
+      <c r="T255">
+        <v>1.44</v>
+      </c>
+      <c r="U255">
+        <v>2.6</v>
+      </c>
+      <c r="V255">
+        <v>3</v>
+      </c>
+      <c r="W255">
+        <v>1.33</v>
+      </c>
+      <c r="X255">
+        <v>8.6</v>
+      </c>
+      <c r="Y255">
+        <v>1.05</v>
+      </c>
+      <c r="Z255">
+        <v>1.42</v>
+      </c>
+      <c r="AA255">
+        <v>4.1</v>
+      </c>
+      <c r="AB255">
+        <v>6.5</v>
+      </c>
+      <c r="AC255">
+        <v>1.05</v>
+      </c>
+      <c r="AD255">
+        <v>8.5</v>
+      </c>
+      <c r="AE255">
+        <v>1.35</v>
+      </c>
+      <c r="AF255">
+        <v>3.05</v>
+      </c>
+      <c r="AG255">
+        <v>1.95</v>
+      </c>
+      <c r="AH255">
+        <v>1.85</v>
+      </c>
+      <c r="AI255">
+        <v>2.2</v>
+      </c>
+      <c r="AJ255">
+        <v>1.62</v>
+      </c>
+      <c r="AK255">
+        <v>1.13</v>
+      </c>
+      <c r="AL255">
+        <v>1.2</v>
+      </c>
+      <c r="AM255">
+        <v>2</v>
+      </c>
+      <c r="AN255">
+        <v>1.48</v>
+      </c>
+      <c r="AO255">
+        <v>0.93</v>
+      </c>
+      <c r="AP255">
+        <v>1.51</v>
+      </c>
+      <c r="AQ255">
+        <v>0.91</v>
+      </c>
+      <c r="AR255">
+        <v>1.29</v>
+      </c>
+      <c r="AS255">
+        <v>1.18</v>
+      </c>
+      <c r="AT255">
+        <v>2.47</v>
+      </c>
+      <c r="AU255">
+        <v>3</v>
+      </c>
+      <c r="AV255">
+        <v>4</v>
+      </c>
+      <c r="AW255">
+        <v>3</v>
+      </c>
+      <c r="AX255">
+        <v>1</v>
+      </c>
+      <c r="AY255">
+        <v>6</v>
+      </c>
+      <c r="AZ255">
+        <v>5</v>
+      </c>
+      <c r="BA255">
+        <v>5</v>
+      </c>
+      <c r="BB255">
+        <v>3</v>
+      </c>
+      <c r="BC255">
+        <v>8</v>
+      </c>
+      <c r="BD255">
+        <v>1.26</v>
+      </c>
+      <c r="BE255">
+        <v>7.9</v>
+      </c>
+      <c r="BF255">
+        <v>5.05</v>
+      </c>
+      <c r="BG255">
+        <v>1.2</v>
+      </c>
+      <c r="BH255">
+        <v>3.54</v>
+      </c>
+      <c r="BI255">
+        <v>1.46</v>
+      </c>
+      <c r="BJ255">
+        <v>2.6</v>
+      </c>
+      <c r="BK255">
+        <v>2.2</v>
+      </c>
+      <c r="BL255">
+        <v>1.99</v>
+      </c>
+      <c r="BM255">
+        <v>2.24</v>
+      </c>
+      <c r="BN255">
+        <v>1.61</v>
+      </c>
+      <c r="BO255">
+        <v>2.92</v>
+      </c>
+      <c r="BP255">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -697,10 +697,10 @@
     <t>['47', '63']</t>
   </si>
   <si>
-    <t>['61']</t>
+    <t>['33', '58', '90+6']</t>
   </si>
   <si>
-    <t>['33', '58', '90+6']</t>
+    <t>['61']</t>
   </si>
   <si>
     <t>['46', '69', '76']</t>
@@ -52691,7 +52691,7 @@
         <v>249</v>
       </c>
       <c r="B250">
-        <v>7487363</v>
+        <v>7487358</v>
       </c>
       <c r="C250" t="s">
         <v>68</v>
@@ -52706,10 +52706,10 @@
         <v>20</v>
       </c>
       <c r="G250" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H250" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I250">
         <v>0</v>
@@ -52721,175 +52721,175 @@
         <v>0</v>
       </c>
       <c r="L250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M250">
         <v>0</v>
       </c>
       <c r="N250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O250" t="s">
-        <v>227</v>
+        <v>89</v>
       </c>
       <c r="P250" t="s">
         <v>89</v>
       </c>
       <c r="Q250">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="R250">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="S250">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="T250">
-        <v>1.41</v>
+        <v>1.53</v>
       </c>
       <c r="U250">
-        <v>2.79</v>
+        <v>2.44</v>
       </c>
       <c r="V250">
-        <v>3.11</v>
+        <v>3.4</v>
       </c>
       <c r="W250">
+        <v>1.27</v>
+      </c>
+      <c r="X250">
+        <v>9.6</v>
+      </c>
+      <c r="Y250">
+        <v>1.02</v>
+      </c>
+      <c r="Z250">
+        <v>3.3</v>
+      </c>
+      <c r="AA250">
+        <v>3</v>
+      </c>
+      <c r="AB250">
+        <v>2.38</v>
+      </c>
+      <c r="AC250">
+        <v>1.1</v>
+      </c>
+      <c r="AD250">
+        <v>6.25</v>
+      </c>
+      <c r="AE250">
+        <v>1.48</v>
+      </c>
+      <c r="AF250">
+        <v>2.37</v>
+      </c>
+      <c r="AG250">
+        <v>2.5</v>
+      </c>
+      <c r="AH250">
+        <v>1.5</v>
+      </c>
+      <c r="AI250">
+        <v>2.1</v>
+      </c>
+      <c r="AJ250">
+        <v>1.67</v>
+      </c>
+      <c r="AK250">
+        <v>1.51</v>
+      </c>
+      <c r="AL250">
         <v>1.34</v>
       </c>
-      <c r="X250">
-        <v>10</v>
-      </c>
-      <c r="Y250">
-        <v>1.06</v>
-      </c>
-      <c r="Z250">
-        <v>4.1</v>
-      </c>
-      <c r="AA250">
-        <v>3.4</v>
-      </c>
-      <c r="AB250">
-        <v>1.9</v>
-      </c>
-      <c r="AC250">
-        <v>1.06</v>
-      </c>
-      <c r="AD250">
-        <v>8</v>
-      </c>
-      <c r="AE250">
-        <v>1.36</v>
-      </c>
-      <c r="AF250">
-        <v>3</v>
-      </c>
-      <c r="AG250">
-        <v>2.1</v>
-      </c>
-      <c r="AH250">
-        <v>1.7</v>
-      </c>
-      <c r="AI250">
-        <v>1.91</v>
-      </c>
-      <c r="AJ250">
-        <v>1.8</v>
-      </c>
-      <c r="AK250">
-        <v>1.77</v>
-      </c>
-      <c r="AL250">
-        <v>1.27</v>
-      </c>
       <c r="AM250">
-        <v>1.24</v>
+        <v>1.34</v>
       </c>
       <c r="AN250">
-        <v>0.88</v>
+        <v>1.5</v>
       </c>
       <c r="AO250">
-        <v>1.29</v>
+        <v>1.83</v>
       </c>
       <c r="AP250">
-        <v>0.91</v>
+        <v>1.45</v>
       </c>
       <c r="AQ250">
-        <v>1.26</v>
+        <v>1.79</v>
       </c>
       <c r="AR250">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="AS250">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="AT250">
-        <v>2.59</v>
+        <v>2.72</v>
       </c>
       <c r="AU250">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AV250">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AW250">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AX250">
         <v>8</v>
       </c>
       <c r="AY250">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ250">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BA250">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BB250">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC250">
         <v>6</v>
       </c>
       <c r="BD250">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="BE250">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="BF250">
-        <v>1.62</v>
+        <v>2.12</v>
       </c>
       <c r="BG250">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="BH250">
-        <v>2.98</v>
+        <v>3.15</v>
       </c>
       <c r="BI250">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="BJ250">
-        <v>2.19</v>
+        <v>2.29</v>
       </c>
       <c r="BK250">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="BL250">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="BM250">
-        <v>2.6</v>
+        <v>2.47</v>
       </c>
       <c r="BN250">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="BO250">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="BP250">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="251" spans="1:68">
@@ -52897,7 +52897,7 @@
         <v>250</v>
       </c>
       <c r="B251">
-        <v>7487358</v>
+        <v>7487360</v>
       </c>
       <c r="C251" t="s">
         <v>68</v>
@@ -52912,190 +52912,190 @@
         <v>20</v>
       </c>
       <c r="G251" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H251" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="I251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K251">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L251">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N251">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O251" t="s">
-        <v>89</v>
+        <v>227</v>
       </c>
       <c r="P251" t="s">
-        <v>89</v>
+        <v>222</v>
       </c>
       <c r="Q251">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="R251">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S251">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="T251">
+        <v>1.45</v>
+      </c>
+      <c r="U251">
+        <v>2.64</v>
+      </c>
+      <c r="V251">
+        <v>3.32</v>
+      </c>
+      <c r="W251">
+        <v>1.31</v>
+      </c>
+      <c r="X251">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y251">
+        <v>1.04</v>
+      </c>
+      <c r="Z251">
+        <v>3.4</v>
+      </c>
+      <c r="AA251">
+        <v>3.5</v>
+      </c>
+      <c r="AB251">
+        <v>2.05</v>
+      </c>
+      <c r="AC251">
+        <v>1.08</v>
+      </c>
+      <c r="AD251">
+        <v>7</v>
+      </c>
+      <c r="AE251">
+        <v>1.42</v>
+      </c>
+      <c r="AF251">
+        <v>2.75</v>
+      </c>
+      <c r="AG251">
+        <v>2.25</v>
+      </c>
+      <c r="AH251">
+        <v>1.62</v>
+      </c>
+      <c r="AI251">
+        <v>2</v>
+      </c>
+      <c r="AJ251">
+        <v>1.73</v>
+      </c>
+      <c r="AK251">
+        <v>1.92</v>
+      </c>
+      <c r="AL251">
+        <v>1.29</v>
+      </c>
+      <c r="AM251">
+        <v>1.16</v>
+      </c>
+      <c r="AN251">
+        <v>0.98</v>
+      </c>
+      <c r="AO251">
+        <v>1.66</v>
+      </c>
+      <c r="AP251">
+        <v>1.07</v>
+      </c>
+      <c r="AQ251">
+        <v>1.65</v>
+      </c>
+      <c r="AR251">
+        <v>1.43</v>
+      </c>
+      <c r="AS251">
         <v>1.53</v>
       </c>
-      <c r="U251">
-        <v>2.44</v>
-      </c>
-      <c r="V251">
-        <v>3.4</v>
-      </c>
-      <c r="W251">
-        <v>1.27</v>
-      </c>
-      <c r="X251">
-        <v>9.6</v>
-      </c>
-      <c r="Y251">
-        <v>1.02</v>
-      </c>
-      <c r="Z251">
-        <v>3.3</v>
-      </c>
-      <c r="AA251">
-        <v>3</v>
-      </c>
-      <c r="AB251">
-        <v>2.38</v>
-      </c>
-      <c r="AC251">
-        <v>1.1</v>
-      </c>
-      <c r="AD251">
-        <v>6.25</v>
-      </c>
-      <c r="AE251">
-        <v>1.48</v>
-      </c>
-      <c r="AF251">
-        <v>2.37</v>
-      </c>
-      <c r="AG251">
-        <v>2.5</v>
-      </c>
-      <c r="AH251">
-        <v>1.5</v>
-      </c>
-      <c r="AI251">
-        <v>2.1</v>
-      </c>
-      <c r="AJ251">
-        <v>1.67</v>
-      </c>
-      <c r="AK251">
-        <v>1.51</v>
-      </c>
-      <c r="AL251">
-        <v>1.34</v>
-      </c>
-      <c r="AM251">
-        <v>1.34</v>
-      </c>
-      <c r="AN251">
-        <v>1.5</v>
-      </c>
-      <c r="AO251">
-        <v>1.83</v>
-      </c>
-      <c r="AP251">
-        <v>1.45</v>
-      </c>
-      <c r="AQ251">
-        <v>1.79</v>
-      </c>
-      <c r="AR251">
-        <v>1.23</v>
-      </c>
-      <c r="AS251">
-        <v>1.49</v>
-      </c>
       <c r="AT251">
-        <v>2.72</v>
+        <v>2.96</v>
       </c>
       <c r="AU251">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV251">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AW251">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AX251">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AY251">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ251">
         <v>8</v>
       </c>
       <c r="BA251">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BB251">
         <v>2</v>
       </c>
       <c r="BC251">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BD251">
+        <v>2.4</v>
+      </c>
+      <c r="BE251">
+        <v>7.4</v>
+      </c>
+      <c r="BF251">
+        <v>1.83</v>
+      </c>
+      <c r="BG251">
+        <v>1.43</v>
+      </c>
+      <c r="BH251">
+        <v>2.6</v>
+      </c>
+      <c r="BI251">
+        <v>1.7</v>
+      </c>
+      <c r="BJ251">
         <v>2.05</v>
       </c>
-      <c r="BE251">
-        <v>7.2</v>
-      </c>
-      <c r="BF251">
-        <v>2.12</v>
-      </c>
-      <c r="BG251">
-        <v>1.31</v>
-      </c>
-      <c r="BH251">
-        <v>3.15</v>
-      </c>
-      <c r="BI251">
-        <v>1.55</v>
-      </c>
-      <c r="BJ251">
-        <v>2.29</v>
-      </c>
       <c r="BK251">
-        <v>1.91</v>
+        <v>2.24</v>
       </c>
       <c r="BL251">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="BM251">
-        <v>2.47</v>
+        <v>2.98</v>
       </c>
       <c r="BN251">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
       <c r="BO251">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="BP251">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="252" spans="1:68">
@@ -53103,7 +53103,7 @@
         <v>251</v>
       </c>
       <c r="B252">
-        <v>7487360</v>
+        <v>7487363</v>
       </c>
       <c r="C252" t="s">
         <v>68</v>
@@ -53118,124 +53118,124 @@
         <v>20</v>
       </c>
       <c r="G252" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H252" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K252">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L252">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N252">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O252" t="s">
         <v>228</v>
       </c>
       <c r="P252" t="s">
-        <v>222</v>
+        <v>89</v>
       </c>
       <c r="Q252">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="R252">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S252">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="T252">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="U252">
-        <v>2.64</v>
+        <v>2.79</v>
       </c>
       <c r="V252">
-        <v>3.32</v>
+        <v>3.11</v>
       </c>
       <c r="W252">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="X252">
-        <v>8.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="Y252">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="Z252">
+        <v>4.1</v>
+      </c>
+      <c r="AA252">
         <v>3.4</v>
       </c>
-      <c r="AA252">
-        <v>3.5</v>
-      </c>
       <c r="AB252">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="AC252">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AD252">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE252">
+        <v>1.36</v>
+      </c>
+      <c r="AF252">
+        <v>3</v>
+      </c>
+      <c r="AG252">
+        <v>2.1</v>
+      </c>
+      <c r="AH252">
+        <v>1.7</v>
+      </c>
+      <c r="AI252">
+        <v>1.91</v>
+      </c>
+      <c r="AJ252">
+        <v>1.8</v>
+      </c>
+      <c r="AK252">
+        <v>1.77</v>
+      </c>
+      <c r="AL252">
+        <v>1.27</v>
+      </c>
+      <c r="AM252">
+        <v>1.24</v>
+      </c>
+      <c r="AN252">
+        <v>0.88</v>
+      </c>
+      <c r="AO252">
+        <v>1.29</v>
+      </c>
+      <c r="AP252">
+        <v>0.91</v>
+      </c>
+      <c r="AQ252">
+        <v>1.26</v>
+      </c>
+      <c r="AR252">
+        <v>1.17</v>
+      </c>
+      <c r="AS252">
         <v>1.42</v>
       </c>
-      <c r="AF252">
-        <v>2.75</v>
-      </c>
-      <c r="AG252">
-        <v>2.25</v>
-      </c>
-      <c r="AH252">
-        <v>1.62</v>
-      </c>
-      <c r="AI252">
-        <v>2</v>
-      </c>
-      <c r="AJ252">
-        <v>1.73</v>
-      </c>
-      <c r="AK252">
-        <v>1.92</v>
-      </c>
-      <c r="AL252">
-        <v>1.29</v>
-      </c>
-      <c r="AM252">
-        <v>1.16</v>
-      </c>
-      <c r="AN252">
-        <v>0.98</v>
-      </c>
-      <c r="AO252">
-        <v>1.66</v>
-      </c>
-      <c r="AP252">
-        <v>1.07</v>
-      </c>
-      <c r="AQ252">
-        <v>1.65</v>
-      </c>
-      <c r="AR252">
-        <v>1.43</v>
-      </c>
-      <c r="AS252">
-        <v>1.53</v>
-      </c>
       <c r="AT252">
-        <v>2.96</v>
+        <v>2.59</v>
       </c>
       <c r="AU252">
         <v>6</v>
@@ -53244,64 +53244,64 @@
         <v>5</v>
       </c>
       <c r="AW252">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX252">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AY252">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ252">
+        <v>13</v>
+      </c>
+      <c r="BA252">
+        <v>1</v>
+      </c>
+      <c r="BB252">
+        <v>5</v>
+      </c>
+      <c r="BC252">
+        <v>6</v>
+      </c>
+      <c r="BD252">
+        <v>2.8</v>
+      </c>
+      <c r="BE252">
         <v>8</v>
       </c>
-      <c r="BA252">
-        <v>8</v>
-      </c>
-      <c r="BB252">
-        <v>2</v>
-      </c>
-      <c r="BC252">
-        <v>10</v>
-      </c>
-      <c r="BD252">
-        <v>2.4</v>
-      </c>
-      <c r="BE252">
-        <v>7.4</v>
-      </c>
       <c r="BF252">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="BG252">
-        <v>1.43</v>
+        <v>1.34</v>
       </c>
       <c r="BH252">
+        <v>2.98</v>
+      </c>
+      <c r="BI252">
+        <v>1.6</v>
+      </c>
+      <c r="BJ252">
+        <v>2.19</v>
+      </c>
+      <c r="BK252">
+        <v>1.95</v>
+      </c>
+      <c r="BL252">
+        <v>1.77</v>
+      </c>
+      <c r="BM252">
         <v>2.6</v>
       </c>
-      <c r="BI252">
-        <v>1.7</v>
-      </c>
-      <c r="BJ252">
-        <v>2.05</v>
-      </c>
-      <c r="BK252">
-        <v>2.24</v>
-      </c>
-      <c r="BL252">
-        <v>1.57</v>
-      </c>
-      <c r="BM252">
-        <v>2.98</v>
-      </c>
       <c r="BN252">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="BO252">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="BP252">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="253" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="339">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -715,6 +715,9 @@
     <t>['67', '76']</t>
   </si>
   <si>
+    <t>['37', '58']</t>
+  </si>
+  <si>
     <t>['44', '85']</t>
   </si>
   <si>
@@ -1025,6 +1028,9 @@
   </si>
   <si>
     <t>['67', '90']</t>
+  </si>
+  <si>
+    <t>['8', '90+1', '90+6']</t>
   </si>
 </sst>
 </file>
@@ -1386,7 +1392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP258"/>
+  <dimension ref="A1:BP261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1929,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="AQ3">
         <v>1.02</v>
@@ -2135,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AQ4">
         <v>1.45</v>
@@ -2547,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ6">
         <v>1.05</v>
@@ -2756,7 +2762,7 @@
         <v>1.51</v>
       </c>
       <c r="AQ7">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2881,7 +2887,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -3168,7 +3174,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ9">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="AR9">
         <v>1.58</v>
@@ -3293,7 +3299,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3499,7 +3505,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3577,10 +3583,10 @@
         <v>3</v>
       </c>
       <c r="AP11">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="AQ11">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AR11">
         <v>1.49</v>
@@ -3911,7 +3917,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3992,7 +3998,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ13">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR13">
         <v>1.34</v>
@@ -4195,7 +4201,7 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AQ14">
         <v>1.02</v>
@@ -4323,7 +4329,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -4401,7 +4407,7 @@
         <v>0.5</v>
       </c>
       <c r="AP15">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="AQ15">
         <v>1.26</v>
@@ -4941,7 +4947,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -5022,7 +5028,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ18">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="AR18">
         <v>1.26</v>
@@ -5147,7 +5153,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5353,7 +5359,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5559,7 +5565,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5640,7 +5646,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ21">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AR21">
         <v>1.64</v>
@@ -5765,7 +5771,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -5846,7 +5852,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ22">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR22">
         <v>1.54</v>
@@ -6049,7 +6055,7 @@
         <v>1.5</v>
       </c>
       <c r="AP23">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="AQ23">
         <v>1.45</v>
@@ -6258,7 +6264,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ24">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="AR24">
         <v>1.25</v>
@@ -6589,7 +6595,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -7079,7 +7085,7 @@
         <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="AQ28">
         <v>1.07</v>
@@ -7285,10 +7291,10 @@
         <v>2.5</v>
       </c>
       <c r="AP29">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ29">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="AR29">
         <v>2.13</v>
@@ -7491,7 +7497,7 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AQ30">
         <v>1.26</v>
@@ -7825,7 +7831,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7906,7 +7912,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ32">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AR32">
         <v>1.21</v>
@@ -8109,10 +8115,10 @@
         <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="AQ33">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR33">
         <v>1.41</v>
@@ -8237,7 +8243,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8318,7 +8324,7 @@
         <v>1.02</v>
       </c>
       <c r="AQ34">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="AR34">
         <v>1.38</v>
@@ -8443,7 +8449,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8649,7 +8655,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8933,7 +8939,7 @@
         <v>1.33</v>
       </c>
       <c r="AP37">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AQ37">
         <v>1.07</v>
@@ -9345,7 +9351,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ39">
         <v>1.02</v>
@@ -9679,7 +9685,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9760,7 +9766,7 @@
         <v>1.51</v>
       </c>
       <c r="AQ41">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="AR41">
         <v>1.42</v>
@@ -9885,7 +9891,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -9963,7 +9969,7 @@
         <v>0.83</v>
       </c>
       <c r="AP42">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="AQ42">
         <v>0.91</v>
@@ -10172,7 +10178,7 @@
         <v>1.51</v>
       </c>
       <c r="AQ43">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR43">
         <v>1.44</v>
@@ -10297,7 +10303,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10581,10 +10587,10 @@
         <v>1.71</v>
       </c>
       <c r="AP45">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="AQ45">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AR45">
         <v>1.37</v>
@@ -10709,7 +10715,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10915,7 +10921,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -11611,7 +11617,7 @@
         <v>0.75</v>
       </c>
       <c r="AP50">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ50">
         <v>0.91</v>
@@ -11739,7 +11745,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11820,7 +11826,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ51">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="AR51">
         <v>1.31</v>
@@ -12023,7 +12029,7 @@
         <v>1.38</v>
       </c>
       <c r="AP52">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AQ52">
         <v>1.51</v>
@@ -12229,7 +12235,7 @@
         <v>1.38</v>
       </c>
       <c r="AP53">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="AQ53">
         <v>1.3</v>
@@ -12357,7 +12363,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -12435,10 +12441,10 @@
         <v>1.38</v>
       </c>
       <c r="AP54">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AQ54">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR54">
         <v>1.53</v>
@@ -12563,7 +12569,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12641,7 +12647,7 @@
         <v>1.75</v>
       </c>
       <c r="AP55">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="AQ55">
         <v>1.45</v>
@@ -12769,7 +12775,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12850,7 +12856,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ56">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="AR56">
         <v>1.32</v>
@@ -12975,7 +12981,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13181,7 +13187,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -13593,7 +13599,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13880,7 +13886,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ61">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AR61">
         <v>1.27</v>
@@ -14083,7 +14089,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP62">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ62">
         <v>1.26</v>
@@ -14289,10 +14295,10 @@
         <v>1.7</v>
       </c>
       <c r="AP63">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="AQ63">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="AR63">
         <v>1.55</v>
@@ -14829,7 +14835,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -15035,7 +15041,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -15241,7 +15247,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15322,7 +15328,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ68">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR68">
         <v>1.27</v>
@@ -15525,7 +15531,7 @@
         <v>1.27</v>
       </c>
       <c r="AP69">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="AQ69">
         <v>1.51</v>
@@ -15734,7 +15740,7 @@
         <v>1.02</v>
       </c>
       <c r="AQ70">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="AR70">
         <v>1.35</v>
@@ -15940,7 +15946,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ71">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AR71">
         <v>1.22</v>
@@ -16271,7 +16277,7 @@
         <v>101</v>
       </c>
       <c r="P73" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16555,7 +16561,7 @@
         <v>1.17</v>
       </c>
       <c r="AP74">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="AQ74">
         <v>0.91</v>
@@ -16683,7 +16689,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16889,7 +16895,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16967,10 +16973,10 @@
         <v>2.27</v>
       </c>
       <c r="AP76">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AQ76">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="AR76">
         <v>1.41</v>
@@ -17173,7 +17179,7 @@
         <v>1.33</v>
       </c>
       <c r="AP77">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ77">
         <v>1.3</v>
@@ -17301,7 +17307,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q78">
         <v>5.5</v>
@@ -17382,7 +17388,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ78">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="AR78">
         <v>1.39</v>
@@ -17507,7 +17513,7 @@
         <v>89</v>
       </c>
       <c r="P79" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q79">
         <v>3.6</v>
@@ -17588,7 +17594,7 @@
         <v>1.02</v>
       </c>
       <c r="AQ79">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AR79">
         <v>1.41</v>
@@ -17713,7 +17719,7 @@
         <v>89</v>
       </c>
       <c r="P80" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q80">
         <v>4.75</v>
@@ -17794,7 +17800,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ80">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR80">
         <v>1.31</v>
@@ -18203,7 +18209,7 @@
         <v>0.54</v>
       </c>
       <c r="AP82">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="AQ82">
         <v>1.05</v>
@@ -18331,7 +18337,7 @@
         <v>138</v>
       </c>
       <c r="P83" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q83">
         <v>3.5</v>
@@ -18537,7 +18543,7 @@
         <v>89</v>
       </c>
       <c r="P84" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18618,7 +18624,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ84">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="AR84">
         <v>1.38</v>
@@ -18949,7 +18955,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -19027,7 +19033,7 @@
         <v>1.07</v>
       </c>
       <c r="AP86">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AQ86">
         <v>0.91</v>
@@ -19442,7 +19448,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ88">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="AR88">
         <v>1.24</v>
@@ -19645,7 +19651,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ89">
         <v>1.07</v>
@@ -19851,7 +19857,7 @@
         <v>1.36</v>
       </c>
       <c r="AP90">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="AQ90">
         <v>1.3</v>
@@ -19979,7 +19985,7 @@
         <v>89</v>
       </c>
       <c r="P91" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -20266,7 +20272,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ92">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AR92">
         <v>1.3</v>
@@ -20391,7 +20397,7 @@
         <v>144</v>
       </c>
       <c r="P93" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q93">
         <v>3.4</v>
@@ -20469,10 +20475,10 @@
         <v>2.07</v>
       </c>
       <c r="AP93">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="AQ93">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR93">
         <v>1.6</v>
@@ -20803,7 +20809,7 @@
         <v>145</v>
       </c>
       <c r="P95" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -20884,7 +20890,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ95">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="AR95">
         <v>1.32</v>
@@ -21215,7 +21221,7 @@
         <v>146</v>
       </c>
       <c r="P97" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q97">
         <v>2.63</v>
@@ -21499,7 +21505,7 @@
         <v>1.06</v>
       </c>
       <c r="AP98">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="AQ98">
         <v>1.02</v>
@@ -21627,7 +21633,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q99">
         <v>3.5</v>
@@ -21911,7 +21917,7 @@
         <v>1.38</v>
       </c>
       <c r="AP100">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AQ100">
         <v>1.3</v>
@@ -22117,10 +22123,10 @@
         <v>1.75</v>
       </c>
       <c r="AP101">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ101">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="AR101">
         <v>1.8</v>
@@ -22451,7 +22457,7 @@
         <v>89</v>
       </c>
       <c r="P103" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q103">
         <v>3.1</v>
@@ -22657,7 +22663,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q104">
         <v>3.4</v>
@@ -22863,7 +22869,7 @@
         <v>150</v>
       </c>
       <c r="P105" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -22941,7 +22947,7 @@
         <v>1.47</v>
       </c>
       <c r="AP105">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="AQ105">
         <v>1.51</v>
@@ -23150,7 +23156,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ106">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="AR106">
         <v>1.21</v>
@@ -23275,7 +23281,7 @@
         <v>89</v>
       </c>
       <c r="P107" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q107">
         <v>6.5</v>
@@ -23356,7 +23362,7 @@
         <v>1.02</v>
       </c>
       <c r="AQ107">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR107">
         <v>1.51</v>
@@ -23481,7 +23487,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q108">
         <v>4.75</v>
@@ -23562,7 +23568,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ108">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AR108">
         <v>1.32</v>
@@ -23971,7 +23977,7 @@
         <v>0.89</v>
       </c>
       <c r="AP110">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="AQ110">
         <v>1.26</v>
@@ -24099,7 +24105,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q111">
         <v>3.25</v>
@@ -24305,7 +24311,7 @@
         <v>89</v>
       </c>
       <c r="P112" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24383,10 +24389,10 @@
         <v>1.78</v>
       </c>
       <c r="AP112">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AQ112">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="AR112">
         <v>1.5</v>
@@ -24589,7 +24595,7 @@
         <v>1.39</v>
       </c>
       <c r="AP113">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ113">
         <v>1.51</v>
@@ -24923,7 +24929,7 @@
         <v>148</v>
       </c>
       <c r="P115" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q115">
         <v>8</v>
@@ -25004,7 +25010,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ115">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR115">
         <v>1.2</v>
@@ -25335,7 +25341,7 @@
         <v>89</v>
       </c>
       <c r="P117" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q117">
         <v>3.25</v>
@@ -25416,7 +25422,7 @@
         <v>1.51</v>
       </c>
       <c r="AQ117">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AR117">
         <v>1.42</v>
@@ -25541,7 +25547,7 @@
         <v>89</v>
       </c>
       <c r="P118" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25622,7 +25628,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ118">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="AR118">
         <v>1.31</v>
@@ -25747,7 +25753,7 @@
         <v>158</v>
       </c>
       <c r="P119" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q119">
         <v>2.38</v>
@@ -25825,7 +25831,7 @@
         <v>0.79</v>
       </c>
       <c r="AP119">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="AQ119">
         <v>1.05</v>
@@ -26159,7 +26165,7 @@
         <v>89</v>
       </c>
       <c r="P121" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q121">
         <v>3.4</v>
@@ -26365,7 +26371,7 @@
         <v>159</v>
       </c>
       <c r="P122" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q122">
         <v>3.4</v>
@@ -26571,7 +26577,7 @@
         <v>160</v>
       </c>
       <c r="P123" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q123">
         <v>3.75</v>
@@ -26652,7 +26658,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ123">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="AR123">
         <v>1.18</v>
@@ -26777,7 +26783,7 @@
         <v>89</v>
       </c>
       <c r="P124" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q124">
         <v>1.95</v>
@@ -26855,10 +26861,10 @@
         <v>1.6</v>
       </c>
       <c r="AP124">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ124">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AR124">
         <v>1.77</v>
@@ -27061,7 +27067,7 @@
         <v>0.95</v>
       </c>
       <c r="AP125">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="AQ125">
         <v>1.07</v>
@@ -27395,7 +27401,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q127">
         <v>3</v>
@@ -27601,7 +27607,7 @@
         <v>164</v>
       </c>
       <c r="P128" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q128">
         <v>2.6</v>
@@ -27679,7 +27685,7 @@
         <v>0.86</v>
       </c>
       <c r="AP128">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AQ128">
         <v>1.05</v>
@@ -27807,7 +27813,7 @@
         <v>115</v>
       </c>
       <c r="P129" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -27885,10 +27891,10 @@
         <v>2.14</v>
       </c>
       <c r="AP129">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="AQ129">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="AR129">
         <v>1.48</v>
@@ -28013,7 +28019,7 @@
         <v>89</v>
       </c>
       <c r="P130" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q130">
         <v>5.5</v>
@@ -28094,7 +28100,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ130">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR130">
         <v>1.41</v>
@@ -28425,7 +28431,7 @@
         <v>165</v>
       </c>
       <c r="P132" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28837,7 +28843,7 @@
         <v>166</v>
       </c>
       <c r="P134" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -28918,7 +28924,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ134">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="AR134">
         <v>1.2</v>
@@ -29121,7 +29127,7 @@
         <v>1.41</v>
       </c>
       <c r="AP135">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="AQ135">
         <v>1.51</v>
@@ -29330,7 +29336,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ136">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AR136">
         <v>1.27</v>
@@ -29455,7 +29461,7 @@
         <v>89</v>
       </c>
       <c r="P137" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q137">
         <v>3.4</v>
@@ -29661,7 +29667,7 @@
         <v>167</v>
       </c>
       <c r="P138" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -30073,7 +30079,7 @@
         <v>168</v>
       </c>
       <c r="P140" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q140">
         <v>2.6</v>
@@ -30151,7 +30157,7 @@
         <v>1.13</v>
       </c>
       <c r="AP140">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AQ140">
         <v>1.02</v>
@@ -30360,7 +30366,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ141">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="AR141">
         <v>1.28</v>
@@ -30485,7 +30491,7 @@
         <v>133</v>
       </c>
       <c r="P142" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q142">
         <v>2.25</v>
@@ -30563,7 +30569,7 @@
         <v>1</v>
       </c>
       <c r="AP142">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="AQ142">
         <v>1.26</v>
@@ -30772,7 +30778,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ143">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR143">
         <v>1.19</v>
@@ -30975,7 +30981,7 @@
         <v>1.04</v>
       </c>
       <c r="AP144">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ144">
         <v>1.3</v>
@@ -31103,7 +31109,7 @@
         <v>89</v>
       </c>
       <c r="P145" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q145">
         <v>4.33</v>
@@ -31596,7 +31602,7 @@
         <v>1.51</v>
       </c>
       <c r="AQ147">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="AR147">
         <v>1.35</v>
@@ -31799,7 +31805,7 @@
         <v>0.92</v>
       </c>
       <c r="AP148">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="AQ148">
         <v>1.05</v>
@@ -32211,10 +32217,10 @@
         <v>1.63</v>
       </c>
       <c r="AP150">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ150">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AR150">
         <v>1.69</v>
@@ -32339,7 +32345,7 @@
         <v>173</v>
       </c>
       <c r="P151" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q151">
         <v>2.1</v>
@@ -32417,7 +32423,7 @@
         <v>0.88</v>
       </c>
       <c r="AP151">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="AQ151">
         <v>1.05</v>
@@ -32626,7 +32632,7 @@
         <v>1.02</v>
       </c>
       <c r="AQ152">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="AR152">
         <v>1.52</v>
@@ -32751,7 +32757,7 @@
         <v>174</v>
       </c>
       <c r="P153" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q153">
         <v>3.75</v>
@@ -33163,7 +33169,7 @@
         <v>113</v>
       </c>
       <c r="P155" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q155">
         <v>2.6</v>
@@ -33241,7 +33247,7 @@
         <v>0.96</v>
       </c>
       <c r="AP155">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AQ155">
         <v>0.91</v>
@@ -33369,7 +33375,7 @@
         <v>176</v>
       </c>
       <c r="P156" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q156">
         <v>6.5</v>
@@ -33450,7 +33456,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ156">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR156">
         <v>1.33</v>
@@ -34065,10 +34071,10 @@
         <v>2.04</v>
       </c>
       <c r="AP159">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="AQ159">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="AR159">
         <v>1.5</v>
@@ -34271,7 +34277,7 @@
         <v>1.12</v>
       </c>
       <c r="AP160">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ160">
         <v>1.02</v>
@@ -34686,7 +34692,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ162">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AR162">
         <v>1.34</v>
@@ -34811,7 +34817,7 @@
         <v>181</v>
       </c>
       <c r="P163" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q163">
         <v>3.5</v>
@@ -34889,7 +34895,7 @@
         <v>1.41</v>
       </c>
       <c r="AP163">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AQ163">
         <v>1.51</v>
@@ -35429,7 +35435,7 @@
         <v>182</v>
       </c>
       <c r="P166" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q166">
         <v>3.25</v>
@@ -35713,10 +35719,10 @@
         <v>1.74</v>
       </c>
       <c r="AP167">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ167">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="AR167">
         <v>1.7</v>
@@ -35922,7 +35928,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ168">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="AR168">
         <v>1.43</v>
@@ -36047,7 +36053,7 @@
         <v>184</v>
       </c>
       <c r="P169" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q169">
         <v>3.4</v>
@@ -36128,7 +36134,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ169">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AR169">
         <v>1.23</v>
@@ -36253,7 +36259,7 @@
         <v>185</v>
       </c>
       <c r="P170" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q170">
         <v>2.75</v>
@@ -36665,7 +36671,7 @@
         <v>89</v>
       </c>
       <c r="P172" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q172">
         <v>6.5</v>
@@ -36746,7 +36752,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ172">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR172">
         <v>1.2</v>
@@ -36949,7 +36955,7 @@
         <v>0.96</v>
       </c>
       <c r="AP173">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="AQ173">
         <v>1.3</v>
@@ -37155,7 +37161,7 @@
         <v>1.56</v>
       </c>
       <c r="AP174">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="AQ174">
         <v>1.45</v>
@@ -37283,7 +37289,7 @@
         <v>189</v>
       </c>
       <c r="P175" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q175">
         <v>3.4</v>
@@ -37567,7 +37573,7 @@
         <v>1.17</v>
       </c>
       <c r="AP176">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ176">
         <v>1.26</v>
@@ -37979,10 +37985,10 @@
         <v>1.97</v>
       </c>
       <c r="AP178">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AQ178">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="AR178">
         <v>1.36</v>
@@ -38107,7 +38113,7 @@
         <v>192</v>
       </c>
       <c r="P179" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q179">
         <v>3.1</v>
@@ -38394,7 +38400,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ180">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="AR180">
         <v>1.19</v>
@@ -38519,7 +38525,7 @@
         <v>89</v>
       </c>
       <c r="P181" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q181">
         <v>2.1</v>
@@ -38597,7 +38603,7 @@
         <v>0.97</v>
       </c>
       <c r="AP181">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="AQ181">
         <v>1.07</v>
@@ -38806,7 +38812,7 @@
         <v>1.51</v>
       </c>
       <c r="AQ182">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR182">
         <v>1.35</v>
@@ -38931,7 +38937,7 @@
         <v>194</v>
       </c>
       <c r="P183" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q183">
         <v>2.6</v>
@@ -39009,7 +39015,7 @@
         <v>1.48</v>
       </c>
       <c r="AP183">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="AQ183">
         <v>1.45</v>
@@ -39424,7 +39430,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ185">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AR185">
         <v>1.38</v>
@@ -39836,7 +39842,7 @@
         <v>1.02</v>
       </c>
       <c r="AQ187">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="AR187">
         <v>1.45</v>
@@ -39961,7 +39967,7 @@
         <v>197</v>
       </c>
       <c r="P188" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q188">
         <v>2.25</v>
@@ -40039,7 +40045,7 @@
         <v>1.03</v>
       </c>
       <c r="AP188">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ188">
         <v>1.05</v>
@@ -40167,7 +40173,7 @@
         <v>198</v>
       </c>
       <c r="P189" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q189">
         <v>3.25</v>
@@ -40245,7 +40251,7 @@
         <v>1.43</v>
       </c>
       <c r="AP189">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AQ189">
         <v>1.45</v>
@@ -40454,7 +40460,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ190">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="AR190">
         <v>1.38</v>
@@ -40579,7 +40585,7 @@
         <v>89</v>
       </c>
       <c r="P191" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q191">
         <v>3.4</v>
@@ -40785,7 +40791,7 @@
         <v>119</v>
       </c>
       <c r="P192" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q192">
         <v>4.5</v>
@@ -40991,7 +40997,7 @@
         <v>200</v>
       </c>
       <c r="P193" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q193">
         <v>3.75</v>
@@ -41069,10 +41075,10 @@
         <v>2.03</v>
       </c>
       <c r="AP193">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="AQ193">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR193">
         <v>1.54</v>
@@ -41197,7 +41203,7 @@
         <v>201</v>
       </c>
       <c r="P194" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q194">
         <v>2.63</v>
@@ -41275,10 +41281,10 @@
         <v>1.38</v>
       </c>
       <c r="AP194">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="AQ194">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AR194">
         <v>1.54</v>
@@ -41403,7 +41409,7 @@
         <v>202</v>
       </c>
       <c r="P195" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q195">
         <v>3</v>
@@ -42021,7 +42027,7 @@
         <v>89</v>
       </c>
       <c r="P198" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q198">
         <v>2.63</v>
@@ -42227,7 +42233,7 @@
         <v>89</v>
       </c>
       <c r="P199" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q199">
         <v>3.25</v>
@@ -42433,7 +42439,7 @@
         <v>89</v>
       </c>
       <c r="P200" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q200">
         <v>6</v>
@@ -42514,7 +42520,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ200">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR200">
         <v>1.42</v>
@@ -42717,7 +42723,7 @@
         <v>1.03</v>
       </c>
       <c r="AP201">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="AQ201">
         <v>0.91</v>
@@ -42926,7 +42932,7 @@
         <v>1.51</v>
       </c>
       <c r="AQ202">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="AR202">
         <v>1.32</v>
@@ -43051,7 +43057,7 @@
         <v>148</v>
       </c>
       <c r="P203" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q203">
         <v>2.75</v>
@@ -43257,7 +43263,7 @@
         <v>204</v>
       </c>
       <c r="P204" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q204">
         <v>2.63</v>
@@ -43335,7 +43341,7 @@
         <v>1.06</v>
       </c>
       <c r="AP204">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AQ204">
         <v>1.07</v>
@@ -43463,7 +43469,7 @@
         <v>89</v>
       </c>
       <c r="P205" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q205">
         <v>4</v>
@@ -43953,7 +43959,7 @@
         <v>1.06</v>
       </c>
       <c r="AP207">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="AQ207">
         <v>1.07</v>
@@ -44081,7 +44087,7 @@
         <v>205</v>
       </c>
       <c r="P208" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q208">
         <v>3.6</v>
@@ -44162,7 +44168,7 @@
         <v>1.02</v>
       </c>
       <c r="AQ208">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AR208">
         <v>1.43</v>
@@ -44287,7 +44293,7 @@
         <v>206</v>
       </c>
       <c r="P209" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q209">
         <v>3.4</v>
@@ -44368,7 +44374,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ209">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="AR209">
         <v>1.4</v>
@@ -44493,7 +44499,7 @@
         <v>89</v>
       </c>
       <c r="P210" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q210">
         <v>2.1</v>
@@ -44571,7 +44577,7 @@
         <v>1.39</v>
       </c>
       <c r="AP210">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ210">
         <v>1.45</v>
@@ -44699,7 +44705,7 @@
         <v>187</v>
       </c>
       <c r="P211" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q211">
         <v>3.2</v>
@@ -44905,7 +44911,7 @@
         <v>207</v>
       </c>
       <c r="P212" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q212">
         <v>5</v>
@@ -44986,7 +44992,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ212">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="AR212">
         <v>1.29</v>
@@ -45189,10 +45195,10 @@
         <v>1.94</v>
       </c>
       <c r="AP213">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AQ213">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR213">
         <v>1.36</v>
@@ -45317,7 +45323,7 @@
         <v>89</v>
       </c>
       <c r="P214" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q214">
         <v>2.75</v>
@@ -45395,7 +45401,7 @@
         <v>1.4</v>
       </c>
       <c r="AP214">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="AQ214">
         <v>1.51</v>
@@ -45935,7 +45941,7 @@
         <v>89</v>
       </c>
       <c r="P217" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q217">
         <v>3.2</v>
@@ -46016,7 +46022,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ217">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AR217">
         <v>1.23</v>
@@ -46141,7 +46147,7 @@
         <v>211</v>
       </c>
       <c r="P218" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q218">
         <v>3.4</v>
@@ -46425,7 +46431,7 @@
         <v>0.97</v>
       </c>
       <c r="AP219">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="AQ219">
         <v>1.02</v>
@@ -46553,7 +46559,7 @@
         <v>200</v>
       </c>
       <c r="P220" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q220">
         <v>4.5</v>
@@ -46634,7 +46640,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ220">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="AR220">
         <v>1.3</v>
@@ -46759,7 +46765,7 @@
         <v>213</v>
       </c>
       <c r="P221" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q221">
         <v>1.95</v>
@@ -46837,7 +46843,7 @@
         <v>1.06</v>
       </c>
       <c r="AP221">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ221">
         <v>1.07</v>
@@ -47664,7 +47670,7 @@
         <v>1.02</v>
       </c>
       <c r="AQ225">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR225">
         <v>1.41</v>
@@ -47867,10 +47873,10 @@
         <v>1.78</v>
       </c>
       <c r="AP226">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="AQ226">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="AR226">
         <v>1.55</v>
@@ -47995,7 +48001,7 @@
         <v>210</v>
       </c>
       <c r="P227" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q227">
         <v>3.5</v>
@@ -48201,7 +48207,7 @@
         <v>215</v>
       </c>
       <c r="P228" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q228">
         <v>3.6</v>
@@ -48279,7 +48285,7 @@
         <v>1.3</v>
       </c>
       <c r="AP228">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AQ228">
         <v>1.26</v>
@@ -48613,7 +48619,7 @@
         <v>216</v>
       </c>
       <c r="P230" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q230">
         <v>3.1</v>
@@ -48691,7 +48697,7 @@
         <v>1.24</v>
       </c>
       <c r="AP230">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="AQ230">
         <v>1.3</v>
@@ -48819,7 +48825,7 @@
         <v>89</v>
       </c>
       <c r="P231" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q231">
         <v>3.75</v>
@@ -49309,10 +49315,10 @@
         <v>1.95</v>
       </c>
       <c r="AP233">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="AQ233">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR233">
         <v>1.52</v>
@@ -49437,7 +49443,7 @@
         <v>218</v>
       </c>
       <c r="P234" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q234">
         <v>2.5</v>
@@ -49518,7 +49524,7 @@
         <v>1.51</v>
       </c>
       <c r="AQ234">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AR234">
         <v>1.31</v>
@@ -49927,7 +49933,7 @@
         <v>0.97</v>
       </c>
       <c r="AP236">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AQ236">
         <v>1.05</v>
@@ -50136,7 +50142,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ237">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="AR237">
         <v>1.23</v>
@@ -50342,7 +50348,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ238">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="AR238">
         <v>1.43</v>
@@ -50467,7 +50473,7 @@
         <v>221</v>
       </c>
       <c r="P239" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q239">
         <v>4</v>
@@ -50751,7 +50757,7 @@
         <v>0.9</v>
       </c>
       <c r="AP240">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ240">
         <v>0.91</v>
@@ -50957,10 +50963,10 @@
         <v>1.43</v>
       </c>
       <c r="AP241">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="AQ241">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AR241">
         <v>1.53</v>
@@ -51085,7 +51091,7 @@
         <v>223</v>
       </c>
       <c r="P242" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q242">
         <v>1.95</v>
@@ -51163,7 +51169,7 @@
         <v>0.9</v>
       </c>
       <c r="AP242">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="AQ242">
         <v>0.91</v>
@@ -51291,7 +51297,7 @@
         <v>224</v>
       </c>
       <c r="P243" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q243">
         <v>2.75</v>
@@ -51497,7 +51503,7 @@
         <v>225</v>
       </c>
       <c r="P244" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q244">
         <v>4.33</v>
@@ -51578,7 +51584,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ244">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR244">
         <v>1.41</v>
@@ -51909,7 +51915,7 @@
         <v>89</v>
       </c>
       <c r="P246" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q246">
         <v>3.4</v>
@@ -52115,7 +52121,7 @@
         <v>226</v>
       </c>
       <c r="P247" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q247">
         <v>3</v>
@@ -52321,7 +52327,7 @@
         <v>89</v>
       </c>
       <c r="P248" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q248">
         <v>3.75</v>
@@ -52399,7 +52405,7 @@
         <v>1.29</v>
       </c>
       <c r="AP248">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AQ248">
         <v>1.3</v>
@@ -52527,7 +52533,7 @@
         <v>129</v>
       </c>
       <c r="P249" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q249">
         <v>2.1</v>
@@ -52605,7 +52611,7 @@
         <v>1.44</v>
       </c>
       <c r="AP249">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AQ249">
         <v>1.51</v>
@@ -52814,7 +52820,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ250">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="AR250">
         <v>1.23</v>
@@ -53020,7 +53026,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ251">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="AR251">
         <v>1.43</v>
@@ -53351,7 +53357,7 @@
         <v>229</v>
       </c>
       <c r="P253" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q253">
         <v>4.5</v>
@@ -53432,7 +53438,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ253">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AR253">
         <v>1.31</v>
@@ -53635,7 +53641,7 @@
         <v>1.26</v>
       </c>
       <c r="AP254">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="AQ254">
         <v>1.26</v>
@@ -54047,7 +54053,7 @@
         <v>1.05</v>
       </c>
       <c r="AP256">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="AQ256">
         <v>1.02</v>
@@ -54381,7 +54387,7 @@
         <v>98</v>
       </c>
       <c r="P258" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q258">
         <v>2.6</v>
@@ -54462,7 +54468,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ258">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AR258">
         <v>1.24</v>
@@ -54538,6 +54544,624 @@
       </c>
       <c r="BP258">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="259" spans="1:68">
+      <c r="A259" s="1">
+        <v>258</v>
+      </c>
+      <c r="B259">
+        <v>7487374</v>
+      </c>
+      <c r="C259" t="s">
+        <v>68</v>
+      </c>
+      <c r="D259" t="s">
+        <v>69</v>
+      </c>
+      <c r="E259" s="2">
+        <v>45624.75</v>
+      </c>
+      <c r="F259">
+        <v>22</v>
+      </c>
+      <c r="G259" t="s">
+        <v>77</v>
+      </c>
+      <c r="H259" t="s">
+        <v>81</v>
+      </c>
+      <c r="I259">
+        <v>0</v>
+      </c>
+      <c r="J259">
+        <v>1</v>
+      </c>
+      <c r="K259">
+        <v>1</v>
+      </c>
+      <c r="L259">
+        <v>1</v>
+      </c>
+      <c r="M259">
+        <v>1</v>
+      </c>
+      <c r="N259">
+        <v>2</v>
+      </c>
+      <c r="O259" t="s">
+        <v>203</v>
+      </c>
+      <c r="P259" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q259">
+        <v>6</v>
+      </c>
+      <c r="R259">
+        <v>2.3</v>
+      </c>
+      <c r="S259">
+        <v>2.1</v>
+      </c>
+      <c r="T259">
+        <v>1.44</v>
+      </c>
+      <c r="U259">
+        <v>2.6</v>
+      </c>
+      <c r="V259">
+        <v>3</v>
+      </c>
+      <c r="W259">
+        <v>1.33</v>
+      </c>
+      <c r="X259">
+        <v>7.6</v>
+      </c>
+      <c r="Y259">
+        <v>1.06</v>
+      </c>
+      <c r="Z259">
+        <v>5.25</v>
+      </c>
+      <c r="AA259">
+        <v>4.2</v>
+      </c>
+      <c r="AB259">
+        <v>1.53</v>
+      </c>
+      <c r="AC259">
+        <v>1.06</v>
+      </c>
+      <c r="AD259">
+        <v>8</v>
+      </c>
+      <c r="AE259">
+        <v>1.33</v>
+      </c>
+      <c r="AF259">
+        <v>3.1</v>
+      </c>
+      <c r="AG259">
+        <v>1.75</v>
+      </c>
+      <c r="AH259">
+        <v>2.05</v>
+      </c>
+      <c r="AI259">
+        <v>1.83</v>
+      </c>
+      <c r="AJ259">
+        <v>1.83</v>
+      </c>
+      <c r="AK259">
+        <v>1.57</v>
+      </c>
+      <c r="AL259">
+        <v>1.26</v>
+      </c>
+      <c r="AM259">
+        <v>1.27</v>
+      </c>
+      <c r="AN259">
+        <v>0.91</v>
+      </c>
+      <c r="AO259">
+        <v>1.05</v>
+      </c>
+      <c r="AP259">
+        <v>0.91</v>
+      </c>
+      <c r="AQ259">
+        <v>1.05</v>
+      </c>
+      <c r="AR259">
+        <v>1.17</v>
+      </c>
+      <c r="AS259">
+        <v>1.31</v>
+      </c>
+      <c r="AT259">
+        <v>2.48</v>
+      </c>
+      <c r="AU259">
+        <v>5</v>
+      </c>
+      <c r="AV259">
+        <v>5</v>
+      </c>
+      <c r="AW259">
+        <v>6</v>
+      </c>
+      <c r="AX259">
+        <v>12</v>
+      </c>
+      <c r="AY259">
+        <v>11</v>
+      </c>
+      <c r="AZ259">
+        <v>17</v>
+      </c>
+      <c r="BA259">
+        <v>3</v>
+      </c>
+      <c r="BB259">
+        <v>10</v>
+      </c>
+      <c r="BC259">
+        <v>13</v>
+      </c>
+      <c r="BD259">
+        <v>2.72</v>
+      </c>
+      <c r="BE259">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF259">
+        <v>1.59</v>
+      </c>
+      <c r="BG259">
+        <v>1.3</v>
+      </c>
+      <c r="BH259">
+        <v>3.22</v>
+      </c>
+      <c r="BI259">
+        <v>1.53</v>
+      </c>
+      <c r="BJ259">
+        <v>2.34</v>
+      </c>
+      <c r="BK259">
+        <v>1.95</v>
+      </c>
+      <c r="BL259">
+        <v>1.85</v>
+      </c>
+      <c r="BM259">
+        <v>2.42</v>
+      </c>
+      <c r="BN259">
+        <v>1.5</v>
+      </c>
+      <c r="BO259">
+        <v>3.22</v>
+      </c>
+      <c r="BP259">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:68">
+      <c r="A260" s="1">
+        <v>259</v>
+      </c>
+      <c r="B260">
+        <v>7487370</v>
+      </c>
+      <c r="C260" t="s">
+        <v>68</v>
+      </c>
+      <c r="D260" t="s">
+        <v>69</v>
+      </c>
+      <c r="E260" s="2">
+        <v>45624.75</v>
+      </c>
+      <c r="F260">
+        <v>22</v>
+      </c>
+      <c r="G260" t="s">
+        <v>72</v>
+      </c>
+      <c r="H260" t="s">
+        <v>71</v>
+      </c>
+      <c r="I260">
+        <v>0</v>
+      </c>
+      <c r="J260">
+        <v>0</v>
+      </c>
+      <c r="K260">
+        <v>0</v>
+      </c>
+      <c r="L260">
+        <v>0</v>
+      </c>
+      <c r="M260">
+        <v>1</v>
+      </c>
+      <c r="N260">
+        <v>1</v>
+      </c>
+      <c r="O260" t="s">
+        <v>89</v>
+      </c>
+      <c r="P260" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q260">
+        <v>5</v>
+      </c>
+      <c r="R260">
+        <v>2.1</v>
+      </c>
+      <c r="S260">
+        <v>2.5</v>
+      </c>
+      <c r="T260">
+        <v>1.5</v>
+      </c>
+      <c r="U260">
+        <v>2.5</v>
+      </c>
+      <c r="V260">
+        <v>3.4</v>
+      </c>
+      <c r="W260">
+        <v>1.3</v>
+      </c>
+      <c r="X260">
+        <v>10</v>
+      </c>
+      <c r="Y260">
+        <v>1.06</v>
+      </c>
+      <c r="Z260">
+        <v>5</v>
+      </c>
+      <c r="AA260">
+        <v>3.4</v>
+      </c>
+      <c r="AB260">
+        <v>1.8</v>
+      </c>
+      <c r="AC260">
+        <v>1.08</v>
+      </c>
+      <c r="AD260">
+        <v>7</v>
+      </c>
+      <c r="AE260">
+        <v>1.44</v>
+      </c>
+      <c r="AF260">
+        <v>2.8</v>
+      </c>
+      <c r="AG260">
+        <v>2.15</v>
+      </c>
+      <c r="AH260">
+        <v>1.67</v>
+      </c>
+      <c r="AI260">
+        <v>2</v>
+      </c>
+      <c r="AJ260">
+        <v>1.73</v>
+      </c>
+      <c r="AK260">
+        <v>1.69</v>
+      </c>
+      <c r="AL260">
+        <v>1.26</v>
+      </c>
+      <c r="AM260">
+        <v>1.2</v>
+      </c>
+      <c r="AN260">
+        <v>1.42</v>
+      </c>
+      <c r="AO260">
+        <v>1.79</v>
+      </c>
+      <c r="AP260">
+        <v>1.39</v>
+      </c>
+      <c r="AQ260">
+        <v>1.82</v>
+      </c>
+      <c r="AR260">
+        <v>1.35</v>
+      </c>
+      <c r="AS260">
+        <v>1.48</v>
+      </c>
+      <c r="AT260">
+        <v>2.83</v>
+      </c>
+      <c r="AU260">
+        <v>6</v>
+      </c>
+      <c r="AV260">
+        <v>5</v>
+      </c>
+      <c r="AW260">
+        <v>9</v>
+      </c>
+      <c r="AX260">
+        <v>8</v>
+      </c>
+      <c r="AY260">
+        <v>15</v>
+      </c>
+      <c r="AZ260">
+        <v>13</v>
+      </c>
+      <c r="BA260">
+        <v>1</v>
+      </c>
+      <c r="BB260">
+        <v>6</v>
+      </c>
+      <c r="BC260">
+        <v>7</v>
+      </c>
+      <c r="BD260">
+        <v>2.47</v>
+      </c>
+      <c r="BE260">
+        <v>6.35</v>
+      </c>
+      <c r="BF260">
+        <v>1.8</v>
+      </c>
+      <c r="BG260">
+        <v>1.22</v>
+      </c>
+      <c r="BH260">
+        <v>3.35</v>
+      </c>
+      <c r="BI260">
+        <v>1.42</v>
+      </c>
+      <c r="BJ260">
+        <v>2.42</v>
+      </c>
+      <c r="BK260">
+        <v>2.38</v>
+      </c>
+      <c r="BL260">
+        <v>1.87</v>
+      </c>
+      <c r="BM260">
+        <v>2.24</v>
+      </c>
+      <c r="BN260">
+        <v>1.49</v>
+      </c>
+      <c r="BO260">
+        <v>2.97</v>
+      </c>
+      <c r="BP260">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="261" spans="1:68">
+      <c r="A261" s="1">
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>7487373</v>
+      </c>
+      <c r="C261" t="s">
+        <v>68</v>
+      </c>
+      <c r="D261" t="s">
+        <v>69</v>
+      </c>
+      <c r="E261" s="2">
+        <v>45624.85416666666</v>
+      </c>
+      <c r="F261">
+        <v>22</v>
+      </c>
+      <c r="G261" t="s">
+        <v>74</v>
+      </c>
+      <c r="H261" t="s">
+        <v>79</v>
+      </c>
+      <c r="I261">
+        <v>1</v>
+      </c>
+      <c r="J261">
+        <v>1</v>
+      </c>
+      <c r="K261">
+        <v>2</v>
+      </c>
+      <c r="L261">
+        <v>2</v>
+      </c>
+      <c r="M261">
+        <v>3</v>
+      </c>
+      <c r="N261">
+        <v>5</v>
+      </c>
+      <c r="O261" t="s">
+        <v>233</v>
+      </c>
+      <c r="P261" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q261">
+        <v>2.6</v>
+      </c>
+      <c r="R261">
+        <v>2.05</v>
+      </c>
+      <c r="S261">
+        <v>4.75</v>
+      </c>
+      <c r="T261">
+        <v>1.44</v>
+      </c>
+      <c r="U261">
+        <v>2.63</v>
+      </c>
+      <c r="V261">
+        <v>3.4</v>
+      </c>
+      <c r="W261">
+        <v>1.3</v>
+      </c>
+      <c r="X261">
+        <v>10</v>
+      </c>
+      <c r="Y261">
+        <v>1.06</v>
+      </c>
+      <c r="Z261">
+        <v>1.83</v>
+      </c>
+      <c r="AA261">
+        <v>3.3</v>
+      </c>
+      <c r="AB261">
+        <v>4.1</v>
+      </c>
+      <c r="AC261">
+        <v>1.06</v>
+      </c>
+      <c r="AD261">
+        <v>8</v>
+      </c>
+      <c r="AE261">
+        <v>1.38</v>
+      </c>
+      <c r="AF261">
+        <v>2.9</v>
+      </c>
+      <c r="AG261">
+        <v>2.15</v>
+      </c>
+      <c r="AH261">
+        <v>1.67</v>
+      </c>
+      <c r="AI261">
+        <v>2</v>
+      </c>
+      <c r="AJ261">
+        <v>1.73</v>
+      </c>
+      <c r="AK261">
+        <v>1.17</v>
+      </c>
+      <c r="AL261">
+        <v>1.24</v>
+      </c>
+      <c r="AM261">
+        <v>1.8</v>
+      </c>
+      <c r="AN261">
+        <v>1.76</v>
+      </c>
+      <c r="AO261">
+        <v>1.65</v>
+      </c>
+      <c r="AP261">
+        <v>1.72</v>
+      </c>
+      <c r="AQ261">
+        <v>1.68</v>
+      </c>
+      <c r="AR261">
+        <v>1.56</v>
+      </c>
+      <c r="AS261">
+        <v>1.53</v>
+      </c>
+      <c r="AT261">
+        <v>3.09</v>
+      </c>
+      <c r="AU261">
+        <v>5</v>
+      </c>
+      <c r="AV261">
+        <v>9</v>
+      </c>
+      <c r="AW261">
+        <v>7</v>
+      </c>
+      <c r="AX261">
+        <v>6</v>
+      </c>
+      <c r="AY261">
+        <v>12</v>
+      </c>
+      <c r="AZ261">
+        <v>15</v>
+      </c>
+      <c r="BA261">
+        <v>4</v>
+      </c>
+      <c r="BB261">
+        <v>2</v>
+      </c>
+      <c r="BC261">
+        <v>6</v>
+      </c>
+      <c r="BD261">
+        <v>1.38</v>
+      </c>
+      <c r="BE261">
+        <v>7.3</v>
+      </c>
+      <c r="BF261">
+        <v>3.9</v>
+      </c>
+      <c r="BG261">
+        <v>1.19</v>
+      </c>
+      <c r="BH261">
+        <v>3.62</v>
+      </c>
+      <c r="BI261">
+        <v>1.39</v>
+      </c>
+      <c r="BJ261">
+        <v>2.51</v>
+      </c>
+      <c r="BK261">
+        <v>2.38</v>
+      </c>
+      <c r="BL261">
+        <v>1.95</v>
+      </c>
+      <c r="BM261">
+        <v>2.14</v>
+      </c>
+      <c r="BN261">
+        <v>1.54</v>
+      </c>
+      <c r="BO261">
+        <v>2.82</v>
+      </c>
+      <c r="BP261">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -54895,19 +54895,19 @@
         <v>6</v>
       </c>
       <c r="AV260">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW260">
         <v>9</v>
       </c>
       <c r="AX260">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AY260">
         <v>15</v>
       </c>
       <c r="AZ260">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA260">
         <v>1</v>
@@ -55098,22 +55098,22 @@
         <v>3.09</v>
       </c>
       <c r="AU261">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AV261">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AW261">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AX261">
+        <v>3</v>
+      </c>
+      <c r="AY261">
+        <v>2</v>
+      </c>
+      <c r="AZ261">
         <v>6</v>
-      </c>
-      <c r="AY261">
-        <v>12</v>
-      </c>
-      <c r="AZ261">
-        <v>15</v>
       </c>
       <c r="BA261">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Paraguay Division Profesional_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="339">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -715,6 +715,9 @@
     <t>['67', '76']</t>
   </si>
   <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
     <t>['37', '58']</t>
   </si>
   <si>
@@ -809,9 +812,6 @@
   </si>
   <si>
     <t>['19', '65', '67']</t>
-  </si>
-  <si>
-    <t>['90+1']</t>
   </si>
   <si>
     <t>['12', '45', '59']</t>
@@ -1392,7 +1392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP261"/>
+  <dimension ref="A1:BP264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1729,10 +1729,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ2">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1938,7 +1938,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ3">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ4">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2759,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="AQ7">
         <v>1.68</v>
@@ -2887,7 +2887,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2965,7 +2965,7 @@
         <v>3</v>
       </c>
       <c r="AP8">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AQ8">
         <v>1.07</v>
@@ -3299,7 +3299,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3377,10 +3377,10 @@
         <v>1</v>
       </c>
       <c r="AP10">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AQ10">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="AR10">
         <v>1.47</v>
@@ -3505,7 +3505,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q11">
         <v>2.2</v>
@@ -3789,7 +3789,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AQ12">
         <v>1.05</v>
@@ -3917,7 +3917,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q13">
         <v>4.75</v>
@@ -3995,7 +3995,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ13">
         <v>1.72</v>
@@ -4204,7 +4204,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ14">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AR14">
         <v>1.53</v>
@@ -4329,7 +4329,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q15">
         <v>2.79</v>
@@ -4410,7 +4410,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ15">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR15">
         <v>1.29</v>
@@ -4616,7 +4616,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ16">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR16">
         <v>1.54</v>
@@ -4819,7 +4819,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="AQ17">
         <v>0.91</v>
@@ -4947,7 +4947,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -5153,7 +5153,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5231,10 +5231,10 @@
         <v>1.67</v>
       </c>
       <c r="AP19">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AQ19">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="AR19">
         <v>1.31</v>
@@ -5359,7 +5359,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5437,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AQ20">
         <v>1.05</v>
@@ -5565,7 +5565,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5771,7 +5771,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q22">
         <v>6.5</v>
@@ -6058,7 +6058,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ23">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AR23">
         <v>1.65</v>
@@ -6261,7 +6261,7 @@
         <v>1.67</v>
       </c>
       <c r="AP24">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ24">
         <v>1.82</v>
@@ -6467,10 +6467,10 @@
         <v>0.75</v>
       </c>
       <c r="AP25">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AQ25">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AR25">
         <v>1.01</v>
@@ -6595,7 +6595,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6879,10 +6879,10 @@
         <v>1.75</v>
       </c>
       <c r="AP27">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="AQ27">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR27">
         <v>1.52</v>
@@ -7500,7 +7500,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ30">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR30">
         <v>1.49</v>
@@ -7706,7 +7706,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ31">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="AR31">
         <v>1.28</v>
@@ -7831,7 +7831,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q32">
         <v>3.5</v>
@@ -7909,7 +7909,7 @@
         <v>1.6</v>
       </c>
       <c r="AP32">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ32">
         <v>1.39</v>
@@ -8243,7 +8243,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q34">
         <v>5.5</v>
@@ -8321,7 +8321,7 @@
         <v>2.2</v>
       </c>
       <c r="AP34">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AQ34">
         <v>1.68</v>
@@ -8449,7 +8449,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8527,7 +8527,7 @@
         <v>0.6</v>
       </c>
       <c r="AP35">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AQ35">
         <v>1.05</v>
@@ -8655,7 +8655,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q36">
         <v>2.88</v>
@@ -8736,7 +8736,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ36">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AR36">
         <v>1.5</v>
@@ -9145,10 +9145,10 @@
         <v>0.83</v>
       </c>
       <c r="AP38">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AQ38">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR38">
         <v>1.06</v>
@@ -9354,7 +9354,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ39">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AR39">
         <v>2.03</v>
@@ -9560,7 +9560,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ40">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR40">
         <v>1.34</v>
@@ -9685,7 +9685,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9763,7 +9763,7 @@
         <v>1.17</v>
       </c>
       <c r="AP41">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="AQ41">
         <v>1.82</v>
@@ -9891,7 +9891,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q42">
         <v>1.83</v>
@@ -10175,7 +10175,7 @@
         <v>1.67</v>
       </c>
       <c r="AP43">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="AQ43">
         <v>1.72</v>
@@ -10303,7 +10303,7 @@
         <v>89</v>
       </c>
       <c r="P44" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10381,10 +10381,10 @@
         <v>1.67</v>
       </c>
       <c r="AP44">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ44">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AR44">
         <v>1.33</v>
@@ -10715,7 +10715,7 @@
         <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q46">
         <v>2.4</v>
@@ -10921,7 +10921,7 @@
         <v>89</v>
       </c>
       <c r="P47" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q47">
         <v>3.1</v>
@@ -11002,7 +11002,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ47">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AR47">
         <v>1.34</v>
@@ -11205,10 +11205,10 @@
         <v>0.71</v>
       </c>
       <c r="AP48">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AQ48">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR48">
         <v>1.31</v>
@@ -11411,7 +11411,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AQ49">
         <v>1.07</v>
@@ -11745,7 +11745,7 @@
         <v>120</v>
       </c>
       <c r="P51" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -12032,7 +12032,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ52">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="AR52">
         <v>1.52</v>
@@ -12238,7 +12238,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ53">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR53">
         <v>1.55</v>
@@ -12363,7 +12363,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q54">
         <v>4.33</v>
@@ -12569,7 +12569,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q55">
         <v>2.4</v>
@@ -12650,7 +12650,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ55">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AR55">
         <v>1.34</v>
@@ -12775,7 +12775,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12981,7 +12981,7 @@
         <v>89</v>
       </c>
       <c r="P57" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13059,7 +13059,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AQ57">
         <v>0.91</v>
@@ -13187,7 +13187,7 @@
         <v>123</v>
       </c>
       <c r="P58" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q58">
         <v>2.38</v>
@@ -13265,7 +13265,7 @@
         <v>0.44</v>
       </c>
       <c r="AP58">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="AQ58">
         <v>1.05</v>
@@ -13471,10 +13471,10 @@
         <v>1.11</v>
       </c>
       <c r="AP59">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ59">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AR59">
         <v>1.29</v>
@@ -13599,7 +13599,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13680,7 +13680,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ60">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR60">
         <v>1.22</v>
@@ -14092,7 +14092,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ62">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR62">
         <v>1.93</v>
@@ -14501,7 +14501,7 @@
         <v>1.3</v>
       </c>
       <c r="AP64">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AQ64">
         <v>1.07</v>
@@ -14707,10 +14707,10 @@
         <v>1.1</v>
       </c>
       <c r="AP65">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AQ65">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="AR65">
         <v>1.21</v>
@@ -14835,7 +14835,7 @@
         <v>128</v>
       </c>
       <c r="P66" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q66">
         <v>3.1</v>
@@ -15041,7 +15041,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -15119,10 +15119,10 @@
         <v>1.36</v>
       </c>
       <c r="AP67">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AQ67">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR67">
         <v>1.34</v>
@@ -15247,7 +15247,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -15534,7 +15534,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ69">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="AR69">
         <v>1.62</v>
@@ -15737,7 +15737,7 @@
         <v>1.64</v>
       </c>
       <c r="AP70">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AQ70">
         <v>1.82</v>
@@ -15943,7 +15943,7 @@
         <v>1.64</v>
       </c>
       <c r="AP71">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AQ71">
         <v>1.39</v>
@@ -16149,10 +16149,10 @@
         <v>1.17</v>
       </c>
       <c r="AP72">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="AQ72">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AR72">
         <v>1.46</v>
@@ -16277,7 +16277,7 @@
         <v>101</v>
       </c>
       <c r="P73" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q73">
         <v>3.75</v>
@@ -16358,7 +16358,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ73">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AR73">
         <v>1.25</v>
@@ -16689,7 +16689,7 @@
         <v>133</v>
       </c>
       <c r="P75" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16770,7 +16770,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ75">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR75">
         <v>1.36</v>
@@ -16895,7 +16895,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -17182,7 +17182,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ77">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR77">
         <v>1.87</v>
@@ -17307,7 +17307,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="Q78">
         <v>5.5</v>
@@ -17385,7 +17385,7 @@
         <v>2.33</v>
       </c>
       <c r="AP78">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AQ78">
         <v>1.68</v>
@@ -17591,7 +17591,7 @@
         <v>1.46</v>
       </c>
       <c r="AP79">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AQ79">
         <v>1.39</v>
@@ -17797,7 +17797,7 @@
         <v>1.92</v>
       </c>
       <c r="AP80">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AQ80">
         <v>1.72</v>
@@ -18003,7 +18003,7 @@
         <v>1.08</v>
       </c>
       <c r="AP81">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ81">
         <v>1.07</v>
@@ -18418,7 +18418,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ83">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="AR83">
         <v>1.24</v>
@@ -18543,7 +18543,7 @@
         <v>89</v>
       </c>
       <c r="P84" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="Q84">
         <v>3.75</v>
@@ -18621,7 +18621,7 @@
         <v>1.69</v>
       </c>
       <c r="AP84">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AQ84">
         <v>1.82</v>
@@ -18830,7 +18830,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ85">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AR85">
         <v>1.23</v>
@@ -19239,10 +19239,10 @@
         <v>0.71</v>
       </c>
       <c r="AP87">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="AQ87">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR87">
         <v>1.51</v>
@@ -19445,7 +19445,7 @@
         <v>2.29</v>
       </c>
       <c r="AP88">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AQ88">
         <v>1.68</v>
@@ -19860,7 +19860,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ90">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR90">
         <v>1.42</v>
@@ -20063,10 +20063,10 @@
         <v>1.4</v>
       </c>
       <c r="AP91">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ91">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="AR91">
         <v>1.34</v>
@@ -20269,7 +20269,7 @@
         <v>1.47</v>
       </c>
       <c r="AP92">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AQ92">
         <v>1.39</v>
@@ -21093,10 +21093,10 @@
         <v>1.5</v>
       </c>
       <c r="AP96">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AQ96">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AR96">
         <v>1.51</v>
@@ -21299,7 +21299,7 @@
         <v>1.19</v>
       </c>
       <c r="AP97">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AQ97">
         <v>0.91</v>
@@ -21508,7 +21508,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ98">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AR98">
         <v>1.6</v>
@@ -21714,7 +21714,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ99">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR99">
         <v>1.2</v>
@@ -21920,7 +21920,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ100">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR100">
         <v>1.48</v>
@@ -22329,7 +22329,7 @@
         <v>0.88</v>
       </c>
       <c r="AP102">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="AQ102">
         <v>1.07</v>
@@ -22535,7 +22535,7 @@
         <v>0.65</v>
       </c>
       <c r="AP103">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ103">
         <v>1.05</v>
@@ -22741,10 +22741,10 @@
         <v>1.5</v>
       </c>
       <c r="AP104">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AQ104">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AR104">
         <v>1.3</v>
@@ -22869,7 +22869,7 @@
         <v>150</v>
       </c>
       <c r="P105" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -22950,7 +22950,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ105">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="AR105">
         <v>1.45</v>
@@ -23359,7 +23359,7 @@
         <v>2.06</v>
       </c>
       <c r="AP107">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AQ107">
         <v>1.72</v>
@@ -23771,10 +23771,10 @@
         <v>1.28</v>
       </c>
       <c r="AP109">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AQ109">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR109">
         <v>1.21</v>
@@ -23980,7 +23980,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ110">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR110">
         <v>1.6</v>
@@ -24183,7 +24183,7 @@
         <v>1.11</v>
       </c>
       <c r="AP111">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AQ111">
         <v>0.91</v>
@@ -24598,7 +24598,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ113">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="AR113">
         <v>1.78</v>
@@ -25213,10 +25213,10 @@
         <v>1.05</v>
       </c>
       <c r="AP116">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AQ116">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AR116">
         <v>1.3</v>
@@ -25341,7 +25341,7 @@
         <v>89</v>
       </c>
       <c r="P117" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q117">
         <v>3.25</v>
@@ -25419,7 +25419,7 @@
         <v>1.53</v>
       </c>
       <c r="AP117">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="AQ117">
         <v>1.39</v>
@@ -25547,7 +25547,7 @@
         <v>89</v>
       </c>
       <c r="P118" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -25625,7 +25625,7 @@
         <v>2.05</v>
       </c>
       <c r="AP118">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ118">
         <v>1.68</v>
@@ -26040,7 +26040,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ120">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AR120">
         <v>1.29</v>
@@ -26246,7 +26246,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ121">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="AR121">
         <v>1.22</v>
@@ -26452,7 +26452,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ122">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR122">
         <v>1.17</v>
@@ -26655,7 +26655,7 @@
         <v>1.75</v>
       </c>
       <c r="AP123">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AQ123">
         <v>1.82</v>
@@ -27273,10 +27273,10 @@
         <v>1.15</v>
       </c>
       <c r="AP126">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AQ126">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR126">
         <v>1.58</v>
@@ -27479,10 +27479,10 @@
         <v>1.4</v>
       </c>
       <c r="AP127">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="AQ127">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AR127">
         <v>1.39</v>
@@ -28097,7 +28097,7 @@
         <v>2.1</v>
       </c>
       <c r="AP130">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AQ130">
         <v>1.72</v>
@@ -28303,7 +28303,7 @@
         <v>0.95</v>
       </c>
       <c r="AP131">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ131">
         <v>0.91</v>
@@ -28512,7 +28512,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ132">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AR132">
         <v>1.23</v>
@@ -28715,7 +28715,7 @@
         <v>0.95</v>
       </c>
       <c r="AP133">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AQ133">
         <v>1.05</v>
@@ -29130,7 +29130,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ135">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="AR135">
         <v>1.47</v>
@@ -29539,10 +29539,10 @@
         <v>1.33</v>
       </c>
       <c r="AP137">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AQ137">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AR137">
         <v>1.57</v>
@@ -29748,7 +29748,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ138">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="AR138">
         <v>1.21</v>
@@ -29951,7 +29951,7 @@
         <v>1</v>
       </c>
       <c r="AP139">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ139">
         <v>0.91</v>
@@ -30160,7 +30160,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ140">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AR140">
         <v>1.41</v>
@@ -30572,7 +30572,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ142">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR142">
         <v>1.56</v>
@@ -30775,7 +30775,7 @@
         <v>2.14</v>
       </c>
       <c r="AP143">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AQ143">
         <v>1.72</v>
@@ -30984,7 +30984,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ144">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR144">
         <v>1.69</v>
@@ -31190,7 +31190,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ145">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AR145">
         <v>1.2</v>
@@ -31393,7 +31393,7 @@
         <v>0.88</v>
       </c>
       <c r="AP146">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AQ146">
         <v>1.07</v>
@@ -31599,7 +31599,7 @@
         <v>2.13</v>
       </c>
       <c r="AP147">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="AQ147">
         <v>1.68</v>
@@ -32011,10 +32011,10 @@
         <v>1</v>
       </c>
       <c r="AP149">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AQ149">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR149">
         <v>1.36</v>
@@ -32629,7 +32629,7 @@
         <v>1.64</v>
       </c>
       <c r="AP152">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AQ152">
         <v>1.82</v>
@@ -32835,10 +32835,10 @@
         <v>1.44</v>
       </c>
       <c r="AP153">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ153">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="AR153">
         <v>1.41</v>
@@ -33041,10 +33041,10 @@
         <v>1.08</v>
       </c>
       <c r="AP154">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AQ154">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR154">
         <v>1.17</v>
@@ -33662,7 +33662,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ157">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR157">
         <v>1.22</v>
@@ -33865,10 +33865,10 @@
         <v>1.52</v>
       </c>
       <c r="AP158">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="AQ158">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AR158">
         <v>1.33</v>
@@ -34280,7 +34280,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ160">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AR160">
         <v>1.68</v>
@@ -34689,7 +34689,7 @@
         <v>1.54</v>
       </c>
       <c r="AP162">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AQ162">
         <v>1.39</v>
@@ -34817,7 +34817,7 @@
         <v>181</v>
       </c>
       <c r="P163" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q163">
         <v>3.5</v>
@@ -34898,7 +34898,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ163">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="AR163">
         <v>1.34</v>
@@ -35101,7 +35101,7 @@
         <v>0.96</v>
       </c>
       <c r="AP164">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AQ164">
         <v>1.05</v>
@@ -35310,7 +35310,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ165">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR165">
         <v>1.34</v>
@@ -35513,7 +35513,7 @@
         <v>1.04</v>
       </c>
       <c r="AP166">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AQ166">
         <v>0.91</v>
@@ -35925,7 +35925,7 @@
         <v>1.96</v>
       </c>
       <c r="AP168">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ168">
         <v>1.68</v>
@@ -36259,7 +36259,7 @@
         <v>185</v>
       </c>
       <c r="P170" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="Q170">
         <v>2.75</v>
@@ -36337,10 +36337,10 @@
         <v>1.04</v>
       </c>
       <c r="AP170">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AQ170">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AR170">
         <v>1.38</v>
@@ -36543,7 +36543,7 @@
         <v>0.89</v>
       </c>
       <c r="AP171">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="AQ171">
         <v>1.07</v>
@@ -36958,7 +36958,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ173">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR173">
         <v>1.49</v>
@@ -37164,7 +37164,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ174">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AR174">
         <v>1.5</v>
@@ -37576,7 +37576,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ176">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR176">
         <v>1.69</v>
@@ -37779,10 +37779,10 @@
         <v>1.34</v>
       </c>
       <c r="AP177">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AQ177">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="AR177">
         <v>1.47</v>
@@ -38191,10 +38191,10 @@
         <v>0.93</v>
       </c>
       <c r="AP179">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AQ179">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR179">
         <v>1.18</v>
@@ -38809,7 +38809,7 @@
         <v>2.14</v>
       </c>
       <c r="AP182">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="AQ182">
         <v>1.72</v>
@@ -39018,7 +39018,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ183">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AR183">
         <v>1.52</v>
@@ -39221,7 +39221,7 @@
         <v>1.03</v>
       </c>
       <c r="AP184">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AQ184">
         <v>0.91</v>
@@ -39427,7 +39427,7 @@
         <v>1.47</v>
       </c>
       <c r="AP185">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ185">
         <v>1.39</v>
@@ -39636,7 +39636,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ186">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AR186">
         <v>1.26</v>
@@ -39839,7 +39839,7 @@
         <v>1.87</v>
       </c>
       <c r="AP187">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AQ187">
         <v>1.68</v>
@@ -39967,7 +39967,7 @@
         <v>197</v>
       </c>
       <c r="P188" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q188">
         <v>2.25</v>
@@ -40254,7 +40254,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ189">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AR189">
         <v>1.35</v>
@@ -40457,7 +40457,7 @@
         <v>1.84</v>
       </c>
       <c r="AP190">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AQ190">
         <v>1.82</v>
@@ -40666,7 +40666,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ191">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR191">
         <v>1.37</v>
@@ -40872,7 +40872,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ192">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="AR192">
         <v>1.18</v>
@@ -41693,10 +41693,10 @@
         <v>1.25</v>
       </c>
       <c r="AP196">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="AQ196">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR196">
         <v>1.33</v>
@@ -41899,10 +41899,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP197">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ197">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AR197">
         <v>1.41</v>
@@ -42105,7 +42105,7 @@
         <v>1</v>
       </c>
       <c r="AP198">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AQ198">
         <v>1.07</v>
@@ -42314,7 +42314,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ199">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR199">
         <v>1.26</v>
@@ -42517,7 +42517,7 @@
         <v>1.97</v>
       </c>
       <c r="AP200">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ200">
         <v>1.72</v>
@@ -42929,7 +42929,7 @@
         <v>1.82</v>
       </c>
       <c r="AP202">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="AQ202">
         <v>1.82</v>
@@ -43135,10 +43135,10 @@
         <v>0.91</v>
       </c>
       <c r="AP203">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AQ203">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AR203">
         <v>1.23</v>
@@ -43550,7 +43550,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ205">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR205">
         <v>1.22</v>
@@ -43753,7 +43753,7 @@
         <v>0.97</v>
       </c>
       <c r="AP206">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="AQ206">
         <v>1.05</v>
@@ -44165,7 +44165,7 @@
         <v>1.32</v>
       </c>
       <c r="AP208">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AQ208">
         <v>1.39</v>
@@ -44293,7 +44293,7 @@
         <v>206</v>
       </c>
       <c r="P209" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q209">
         <v>3.4</v>
@@ -44371,7 +44371,7 @@
         <v>1.97</v>
       </c>
       <c r="AP209">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AQ209">
         <v>1.68</v>
@@ -44580,7 +44580,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ210">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AR210">
         <v>1.61</v>
@@ -44786,7 +44786,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ211">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AR211">
         <v>1.39</v>
@@ -45404,7 +45404,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ214">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="AR214">
         <v>1.54</v>
@@ -45607,7 +45607,7 @@
         <v>0.97</v>
       </c>
       <c r="AP215">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AQ215">
         <v>0.91</v>
@@ -45813,10 +45813,10 @@
         <v>1.34</v>
       </c>
       <c r="AP216">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ216">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR216">
         <v>1.43</v>
@@ -46147,7 +46147,7 @@
         <v>211</v>
       </c>
       <c r="P218" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="Q218">
         <v>3.4</v>
@@ -46225,10 +46225,10 @@
         <v>1.19</v>
       </c>
       <c r="AP218">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="AQ218">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR218">
         <v>1.3</v>
@@ -46434,7 +46434,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ219">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AR219">
         <v>1.53</v>
@@ -46559,7 +46559,7 @@
         <v>200</v>
       </c>
       <c r="P220" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q220">
         <v>4.5</v>
@@ -47049,10 +47049,10 @@
         <v>1.49</v>
       </c>
       <c r="AP222">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AQ222">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AR222">
         <v>1.4</v>
@@ -47255,7 +47255,7 @@
         <v>1</v>
       </c>
       <c r="AP223">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ223">
         <v>1.05</v>
@@ -47667,7 +47667,7 @@
         <v>1.92</v>
       </c>
       <c r="AP225">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AQ225">
         <v>1.72</v>
@@ -48079,10 +48079,10 @@
         <v>1.43</v>
       </c>
       <c r="AP227">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AQ227">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="AR227">
         <v>1.22</v>
@@ -48288,7 +48288,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ228">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR228">
         <v>1.36</v>
@@ -48491,7 +48491,7 @@
         <v>1.03</v>
       </c>
       <c r="AP229">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AQ229">
         <v>1.07</v>
@@ -48700,7 +48700,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ230">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR230">
         <v>1.54</v>
@@ -48906,7 +48906,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ231">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AR231">
         <v>1.21</v>
@@ -49112,7 +49112,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ232">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AR232">
         <v>1.29</v>
@@ -49521,7 +49521,7 @@
         <v>1.39</v>
       </c>
       <c r="AP234">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="AQ234">
         <v>1.39</v>
@@ -49730,7 +49730,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ235">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="AR235">
         <v>1.42</v>
@@ -50139,7 +50139,7 @@
         <v>1.72</v>
       </c>
       <c r="AP237">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AQ237">
         <v>1.68</v>
@@ -50345,7 +50345,7 @@
         <v>1.85</v>
       </c>
       <c r="AP238">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ238">
         <v>1.82</v>
@@ -50551,10 +50551,10 @@
         <v>1.33</v>
       </c>
       <c r="AP239">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AQ239">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR239">
         <v>1.43</v>
@@ -51581,7 +51581,7 @@
         <v>1.87</v>
       </c>
       <c r="AP244">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AQ244">
         <v>1.72</v>
@@ -51787,10 +51787,10 @@
         <v>1.05</v>
       </c>
       <c r="AP245">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="AQ245">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AR245">
         <v>1.32</v>
@@ -51993,10 +51993,10 @@
         <v>1.46</v>
       </c>
       <c r="AP246">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ246">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AR246">
         <v>1.42</v>
@@ -52199,7 +52199,7 @@
         <v>1</v>
       </c>
       <c r="AP247">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AQ247">
         <v>1.05</v>
@@ -52408,7 +52408,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ248">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR248">
         <v>1.34</v>
@@ -52614,7 +52614,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ249">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="AR249">
         <v>1.56</v>
@@ -52817,7 +52817,7 @@
         <v>1.83</v>
       </c>
       <c r="AP250">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AQ250">
         <v>1.82</v>
@@ -53232,7 +53232,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ252">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR252">
         <v>1.17</v>
@@ -53644,7 +53644,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ254">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AR254">
         <v>1.47</v>
@@ -53847,7 +53847,7 @@
         <v>0.93</v>
       </c>
       <c r="AP255">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="AQ255">
         <v>0.91</v>
@@ -54056,7 +54056,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ256">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AR256">
         <v>1.52</v>
@@ -54259,7 +54259,7 @@
         <v>1.02</v>
       </c>
       <c r="AP257">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ257">
         <v>1.07</v>
@@ -54465,7 +54465,7 @@
         <v>1.38</v>
       </c>
       <c r="AP258">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AQ258">
         <v>1.39</v>
@@ -54590,7 +54590,7 @@
         <v>2</v>
       </c>
       <c r="O259" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="P259" t="s">
         <v>211</v>
@@ -55002,7 +55002,7 @@
         <v>5</v>
       </c>
       <c r="O261" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P261" t="s">
         <v>338</v>
@@ -55161,6 +55161,624 @@
         <v>2.82</v>
       </c>
       <c r="BP261">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="262" spans="1:68">
+      <c r="A262" s="1">
+        <v>261</v>
+      </c>
+      <c r="B262">
+        <v>7487371</v>
+      </c>
+      <c r="C262" t="s">
+        <v>68</v>
+      </c>
+      <c r="D262" t="s">
+        <v>69</v>
+      </c>
+      <c r="E262" s="2">
+        <v>45625.8125</v>
+      </c>
+      <c r="F262">
+        <v>22</v>
+      </c>
+      <c r="G262" t="s">
+        <v>73</v>
+      </c>
+      <c r="H262" t="s">
+        <v>80</v>
+      </c>
+      <c r="I262">
+        <v>1</v>
+      </c>
+      <c r="J262">
+        <v>1</v>
+      </c>
+      <c r="K262">
+        <v>2</v>
+      </c>
+      <c r="L262">
+        <v>1</v>
+      </c>
+      <c r="M262">
+        <v>1</v>
+      </c>
+      <c r="N262">
+        <v>2</v>
+      </c>
+      <c r="O262" t="s">
+        <v>222</v>
+      </c>
+      <c r="P262" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q262">
+        <v>3.6</v>
+      </c>
+      <c r="R262">
+        <v>2.05</v>
+      </c>
+      <c r="S262">
+        <v>3.2</v>
+      </c>
+      <c r="T262">
+        <v>1.51</v>
+      </c>
+      <c r="U262">
+        <v>2.4</v>
+      </c>
+      <c r="V262">
+        <v>3.3</v>
+      </c>
+      <c r="W262">
+        <v>1.28</v>
+      </c>
+      <c r="X262">
+        <v>7.8</v>
+      </c>
+      <c r="Y262">
+        <v>1.04</v>
+      </c>
+      <c r="Z262">
+        <v>3</v>
+      </c>
+      <c r="AA262">
+        <v>3.1</v>
+      </c>
+      <c r="AB262">
+        <v>2.38</v>
+      </c>
+      <c r="AC262">
+        <v>1.08</v>
+      </c>
+      <c r="AD262">
+        <v>7</v>
+      </c>
+      <c r="AE262">
+        <v>1.41</v>
+      </c>
+      <c r="AF262">
+        <v>2.75</v>
+      </c>
+      <c r="AG262">
+        <v>2.15</v>
+      </c>
+      <c r="AH262">
+        <v>1.67</v>
+      </c>
+      <c r="AI262">
+        <v>1.83</v>
+      </c>
+      <c r="AJ262">
+        <v>1.83</v>
+      </c>
+      <c r="AK262">
+        <v>1.43</v>
+      </c>
+      <c r="AL262">
+        <v>1.31</v>
+      </c>
+      <c r="AM262">
+        <v>1.32</v>
+      </c>
+      <c r="AN262">
+        <v>1.07</v>
+      </c>
+      <c r="AO262">
+        <v>1.45</v>
+      </c>
+      <c r="AP262">
+        <v>1.07</v>
+      </c>
+      <c r="AQ262">
+        <v>1.44</v>
+      </c>
+      <c r="AR262">
+        <v>1.43</v>
+      </c>
+      <c r="AS262">
+        <v>1.25</v>
+      </c>
+      <c r="AT262">
+        <v>2.68</v>
+      </c>
+      <c r="AU262">
+        <v>5</v>
+      </c>
+      <c r="AV262">
+        <v>3</v>
+      </c>
+      <c r="AW262">
+        <v>4</v>
+      </c>
+      <c r="AX262">
+        <v>6</v>
+      </c>
+      <c r="AY262">
+        <v>9</v>
+      </c>
+      <c r="AZ262">
+        <v>9</v>
+      </c>
+      <c r="BA262">
+        <v>2</v>
+      </c>
+      <c r="BB262">
+        <v>3</v>
+      </c>
+      <c r="BC262">
+        <v>5</v>
+      </c>
+      <c r="BD262">
+        <v>2.03</v>
+      </c>
+      <c r="BE262">
+        <v>7.1</v>
+      </c>
+      <c r="BF262">
+        <v>2.15</v>
+      </c>
+      <c r="BG262">
+        <v>1.35</v>
+      </c>
+      <c r="BH262">
+        <v>2.95</v>
+      </c>
+      <c r="BI262">
+        <v>1.62</v>
+      </c>
+      <c r="BJ262">
+        <v>2.25</v>
+      </c>
+      <c r="BK262">
+        <v>1.95</v>
+      </c>
+      <c r="BL262">
+        <v>1.77</v>
+      </c>
+      <c r="BM262">
+        <v>2.62</v>
+      </c>
+      <c r="BN262">
+        <v>1.43</v>
+      </c>
+      <c r="BO262">
+        <v>3.52</v>
+      </c>
+      <c r="BP262">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="263" spans="1:68">
+      <c r="A263" s="1">
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>7487372</v>
+      </c>
+      <c r="C263" t="s">
+        <v>68</v>
+      </c>
+      <c r="D263" t="s">
+        <v>69</v>
+      </c>
+      <c r="E263" s="2">
+        <v>45625.8125</v>
+      </c>
+      <c r="F263">
+        <v>22</v>
+      </c>
+      <c r="G263" t="s">
+        <v>78</v>
+      </c>
+      <c r="H263" t="s">
+        <v>70</v>
+      </c>
+      <c r="I263">
+        <v>0</v>
+      </c>
+      <c r="J263">
+        <v>0</v>
+      </c>
+      <c r="K263">
+        <v>0</v>
+      </c>
+      <c r="L263">
+        <v>1</v>
+      </c>
+      <c r="M263">
+        <v>0</v>
+      </c>
+      <c r="N263">
+        <v>1</v>
+      </c>
+      <c r="O263" t="s">
+        <v>219</v>
+      </c>
+      <c r="P263" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q263">
+        <v>3.4</v>
+      </c>
+      <c r="R263">
+        <v>1.91</v>
+      </c>
+      <c r="S263">
+        <v>3.75</v>
+      </c>
+      <c r="T263">
+        <v>1.56</v>
+      </c>
+      <c r="U263">
+        <v>2.29</v>
+      </c>
+      <c r="V263">
+        <v>3.6</v>
+      </c>
+      <c r="W263">
+        <v>1.25</v>
+      </c>
+      <c r="X263">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y263">
+        <v>1.03</v>
+      </c>
+      <c r="Z263">
+        <v>2.45</v>
+      </c>
+      <c r="AA263">
+        <v>3.1</v>
+      </c>
+      <c r="AB263">
+        <v>2.88</v>
+      </c>
+      <c r="AC263">
+        <v>1.09</v>
+      </c>
+      <c r="AD263">
+        <v>6.5</v>
+      </c>
+      <c r="AE263">
+        <v>1.5</v>
+      </c>
+      <c r="AF263">
+        <v>2.4</v>
+      </c>
+      <c r="AG263">
+        <v>2.5</v>
+      </c>
+      <c r="AH263">
+        <v>1.5</v>
+      </c>
+      <c r="AI263">
+        <v>2.1</v>
+      </c>
+      <c r="AJ263">
+        <v>1.67</v>
+      </c>
+      <c r="AK263">
+        <v>1.29</v>
+      </c>
+      <c r="AL263">
+        <v>1.32</v>
+      </c>
+      <c r="AM263">
+        <v>1.45</v>
+      </c>
+      <c r="AN263">
+        <v>1.02</v>
+      </c>
+      <c r="AO263">
+        <v>1.3</v>
+      </c>
+      <c r="AP263">
+        <v>1.07</v>
+      </c>
+      <c r="AQ263">
+        <v>1.27</v>
+      </c>
+      <c r="AR263">
+        <v>1.45</v>
+      </c>
+      <c r="AS263">
+        <v>1.4</v>
+      </c>
+      <c r="AT263">
+        <v>2.85</v>
+      </c>
+      <c r="AU263">
+        <v>3</v>
+      </c>
+      <c r="AV263">
+        <v>5</v>
+      </c>
+      <c r="AW263">
+        <v>4</v>
+      </c>
+      <c r="AX263">
+        <v>5</v>
+      </c>
+      <c r="AY263">
+        <v>7</v>
+      </c>
+      <c r="AZ263">
+        <v>10</v>
+      </c>
+      <c r="BA263">
+        <v>5</v>
+      </c>
+      <c r="BB263">
+        <v>5</v>
+      </c>
+      <c r="BC263">
+        <v>10</v>
+      </c>
+      <c r="BD263">
+        <v>1.67</v>
+      </c>
+      <c r="BE263">
+        <v>7.7</v>
+      </c>
+      <c r="BF263">
+        <v>2.7</v>
+      </c>
+      <c r="BG263">
+        <v>1.35</v>
+      </c>
+      <c r="BH263">
+        <v>2.93</v>
+      </c>
+      <c r="BI263">
+        <v>1.63</v>
+      </c>
+      <c r="BJ263">
+        <v>2.24</v>
+      </c>
+      <c r="BK263">
+        <v>2.03</v>
+      </c>
+      <c r="BL263">
+        <v>1.77</v>
+      </c>
+      <c r="BM263">
+        <v>2.65</v>
+      </c>
+      <c r="BN263">
+        <v>1.42</v>
+      </c>
+      <c r="BO263">
+        <v>3.58</v>
+      </c>
+      <c r="BP263">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="264" spans="1:68">
+      <c r="A264" s="1">
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>7487375</v>
+      </c>
+      <c r="C264" t="s">
+        <v>68</v>
+      </c>
+      <c r="D264" t="s">
+        <v>69</v>
+      </c>
+      <c r="E264" s="2">
+        <v>45625.8125</v>
+      </c>
+      <c r="F264">
+        <v>22</v>
+      </c>
+      <c r="G264" t="s">
+        <v>76</v>
+      </c>
+      <c r="H264" t="s">
+        <v>75</v>
+      </c>
+      <c r="I264">
+        <v>0</v>
+      </c>
+      <c r="J264">
+        <v>0</v>
+      </c>
+      <c r="K264">
+        <v>0</v>
+      </c>
+      <c r="L264">
+        <v>0</v>
+      </c>
+      <c r="M264">
+        <v>0</v>
+      </c>
+      <c r="N264">
+        <v>0</v>
+      </c>
+      <c r="O264" t="s">
+        <v>89</v>
+      </c>
+      <c r="P264" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q264">
+        <v>3.2</v>
+      </c>
+      <c r="R264">
+        <v>2.05</v>
+      </c>
+      <c r="S264">
+        <v>3.5</v>
+      </c>
+      <c r="T264">
+        <v>1.5</v>
+      </c>
+      <c r="U264">
+        <v>2.4</v>
+      </c>
+      <c r="V264">
+        <v>3.3</v>
+      </c>
+      <c r="W264">
+        <v>1.28</v>
+      </c>
+      <c r="X264">
+        <v>7.2</v>
+      </c>
+      <c r="Y264">
+        <v>1.05</v>
+      </c>
+      <c r="Z264">
+        <v>2.45</v>
+      </c>
+      <c r="AA264">
+        <v>3.2</v>
+      </c>
+      <c r="AB264">
+        <v>2.8</v>
+      </c>
+      <c r="AC264">
+        <v>1.07</v>
+      </c>
+      <c r="AD264">
+        <v>7.5</v>
+      </c>
+      <c r="AE264">
+        <v>1.4</v>
+      </c>
+      <c r="AF264">
+        <v>2.8</v>
+      </c>
+      <c r="AG264">
+        <v>2.15</v>
+      </c>
+      <c r="AH264">
+        <v>1.67</v>
+      </c>
+      <c r="AI264">
+        <v>1.83</v>
+      </c>
+      <c r="AJ264">
+        <v>1.83</v>
+      </c>
+      <c r="AK264">
+        <v>1.33</v>
+      </c>
+      <c r="AL264">
+        <v>1.29</v>
+      </c>
+      <c r="AM264">
+        <v>1.44</v>
+      </c>
+      <c r="AN264">
+        <v>1.26</v>
+      </c>
+      <c r="AO264">
+        <v>1.51</v>
+      </c>
+      <c r="AP264">
+        <v>1.25</v>
+      </c>
+      <c r="AQ264">
+        <v>1.5</v>
+      </c>
+      <c r="AR264">
+        <v>1.42</v>
+      </c>
+      <c r="AS264">
+        <v>1.28</v>
+      </c>
+      <c r="AT264">
+        <v>2.7</v>
+      </c>
+      <c r="AU264">
+        <v>6</v>
+      </c>
+      <c r="AV264">
+        <v>4</v>
+      </c>
+      <c r="AW264">
+        <v>6</v>
+      </c>
+      <c r="AX264">
+        <v>2</v>
+      </c>
+      <c r="AY264">
+        <v>12</v>
+      </c>
+      <c r="AZ264">
+        <v>6</v>
+      </c>
+      <c r="BA264">
+        <v>4</v>
+      </c>
+      <c r="BB264">
+        <v>4</v>
+      </c>
+      <c r="BC264">
+        <v>8</v>
+      </c>
+      <c r="BD264">
+        <v>1.83</v>
+      </c>
+      <c r="BE264">
+        <v>7.4</v>
+      </c>
+      <c r="BF264">
+        <v>2.4</v>
+      </c>
+      <c r="BG264">
+        <v>1.29</v>
+      </c>
+      <c r="BH264">
+        <v>3.27</v>
+      </c>
+      <c r="BI264">
+        <v>1.53</v>
+      </c>
+      <c r="BJ264">
+        <v>2.42</v>
+      </c>
+      <c r="BK264">
+        <v>1.89</v>
+      </c>
+      <c r="BL264">
+        <v>1.91</v>
+      </c>
+      <c r="BM264">
+        <v>2.38</v>
+      </c>
+      <c r="BN264">
+        <v>1.54</v>
+      </c>
+      <c r="BO264">
+        <v>3.15</v>
+      </c>
+      <c r="BP264">
         <v>1.31</v>
       </c>
     </row>
